--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACFE5556-8EF6-4A9B-B112-C354C909A81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3A2ED-ED15-4BBE-8589-A04FCC755643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1185" windowWidth="21600" windowHeight="9645" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU" sheetId="1" r:id="rId1"/>
+    <sheet name="Branch" sheetId="2" r:id="rId2"/>
+    <sheet name="DataMemory" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +145,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 == din2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 != din2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &gt;= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgtz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &gt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &lt;= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bltz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &lt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgezal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bltzal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BraOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AluOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,8 +237,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0000"/>
+    <numFmt numFmtId="177" formatCode="000"/>
+    <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -206,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +307,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDACB7E2-4D21-4756-8FC0-21D4AFA9E8B8}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,15 +656,15 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,19 +732,13 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -653,7 +746,10 @@
         <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,10 +765,7 @@
         <v>1001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,10 +773,10 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -691,10 +784,10 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -702,10 +795,10 @@
         <v>1100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,9 +806,20 @@
         <v>1101</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1110</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -727,4 +831,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6B0BF-8614-43A7-9F15-E4FE95337B3D}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD702E6A-ACE3-4E0D-8A99-CB82ACE23858}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3A2ED-ED15-4BBE-8589-A04FCC755643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C966A-46EC-499F-B246-4C8DBEDC08A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
-    <sheet name="ALU" sheetId="1" r:id="rId1"/>
-    <sheet name="Branch" sheetId="2" r:id="rId2"/>
-    <sheet name="DataMemory" sheetId="3" r:id="rId3"/>
+    <sheet name="Control" sheetId="4" r:id="rId1"/>
+    <sheet name="ALU" sheetId="1" r:id="rId2"/>
+    <sheet name="Branch" sheetId="2" r:id="rId3"/>
+    <sheet name="DataMemory" sheetId="3" r:id="rId4"/>
+    <sheet name="MulDiv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,201 +37,487 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="127">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLTU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLTIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XORI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLLV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRLV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 == din2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 != din2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &gt;= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgtz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &gt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &lt;= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bltz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din1 &lt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgezal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bltzal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BraOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AluOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>andi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sllv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srlv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jalr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mflo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mthi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtlo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>addiu</t>
   </si>
   <si>
     <t>访存指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din1 == din2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din1 != din2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din1 &gt;= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgtz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din1 &gt; 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din1 &lt;= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bltz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din1 &lt; 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgezal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bltzal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BraOp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AluOp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半字</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>sllv</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srav</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>srlv</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BraEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeJumpImm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeJumpReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MdOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MulDiv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,10 +525,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0000"/>
     <numFmt numFmtId="177" formatCode="000"/>
     <numFmt numFmtId="178" formatCode="00"/>
+    <numFmt numFmtId="179" formatCode="000000"/>
+    <numFmt numFmtId="180" formatCode="00000"/>
+    <numFmt numFmtId="181" formatCode="00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -268,12 +559,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +625,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,11 +970,3409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
+  <dimension ref="A1:S59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="10"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>100001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>100010</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>100011</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>101010</v>
+      </c>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>101011</v>
+      </c>
+      <c r="H11" s="5">
+        <v>101</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="5">
+        <v>101</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>11010</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>11011</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>11000</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>11001</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>100100</v>
+      </c>
+      <c r="H17" s="5">
+        <v>110</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1100</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="5">
+        <v>110</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1111</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="5">
+        <v>111</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>100111</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>100101</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1101</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="5">
+        <v>1001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>100110</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1110</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>100</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1011</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1011</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>111</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="12">
+        <v>11</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>110</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1101</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="12">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1101</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="12">
+        <v>100</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="12">
+        <v>101</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12">
+        <v>111</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8">
+        <v>11</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="12">
+        <v>110</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
+        <v>100</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8">
+        <v>101</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="17">
+        <v>10001</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="17">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
+        <v>101</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="12">
+        <v>10</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="12">
+        <v>11</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1001</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>10000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>10010</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
+        <v>10001</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
+        <v>10011</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="12">
+        <v>1101</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="12">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="12">
+        <v>100000</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="12">
+        <v>100100</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="12">
+        <v>100001</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="10">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="12">
+        <v>100101</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="10">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="12">
+        <v>100011</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="10">
+        <v>10</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="12">
+        <v>101000</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12">
+        <v>101001</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="12">
+        <v>101011</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="10">
+        <v>10</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C57" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>11000</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C59" s="13">
+        <v>100</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDACB7E2-4D21-4756-8FC0-21D4AFA9E8B8}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,15 +4387,15 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,13 +4403,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,13 +4420,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -700,10 +4434,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,7 +4451,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,10 +4465,13 @@
         <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -730,7 +4479,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -738,7 +4493,13 @@
         <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,10 +4507,13 @@
         <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -757,7 +4521,13 @@
         <v>1000</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,7 +4535,13 @@
         <v>1001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -773,10 +4549,13 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,10 +4563,13 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -795,10 +4577,13 @@
         <v>1100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,21 +4591,13 @@
         <v>1101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1110</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -833,11 +4610,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6B0BF-8614-43A7-9F15-E4FE95337B3D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -852,14 +4629,14 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -889,13 +4666,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -903,10 +4680,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,10 +4691,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,13 +4702,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -943,13 +4720,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD702E6A-ACE3-4E0D-8A99-CB82ACE23858}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -960,10 +4735,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +4762,68 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB907F-79B3-4E46-B52E-E717521277CF}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD85550B-400B-4988-8EB8-CA1FF381F2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2CFE92-4024-4A3B-9B9B-F0084C04AB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Control" sheetId="4" r:id="rId1"/>
-    <sheet name="Branch" sheetId="2" r:id="rId2"/>
-    <sheet name="ALU" sheetId="1" r:id="rId3"/>
-    <sheet name="MulDiv" sheetId="5" r:id="rId4"/>
-    <sheet name="DataMemory" sheetId="3" r:id="rId5"/>
-    <sheet name="RegFile" sheetId="6" r:id="rId6"/>
-    <sheet name="HiLo" sheetId="8" r:id="rId7"/>
+    <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
+    <sheet name="Control" sheetId="4" r:id="rId2"/>
+    <sheet name="Branch" sheetId="2" r:id="rId3"/>
+    <sheet name="ALU" sheetId="1" r:id="rId4"/>
+    <sheet name="MulDiv" sheetId="5" r:id="rId5"/>
+    <sheet name="DataMemory" sheetId="3" r:id="rId6"/>
+    <sheet name="RegFile" sheetId="6" r:id="rId7"/>
+    <sheet name="HiLo" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="177">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +633,94 @@
   </si>
   <si>
     <t>sa域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluDin1Src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluDin2Src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regAddr3Src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regDinSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlDinHiSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlDinLoSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeEret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +736,7 @@
     <numFmt numFmtId="180" formatCode="00000"/>
     <numFmt numFmtId="181" formatCode="00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,13 +761,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -695,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,7 +889,19 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -783,13 +910,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,14 +1262,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF38BED-6890-44F8-A207-BB1D25B80CDD}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="1">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="36">
+        <v>4</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="34">
+        <v>1</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="34">
+        <v>1</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="36">
+        <v>2</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="34">
+        <v>1</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="34">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="35">
+        <v>2</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="35">
+        <v>3</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="35">
+        <v>2</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="35">
+        <v>3</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,101 +1639,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="29" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
       <c r="AA2" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="14" t="s">
         <v>107</v>
       </c>
@@ -1397,11 +1891,11 @@
       <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="19">
         <v>0</v>
       </c>
@@ -1559,11 +2053,11 @@
       <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="19">
         <v>0</v>
       </c>
@@ -1887,11 +2381,11 @@
       <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="19">
         <v>0</v>
       </c>
@@ -2049,11 +2543,11 @@
       <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="19">
         <v>0</v>
       </c>
@@ -2543,11 +3037,11 @@
       <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="19">
         <v>0</v>
       </c>
@@ -2622,11 +3116,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -2867,11 +3361,11 @@
       <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="19">
         <v>0</v>
       </c>
@@ -3029,11 +3523,11 @@
       <c r="D25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="19">
         <v>0</v>
       </c>
@@ -3606,11 +4100,11 @@
       <c r="D32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="19">
         <v>1</v>
       </c>
@@ -3685,11 +4179,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -3764,11 +4258,11 @@
       <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -3843,11 +4337,11 @@
       <c r="D35" s="12">
         <v>0</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -3922,11 +4416,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4001,11 +4495,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -4080,11 +4574,11 @@
       <c r="D38" s="12">
         <v>10001</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -4159,11 +4653,11 @@
       <c r="D39" s="12">
         <v>10000</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -4232,13 +4726,13 @@
       <c r="B40" s="20">
         <v>10</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="19">
         <v>0</v>
       </c>
@@ -4307,13 +4801,13 @@
       <c r="B41" s="20">
         <v>11</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -4880,12 +5374,12 @@
       <c r="B48" s="20">
         <v>0</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="20">
         <v>1101</v>
       </c>
@@ -4957,12 +5451,12 @@
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="20">
         <v>1100</v>
       </c>
@@ -5040,11 +5534,11 @@
       <c r="D50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
       <c r="H50" s="19">
         <v>0</v>
       </c>
@@ -5119,11 +5613,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -5198,11 +5692,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -5277,11 +5771,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -5356,11 +5850,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -5435,11 +5929,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -5514,11 +6008,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -5593,11 +6087,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -5910,18 +6404,19 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
@@ -5934,22 +6429,21 @@
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5957,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6B0BF-8614-43A7-9F15-E4FE95337B3D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5978,10 +6472,10 @@
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28"/>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6067,7 +6561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDACB7E2-4D21-4756-8FC0-21D4AFA9E8B8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6095,11 +6589,11 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6352,7 +6846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB907F-79B3-4E46-B52E-E717521277CF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6413,7 +6907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD702E6A-ACE3-4E0D-8A99-CB82ACE23858}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6464,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947260C0-B57D-402D-A7FB-E56302B48C32}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -6573,7 +7067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E22FF-6159-4733-93EB-5184B9746FE9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -6583,7 +7077,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -6592,13 +7086,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>151</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -6606,13 +7100,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -6620,13 +7114,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2CFE92-4024-4A3B-9B9B-F0084C04AB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76906D7E-168A-4F09-95EF-07442377EF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="177">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,13 +728,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0000"/>
     <numFmt numFmtId="177" formatCode="000"/>
     <numFmt numFmtId="178" formatCode="00"/>
     <numFmt numFmtId="179" formatCode="000000"/>
     <numFmt numFmtId="180" formatCode="00000"/>
-    <numFmt numFmtId="181" formatCode="00000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -886,9 +885,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,16 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,6 +934,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,9 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF38BED-6890-44F8-A207-BB1D25B80CDD}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1285,29 +1282,29 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1344,7 +1341,7 @@
       <c r="B3" s="1">
         <v>32</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>161</v>
       </c>
       <c r="E3" s="1">
@@ -1364,230 +1361,230 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>4</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="34">
-        <v>1</v>
-      </c>
-      <c r="J4" s="42" t="s">
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40" t="s">
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="34">
-        <v>1</v>
-      </c>
-      <c r="J5" s="43" t="s">
+      <c r="H5" s="30">
+        <v>1</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="30">
         <v>2</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="34">
-        <v>1</v>
-      </c>
-      <c r="J7" s="43" t="s">
+      <c r="H7" s="30">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="34">
-        <v>1</v>
-      </c>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="35">
-        <v>1</v>
-      </c>
-      <c r="J8" s="45" t="s">
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="34">
-        <v>1</v>
-      </c>
-      <c r="G9" s="43" t="s">
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="31">
         <v>2</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>2</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="31">
         <v>3</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="34">
-        <v>1</v>
-      </c>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <v>2</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="31">
         <v>3</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1600,21 +1597,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.5" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.875" style="23" bestFit="1" customWidth="1"/>
@@ -1639,101 +1635,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
       <c r="AA2" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="14" t="s">
         <v>107</v>
       </c>
@@ -1795,95 +1791,95 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20">
-        <v>100000</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="21">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U4" s="19">
-        <v>1</v>
-      </c>
-      <c r="V4" s="24">
-        <v>0</v>
-      </c>
-      <c r="W4" s="23">
-        <v>0</v>
-      </c>
-      <c r="X4" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>0</v>
+    <row r="4" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="17">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17">
+        <v>5</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17">
+        <v>6</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>3</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17">
+        <v>4</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="17">
+        <v>1</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <v>2</v>
+      </c>
+      <c r="W4" s="17">
+        <v>3</v>
+      </c>
+      <c r="X4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="20">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>24</v>
@@ -1891,11 +1887,15 @@
       <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>100000</v>
+      </c>
       <c r="H5" s="19">
         <v>0</v>
       </c>
@@ -1908,8 +1908,8 @@
       <c r="K5" s="19">
         <v>0</v>
       </c>
-      <c r="L5" s="19">
-        <v>1</v>
+      <c r="L5" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M5" s="21">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>118</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="23">
         <v>0</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>24</v>
@@ -1970,15 +1970,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>100001</v>
-      </c>
+      <c r="E6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -1991,17 +1987,17 @@
       <c r="K6" s="19">
         <v>0</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>109</v>
+      <c r="L6" s="19">
+        <v>1</v>
       </c>
       <c r="M6" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="22">
         <v>0</v>
       </c>
       <c r="O6" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>118</v>
@@ -2022,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="23">
         <v>0</v>
@@ -2042,10 +2038,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="20">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>24</v>
@@ -2053,11 +2049,15 @@
       <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>100001</v>
+      </c>
       <c r="H7" s="19">
         <v>0</v>
       </c>
@@ -2070,8 +2070,8 @@
       <c r="K7" s="19">
         <v>0</v>
       </c>
-      <c r="L7" s="19">
-        <v>1</v>
+      <c r="L7" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>118</v>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="23">
         <v>0</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="20">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
@@ -2132,15 +2132,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>100010</v>
-      </c>
+      <c r="E8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2153,17 +2149,17 @@
       <c r="K8" s="19">
         <v>0</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>109</v>
+      <c r="L8" s="19">
+        <v>1</v>
       </c>
       <c r="M8" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N8" s="22">
         <v>0</v>
       </c>
       <c r="O8" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>118</v>
@@ -2184,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="23">
         <v>0</v>
@@ -2204,7 +2200,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="20">
         <v>0</v>
@@ -2222,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="20">
-        <v>100011</v>
+        <v>100010</v>
       </c>
       <c r="H9" s="19">
         <v>0</v>
@@ -2240,7 +2236,7 @@
         <v>109</v>
       </c>
       <c r="M9" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="22">
         <v>0</v>
@@ -2287,7 +2283,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="20">
         <v>0</v>
@@ -2305,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="20">
-        <v>101010</v>
+        <v>100011</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -2323,7 +2319,7 @@
         <v>109</v>
       </c>
       <c r="M10" s="21">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="N10" s="22">
         <v>0</v>
@@ -2370,10 +2366,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="20">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
@@ -2381,11 +2377,15 @@
       <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>101010</v>
+      </c>
       <c r="H11" s="19">
         <v>0</v>
       </c>
@@ -2398,8 +2398,8 @@
       <c r="K11" s="19">
         <v>0</v>
       </c>
-      <c r="L11" s="19">
-        <v>1</v>
+      <c r="L11" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M11" s="21">
         <v>100</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>118</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="23">
         <v>0</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="20">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>24</v>
@@ -2460,15 +2460,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>101011</v>
-      </c>
+      <c r="E12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2481,17 +2477,17 @@
       <c r="K12" s="19">
         <v>0</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>109</v>
+      <c r="L12" s="19">
+        <v>1</v>
       </c>
       <c r="M12" s="21">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N12" s="22">
         <v>0</v>
       </c>
       <c r="O12" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="24" t="s">
         <v>118</v>
@@ -2512,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="23">
         <v>0</v>
@@ -2532,10 +2528,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="20">
-        <v>1011</v>
+        <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>24</v>
@@ -2543,11 +2539,15 @@
       <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="E13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>101011</v>
+      </c>
       <c r="H13" s="19">
         <v>0</v>
       </c>
@@ -2560,8 +2560,8 @@
       <c r="K13" s="19">
         <v>0</v>
       </c>
-      <c r="L13" s="19">
-        <v>1</v>
+      <c r="L13" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M13" s="21">
         <v>101</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>118</v>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="23">
         <v>0</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="20">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>24</v>
@@ -2622,15 +2622,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>11010</v>
-      </c>
+      <c r="E14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -2643,20 +2639,20 @@
       <c r="K14" s="19">
         <v>0</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P14" s="24">
-        <v>0</v>
+      <c r="L14" s="19">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21">
+        <v>101</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="Q14" s="19">
         <v>0</v>
@@ -2671,22 +2667,22 @@
         <v>109</v>
       </c>
       <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W14" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="V14" s="24">
+        <v>1</v>
+      </c>
+      <c r="W14" s="23">
+        <v>0</v>
       </c>
       <c r="X14" s="24">
-        <v>11</v>
-      </c>
-      <c r="Y14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="AA14" s="19">
         <v>0</v>
@@ -2694,7 +2690,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="20">
         <v>0</v>
@@ -2712,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="20">
-        <v>11011</v>
+        <v>11010</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -2739,7 +2735,7 @@
         <v>109</v>
       </c>
       <c r="P15" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="19">
         <v>0</v>
@@ -2777,7 +2773,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="20">
         <v>0</v>
@@ -2795,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="20">
-        <v>11000</v>
+        <v>11011</v>
       </c>
       <c r="H16" s="19">
         <v>0</v>
@@ -2822,7 +2818,7 @@
         <v>109</v>
       </c>
       <c r="P16" s="24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="19">
         <v>0</v>
@@ -2860,7 +2856,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="20">
         <v>0</v>
@@ -2878,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="20">
-        <v>11001</v>
+        <v>11000</v>
       </c>
       <c r="H17" s="19">
         <v>0</v>
@@ -2905,7 +2901,7 @@
         <v>109</v>
       </c>
       <c r="P17" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="19">
         <v>0</v>
@@ -2943,7 +2939,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="20">
         <v>0</v>
@@ -2954,14 +2950,14 @@
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>26</v>
+      <c r="E18" s="12">
+        <v>0</v>
       </c>
       <c r="F18" s="12">
         <v>0</v>
       </c>
       <c r="G18" s="20">
-        <v>100100</v>
+        <v>11001</v>
       </c>
       <c r="H18" s="19">
         <v>0</v>
@@ -2978,17 +2974,17 @@
       <c r="L18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="21">
-        <v>110</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>118</v>
+      <c r="M18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="24">
+        <v>11</v>
       </c>
       <c r="Q18" s="19">
         <v>0</v>
@@ -3003,22 +2999,22 @@
         <v>109</v>
       </c>
       <c r="U18" s="19">
-        <v>1</v>
-      </c>
-      <c r="V18" s="24">
-        <v>0</v>
-      </c>
-      <c r="W18" s="23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="X18" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z18" s="22" t="s">
-        <v>109</v>
+        <v>11</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="22">
+        <v>0</v>
       </c>
       <c r="AA18" s="19">
         <v>0</v>
@@ -3026,10 +3022,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="20">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>24</v>
@@ -3037,11 +3033,15 @@
       <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>100100</v>
+      </c>
       <c r="H19" s="19">
         <v>0</v>
       </c>
@@ -3054,8 +3054,8 @@
       <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="19">
-        <v>0</v>
+      <c r="L19" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M19" s="21">
         <v>110</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>118</v>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="23">
         <v>0</v>
@@ -3105,22 +3105,22 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="20">
-        <v>1111</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3133,14 +3133,14 @@
       <c r="K20" s="19">
         <v>0</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>109</v>
+      <c r="L20" s="19">
+        <v>0</v>
       </c>
       <c r="M20" s="21">
-        <v>111</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
       </c>
       <c r="O20" s="22">
         <v>1</v>
@@ -3184,26 +3184,22 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="20">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>24</v>
+        <v>1111</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>100111</v>
-      </c>
+      <c r="E21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3220,13 +3216,13 @@
         <v>109</v>
       </c>
       <c r="M21" s="21">
-        <v>1000</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="O21" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>118</v>
@@ -3247,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="23">
         <v>0</v>
@@ -3267,7 +3263,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="20">
         <v>0</v>
@@ -3285,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="20">
-        <v>100101</v>
+        <v>100111</v>
       </c>
       <c r="H22" s="19">
         <v>0</v>
@@ -3303,7 +3299,7 @@
         <v>109</v>
       </c>
       <c r="M22" s="21">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N22" s="22">
         <v>0</v>
@@ -3350,10 +3346,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="20">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>24</v>
@@ -3361,11 +3357,15 @@
       <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="E23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>100101</v>
+      </c>
       <c r="H23" s="19">
         <v>0</v>
       </c>
@@ -3378,8 +3378,8 @@
       <c r="K23" s="19">
         <v>0</v>
       </c>
-      <c r="L23" s="19">
-        <v>0</v>
+      <c r="L23" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M23" s="21">
         <v>1001</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>118</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="23">
         <v>0</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="20">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>24</v>
@@ -3440,15 +3440,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>100110</v>
-      </c>
+      <c r="E24" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3461,17 +3457,17 @@
       <c r="K24" s="19">
         <v>0</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>109</v>
+      <c r="L24" s="19">
+        <v>0</v>
       </c>
       <c r="M24" s="21">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N24" s="22">
         <v>0</v>
       </c>
       <c r="O24" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>118</v>
@@ -3492,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="23">
         <v>0</v>
@@ -3512,10 +3508,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="20">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>24</v>
@@ -3523,11 +3519,15 @@
       <c r="D25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="E25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <v>100110</v>
+      </c>
       <c r="H25" s="19">
         <v>0</v>
       </c>
@@ -3540,8 +3540,8 @@
       <c r="K25" s="19">
         <v>0</v>
       </c>
-      <c r="L25" s="19">
-        <v>0</v>
+      <c r="L25" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M25" s="21">
         <v>1010</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="24" t="s">
         <v>118</v>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="V25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="23">
         <v>0</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="20">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>24</v>
@@ -3602,15 +3602,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>100</v>
-      </c>
+      <c r="E26" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -3623,17 +3619,17 @@
       <c r="K26" s="19">
         <v>0</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>109</v>
+      <c r="L26" s="19">
+        <v>0</v>
       </c>
       <c r="M26" s="21">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N26" s="22">
         <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>118</v>
@@ -3654,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="V26" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="23">
         <v>0</v>
@@ -3674,13 +3670,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="20">
         <v>0</v>
       </c>
-      <c r="C27" s="12">
-        <v>0</v>
+      <c r="C27" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>25</v>
@@ -3688,11 +3684,11 @@
       <c r="E27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>51</v>
+      <c r="F27" s="12">
+        <v>0</v>
       </c>
       <c r="G27" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="19">
         <v>0</v>
@@ -3713,7 +3709,7 @@
         <v>1011</v>
       </c>
       <c r="N27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="22">
         <v>0</v>
@@ -3757,13 +3753,13 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="20">
         <v>0</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>24</v>
+      <c r="C28" s="12">
+        <v>0</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>25</v>
@@ -3771,11 +3767,11 @@
       <c r="E28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="12">
-        <v>0</v>
+      <c r="F28" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="G28" s="20">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
@@ -3793,10 +3789,10 @@
         <v>109</v>
       </c>
       <c r="M28" s="21">
-        <v>1100</v>
+        <v>1011</v>
       </c>
       <c r="N28" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="22">
         <v>0</v>
@@ -3840,13 +3836,13 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="20">
         <v>0</v>
       </c>
-      <c r="C29" s="12">
-        <v>0</v>
+      <c r="C29" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>25</v>
@@ -3854,11 +3850,11 @@
       <c r="E29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>51</v>
+      <c r="F29" s="12">
+        <v>0</v>
       </c>
       <c r="G29" s="20">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H29" s="19">
         <v>0</v>
@@ -3879,7 +3875,7 @@
         <v>1100</v>
       </c>
       <c r="N29" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="22">
         <v>0</v>
@@ -3923,13 +3919,13 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="20">
         <v>0</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>24</v>
+      <c r="C30" s="12">
+        <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>25</v>
@@ -3937,11 +3933,11 @@
       <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="12">
-        <v>0</v>
+      <c r="F30" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="G30" s="20">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -3959,10 +3955,10 @@
         <v>109</v>
       </c>
       <c r="M30" s="21">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="N30" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
@@ -4006,13 +4002,13 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="20">
         <v>0</v>
       </c>
-      <c r="C31" s="12">
-        <v>0</v>
+      <c r="C31" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>25</v>
@@ -4020,11 +4016,11 @@
       <c r="E31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>51</v>
+      <c r="F31" s="12">
+        <v>0</v>
       </c>
       <c r="G31" s="20">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="H31" s="19">
         <v>0</v>
@@ -4045,7 +4041,7 @@
         <v>1101</v>
       </c>
       <c r="N31" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="22">
         <v>0</v>
@@ -4089,27 +4085,31 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B32" s="20">
-        <v>100</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="E32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="20">
+        <v>10</v>
+      </c>
       <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="J32" s="19">
         <v>0</v>
@@ -4117,17 +4117,17 @@
       <c r="K32" s="19">
         <v>0</v>
       </c>
-      <c r="L32" s="19">
-        <v>1</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>109</v>
+      <c r="L32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="21">
+        <v>1101</v>
+      </c>
+      <c r="N32" s="22">
+        <v>1</v>
+      </c>
+      <c r="O32" s="22">
+        <v>0</v>
       </c>
       <c r="P32" s="24" t="s">
         <v>118</v>
@@ -4145,13 +4145,13 @@
         <v>109</v>
       </c>
       <c r="U32" s="19">
-        <v>0</v>
-      </c>
-      <c r="V32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W32" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="V32" s="24">
+        <v>0</v>
+      </c>
+      <c r="W32" s="23">
+        <v>0</v>
       </c>
       <c r="X32" s="24">
         <v>0</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="20">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>24</v>
@@ -4179,16 +4179,16 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
       <c r="I33" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="19">
         <v>0</v>
@@ -4247,27 +4247,27 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" s="20">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31" t="s">
+      <c r="D34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J34" s="19">
         <v>0</v>
@@ -4326,27 +4326,27 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="20">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
       <c r="I35" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J35" s="19">
         <v>0</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="20">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>24</v>
@@ -4416,16 +4416,16 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
       <c r="I36" s="23">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J36" s="19">
         <v>0</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" s="20">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>24</v>
@@ -4495,16 +4495,16 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
       <c r="I37" s="23">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J37" s="19">
         <v>0</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="20">
         <v>1</v>
@@ -4572,18 +4572,18 @@
         <v>24</v>
       </c>
       <c r="D38" s="12">
-        <v>10001</v>
-      </c>
-      <c r="E38" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
       <c r="I38" s="23">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="J38" s="19">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>109</v>
       </c>
       <c r="U38" s="19">
-        <v>1</v>
-      </c>
-      <c r="V38" s="24">
-        <v>10</v>
-      </c>
-      <c r="W38" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="V38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W38" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="X38" s="24">
         <v>0</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="20">
         <v>1</v>
@@ -4651,18 +4651,18 @@
         <v>24</v>
       </c>
       <c r="D39" s="12">
-        <v>10000</v>
-      </c>
-      <c r="E39" s="31" t="s">
+        <v>10001</v>
+      </c>
+      <c r="E39" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
       <c r="I39" s="23">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J39" s="19">
         <v>0</v>
@@ -4721,32 +4721,36 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B40" s="20">
-        <v>10</v>
-      </c>
-      <c r="C40" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E40" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="19">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="23">
+        <v>101</v>
       </c>
       <c r="J40" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="19">
         <v>0</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>109</v>
+      <c r="L40" s="19">
+        <v>1</v>
       </c>
       <c r="M40" s="21" t="s">
         <v>106</v>
@@ -4773,13 +4777,13 @@
         <v>109</v>
       </c>
       <c r="U40" s="19">
-        <v>0</v>
-      </c>
-      <c r="V40" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W40" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="V40" s="24">
+        <v>10</v>
+      </c>
+      <c r="W40" s="23">
+        <v>1</v>
       </c>
       <c r="X40" s="24">
         <v>0</v>
@@ -4796,18 +4800,18 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="20">
-        <v>11</v>
-      </c>
-      <c r="C41" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -4848,13 +4852,13 @@
         <v>109</v>
       </c>
       <c r="U41" s="19">
-        <v>1</v>
-      </c>
-      <c r="V41" s="24">
-        <v>10</v>
-      </c>
-      <c r="W41" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="V41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="X41" s="24">
         <v>0</v>
@@ -4871,26 +4875,18 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="20">
-        <v>0</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -4898,10 +4894,10 @@
         <v>108</v>
       </c>
       <c r="J42" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>109</v>
@@ -4931,13 +4927,13 @@
         <v>109</v>
       </c>
       <c r="U42" s="19">
-        <v>0</v>
-      </c>
-      <c r="V42" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W42" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="V42" s="24">
+        <v>10</v>
+      </c>
+      <c r="W42" s="23">
+        <v>1</v>
       </c>
       <c r="X42" s="24">
         <v>0</v>
@@ -4954,7 +4950,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="20">
         <v>0</v>
@@ -4965,14 +4961,14 @@
       <c r="D43" s="12">
         <v>0</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>26</v>
+      <c r="E43" s="12">
+        <v>0</v>
       </c>
       <c r="F43" s="12">
         <v>0</v>
       </c>
       <c r="G43" s="20">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="19">
         <v>0</v>
@@ -5014,13 +5010,13 @@
         <v>109</v>
       </c>
       <c r="U43" s="19">
-        <v>1</v>
-      </c>
-      <c r="V43" s="24">
-        <v>0</v>
-      </c>
-      <c r="W43" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="V43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W43" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="X43" s="24">
         <v>0</v>
@@ -5037,13 +5033,13 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="20">
         <v>0</v>
       </c>
-      <c r="C44" s="12">
-        <v>0</v>
+      <c r="C44" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D44" s="12">
         <v>0</v>
@@ -5055,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="20">
-        <v>10000</v>
+        <v>1001</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -5067,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="19" t="s">
         <v>109</v>
@@ -5103,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X44" s="24">
         <v>0</v>
@@ -5120,7 +5116,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="20">
         <v>0</v>
@@ -5138,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="20">
-        <v>10010</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="19">
         <v>0</v>
@@ -5186,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X45" s="24">
         <v>0</v>
@@ -5203,25 +5199,25 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="20">
         <v>0</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>24</v>
+      <c r="C46" s="12">
+        <v>0</v>
       </c>
       <c r="D46" s="12">
         <v>0</v>
       </c>
-      <c r="E46" s="12">
-        <v>0</v>
+      <c r="E46" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F46" s="12">
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <v>10001</v>
+        <v>10010</v>
       </c>
       <c r="H46" s="19">
         <v>0</v>
@@ -5263,19 +5259,19 @@
         <v>109</v>
       </c>
       <c r="U46" s="19">
-        <v>0</v>
-      </c>
-      <c r="V46" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W46" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="V46" s="24">
+        <v>0</v>
+      </c>
+      <c r="W46" s="23">
+        <v>11</v>
       </c>
       <c r="X46" s="24">
-        <v>10</v>
-      </c>
-      <c r="Y46" s="22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="Z46" s="22" t="s">
         <v>109</v>
@@ -5286,7 +5282,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="20">
         <v>0</v>
@@ -5304,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <v>10011</v>
+        <v>10001</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -5355,13 +5351,13 @@
         <v>108</v>
       </c>
       <c r="X47" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z47" s="22">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Y47" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="AA47" s="19">
         <v>0</v>
@@ -5369,19 +5365,25 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="20">
         <v>0</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
+      <c r="C48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
       <c r="G48" s="20">
-        <v>1101</v>
+        <v>10011</v>
       </c>
       <c r="H48" s="19">
         <v>0</v>
@@ -5432,13 +5434,13 @@
         <v>108</v>
       </c>
       <c r="X48" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Z48" s="22" t="s">
-        <v>109</v>
+      <c r="Z48" s="22">
+        <v>1</v>
       </c>
       <c r="AA48" s="19">
         <v>0</v>
@@ -5446,19 +5448,19 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
       <c r="G49" s="20">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H49" s="19">
         <v>0</v>
@@ -5523,22 +5525,20 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="20">
-        <v>100000</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="20">
+        <v>1100</v>
+      </c>
       <c r="H50" s="19">
         <v>0</v>
       </c>
@@ -5551,17 +5551,17 @@
       <c r="K50" s="19">
         <v>0</v>
       </c>
-      <c r="L50" s="19">
-        <v>1</v>
-      </c>
-      <c r="M50" s="21">
-        <v>1</v>
-      </c>
-      <c r="N50" s="22">
-        <v>0</v>
-      </c>
-      <c r="O50" s="22">
-        <v>1</v>
+      <c r="L50" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="P50" s="24" t="s">
         <v>118</v>
@@ -5570,22 +5570,22 @@
         <v>0</v>
       </c>
       <c r="R50" s="19">
-        <v>1</v>
-      </c>
-      <c r="S50" s="24">
-        <v>0</v>
-      </c>
-      <c r="T50" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T50" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="U50" s="19">
-        <v>1</v>
-      </c>
-      <c r="V50" s="24">
-        <v>1</v>
-      </c>
-      <c r="W50" s="23">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="V50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W50" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="X50" s="24">
         <v>0</v>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="20">
-        <v>100100</v>
+        <v>100000</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>24</v>
@@ -5613,11 +5613,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="19">
         <v>1</v>
@@ -5681,10 +5681,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="20">
-        <v>100001</v>
+        <v>100100</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>24</v>
@@ -5692,11 +5692,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -5731,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="S52" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="19">
         <v>1</v>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="20">
-        <v>100101</v>
+        <v>100001</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>24</v>
@@ -5771,11 +5771,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="19">
         <v>1</v>
@@ -5839,10 +5839,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="20">
-        <v>100011</v>
+        <v>100101</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>24</v>
@@ -5850,11 +5850,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -5889,10 +5889,10 @@
         <v>1</v>
       </c>
       <c r="S54" s="24">
-        <v>10</v>
-      </c>
-      <c r="T54" s="19" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="T54" s="19">
+        <v>0</v>
       </c>
       <c r="U54" s="19">
         <v>1</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="20">
-        <v>101000</v>
+        <v>100011</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>24</v>
@@ -5929,11 +5929,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -5962,25 +5962,25 @@
         <v>118</v>
       </c>
       <c r="Q55" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T55" s="19" t="s">
         <v>109</v>
       </c>
       <c r="U55" s="19">
-        <v>0</v>
-      </c>
-      <c r="V55" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W55" s="23" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="V55" s="24">
+        <v>1</v>
+      </c>
+      <c r="W55" s="23">
+        <v>100</v>
       </c>
       <c r="X55" s="24">
         <v>0</v>
@@ -5997,10 +5997,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="20">
-        <v>101001</v>
+        <v>101000</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>24</v>
@@ -6008,11 +6008,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="19" t="s">
         <v>109</v>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="20">
-        <v>101011</v>
+        <v>101001</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>24</v>
@@ -6087,11 +6087,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T57" s="19" t="s">
         <v>109</v>
@@ -6155,26 +6155,22 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="20">
-        <v>10000</v>
-      </c>
-      <c r="C58" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12">
-        <v>0</v>
-      </c>
-      <c r="F58" s="12">
-        <v>0</v>
-      </c>
-      <c r="G58" s="20">
-        <v>11000</v>
-      </c>
+        <v>101011</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -6187,29 +6183,29 @@
       <c r="K58" s="19">
         <v>0</v>
       </c>
-      <c r="L58" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N58" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O58" s="22" t="s">
-        <v>109</v>
+      <c r="L58" s="19">
+        <v>1</v>
+      </c>
+      <c r="M58" s="21">
+        <v>1</v>
+      </c>
+      <c r="N58" s="22">
+        <v>0</v>
+      </c>
+      <c r="O58" s="22">
+        <v>1</v>
       </c>
       <c r="P58" s="24" t="s">
         <v>118</v>
       </c>
       <c r="Q58" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="19">
         <v>0</v>
       </c>
-      <c r="S58" s="24" t="s">
-        <v>118</v>
+      <c r="S58" s="24">
+        <v>10</v>
       </c>
       <c r="T58" s="19" t="s">
         <v>109</v>
@@ -6233,30 +6229,30 @@
         <v>109</v>
       </c>
       <c r="AA58" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" s="20">
         <v>10000</v>
       </c>
       <c r="C59" s="12">
-        <v>0</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="25">
-        <v>0</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>77</v>
+        <v>10000</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20">
+        <v>11000</v>
       </c>
       <c r="H59" s="19">
         <v>0</v>
@@ -6298,13 +6294,13 @@
         <v>109</v>
       </c>
       <c r="U59" s="19">
-        <v>1</v>
-      </c>
-      <c r="V59" s="24">
-        <v>1</v>
-      </c>
-      <c r="W59" s="23">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="V59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W59" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="X59" s="24">
         <v>0</v>
@@ -6316,18 +6312,18 @@
         <v>109</v>
       </c>
       <c r="AA59" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="20">
         <v>10000</v>
       </c>
       <c r="C60" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>25</v>
@@ -6335,7 +6331,7 @@
       <c r="E60" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="28">
         <v>0</v>
       </c>
       <c r="G60" s="20" t="s">
@@ -6381,59 +6377,112 @@
         <v>109</v>
       </c>
       <c r="U60" s="19">
-        <v>0</v>
-      </c>
-      <c r="V60" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W60" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V60" s="24">
+        <v>1</v>
+      </c>
+      <c r="W60" s="23">
+        <v>101</v>
+      </c>
+      <c r="X60" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA60" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="12">
+        <v>100</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="28">
+        <v>0</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="19">
+        <v>0</v>
+      </c>
+      <c r="I61" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X60" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z60" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA60" s="19">
+      <c r="J61" s="19">
+        <v>0</v>
+      </c>
+      <c r="K61" s="19">
+        <v>0</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" s="19">
+        <v>0</v>
+      </c>
+      <c r="R61" s="19">
+        <v>0</v>
+      </c>
+      <c r="S61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U61" s="19">
+        <v>0</v>
+      </c>
+      <c r="V61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W61" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="X61" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA61" s="19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -6444,6 +6493,36 @@
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6472,10 +6551,10 @@
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6589,11 +6668,11 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7077,7 +7156,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -7086,13 +7165,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -7100,13 +7179,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7114,13 +7193,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76906D7E-168A-4F09-95EF-07442377EF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBA575-6207-4CD3-B33C-42D1BCCEB864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
     <sheet name="Control" sheetId="4" r:id="rId2"/>
-    <sheet name="Branch" sheetId="2" r:id="rId3"/>
-    <sheet name="ALU" sheetId="1" r:id="rId4"/>
-    <sheet name="MulDiv" sheetId="5" r:id="rId5"/>
-    <sheet name="DataMemory" sheetId="3" r:id="rId6"/>
-    <sheet name="RegFile" sheetId="6" r:id="rId7"/>
-    <sheet name="HiLo" sheetId="8" r:id="rId8"/>
+    <sheet name="ControlException" sheetId="10" r:id="rId3"/>
+    <sheet name="Branch" sheetId="2" r:id="rId4"/>
+    <sheet name="ALU" sheetId="1" r:id="rId5"/>
+    <sheet name="MulDiv" sheetId="5" r:id="rId6"/>
+    <sheet name="DataMemory" sheetId="3" r:id="rId7"/>
+    <sheet name="RegFile" sheetId="6" r:id="rId8"/>
+    <sheet name="HiLo" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="182">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +722,26 @@
   </si>
   <si>
     <t>takeEret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +815,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -809,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,16 +975,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF38BED-6890-44F8-A207-BB1D25B80CDD}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1597,9 +1651,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1608,7 +1662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="20" bestFit="1" customWidth="1"/>
@@ -1624,112 +1678,115 @@
     <col min="18" max="18" width="10.125" style="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.25" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="19"/>
+    <col min="21" max="21" width="8.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-    </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="42"/>
+    </row>
+    <row r="3" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="14" t="s">
         <v>107</v>
       </c>
@@ -1770,28 +1827,31 @@
         <v>117</v>
       </c>
       <c r="U3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Z3" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="AA3" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>156</v>
       </c>
@@ -1856,26 +1916,29 @@
         <v>1</v>
       </c>
       <c r="V4" s="17">
+        <v>1</v>
+      </c>
+      <c r="W4" s="17">
         <v>2</v>
       </c>
-      <c r="W4" s="17">
+      <c r="X4" s="17">
         <v>3</v>
       </c>
-      <c r="X4" s="17">
+      <c r="Y4" s="17">
         <v>2</v>
       </c>
-      <c r="Y4" s="17">
-        <v>1</v>
-      </c>
       <c r="Z4" s="17">
         <v>1</v>
       </c>
       <c r="AA4" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="AB4" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="20">
@@ -1936,29 +1999,29 @@
         <v>109</v>
       </c>
       <c r="U5" s="19">
-        <v>1</v>
-      </c>
-      <c r="V5" s="24">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23">
-        <v>0</v>
-      </c>
-      <c r="X5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>1</v>
+      </c>
+      <c r="W5" s="24">
+        <v>0</v>
+      </c>
+      <c r="X5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>0</v>
       </c>
       <c r="Z5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="AA5" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="20">
@@ -1970,11 +2033,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -2015,29 +2078,29 @@
         <v>109</v>
       </c>
       <c r="U6" s="19">
-        <v>1</v>
-      </c>
-      <c r="V6" s="24">
-        <v>1</v>
-      </c>
-      <c r="W6" s="23">
-        <v>0</v>
-      </c>
-      <c r="X6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>1</v>
+      </c>
+      <c r="W6" s="24">
+        <v>1</v>
+      </c>
+      <c r="X6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>0</v>
       </c>
       <c r="Z6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="AA6" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="20">
@@ -2098,29 +2161,29 @@
         <v>109</v>
       </c>
       <c r="U7" s="19">
-        <v>1</v>
-      </c>
-      <c r="V7" s="24">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23">
-        <v>0</v>
-      </c>
-      <c r="X7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>1</v>
+      </c>
+      <c r="W7" s="24">
+        <v>0</v>
+      </c>
+      <c r="X7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>0</v>
       </c>
       <c r="Z7" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="AA7" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="20">
@@ -2132,11 +2195,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2177,29 +2240,29 @@
         <v>109</v>
       </c>
       <c r="U8" s="19">
-        <v>1</v>
-      </c>
-      <c r="V8" s="24">
-        <v>1</v>
-      </c>
-      <c r="W8" s="23">
-        <v>0</v>
-      </c>
-      <c r="X8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <v>1</v>
+      </c>
+      <c r="W8" s="24">
+        <v>1</v>
+      </c>
+      <c r="X8" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>0</v>
       </c>
       <c r="Z8" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="AA8" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="20">
@@ -2260,29 +2323,29 @@
         <v>109</v>
       </c>
       <c r="U9" s="19">
-        <v>1</v>
-      </c>
-      <c r="V9" s="24">
-        <v>0</v>
-      </c>
-      <c r="W9" s="23">
-        <v>0</v>
-      </c>
-      <c r="X9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="24">
+        <v>0</v>
+      </c>
+      <c r="X9" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
+        <v>0</v>
       </c>
       <c r="Z9" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="AA9" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="20">
@@ -2343,29 +2406,29 @@
         <v>109</v>
       </c>
       <c r="U10" s="19">
-        <v>1</v>
-      </c>
-      <c r="V10" s="24">
-        <v>0</v>
-      </c>
-      <c r="W10" s="23">
-        <v>0</v>
-      </c>
-      <c r="X10" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>1</v>
+      </c>
+      <c r="W10" s="24">
+        <v>0</v>
+      </c>
+      <c r="X10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>0</v>
       </c>
       <c r="Z10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA10" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="AA10" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20">
@@ -2426,29 +2489,29 @@
         <v>109</v>
       </c>
       <c r="U11" s="19">
-        <v>1</v>
-      </c>
-      <c r="V11" s="24">
-        <v>0</v>
-      </c>
-      <c r="W11" s="23">
-        <v>0</v>
-      </c>
-      <c r="X11" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1</v>
+      </c>
+      <c r="W11" s="24">
+        <v>0</v>
+      </c>
+      <c r="X11" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0</v>
       </c>
       <c r="Z11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="AA11" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
@@ -2460,11 +2523,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2505,29 +2568,29 @@
         <v>109</v>
       </c>
       <c r="U12" s="19">
-        <v>1</v>
-      </c>
-      <c r="V12" s="24">
-        <v>1</v>
-      </c>
-      <c r="W12" s="23">
-        <v>0</v>
-      </c>
-      <c r="X12" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <v>1</v>
+      </c>
+      <c r="W12" s="24">
+        <v>1</v>
+      </c>
+      <c r="X12" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>0</v>
       </c>
       <c r="Z12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="AA12" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="20">
@@ -2588,29 +2651,29 @@
         <v>109</v>
       </c>
       <c r="U13" s="19">
-        <v>1</v>
-      </c>
-      <c r="V13" s="24">
-        <v>0</v>
-      </c>
-      <c r="W13" s="23">
-        <v>0</v>
-      </c>
-      <c r="X13" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>1</v>
+      </c>
+      <c r="W13" s="24">
+        <v>0</v>
+      </c>
+      <c r="X13" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>0</v>
       </c>
       <c r="Z13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="AA13" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="20">
@@ -2622,11 +2685,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -2667,29 +2730,29 @@
         <v>109</v>
       </c>
       <c r="U14" s="19">
-        <v>1</v>
-      </c>
-      <c r="V14" s="24">
-        <v>1</v>
-      </c>
-      <c r="W14" s="23">
-        <v>0</v>
-      </c>
-      <c r="X14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>1</v>
+      </c>
+      <c r="W14" s="24">
+        <v>1</v>
+      </c>
+      <c r="X14" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="24">
+        <v>0</v>
       </c>
       <c r="Z14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="AA14" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="20">
@@ -2752,27 +2815,27 @@
       <c r="U15" s="19">
         <v>0</v>
       </c>
-      <c r="V15" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W15" s="23" t="s">
+      <c r="V15" s="19">
+        <v>0</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X15" s="24">
+      <c r="Y15" s="24">
         <v>11</v>
       </c>
-      <c r="Y15" s="22">
-        <v>0</v>
-      </c>
       <c r="Z15" s="22">
         <v>0</v>
       </c>
-      <c r="AA15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="AA15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="20">
@@ -2835,27 +2898,27 @@
       <c r="U16" s="19">
         <v>0</v>
       </c>
-      <c r="V16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W16" s="23" t="s">
+      <c r="V16" s="19">
+        <v>0</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X16" s="24">
+      <c r="Y16" s="24">
         <v>11</v>
       </c>
-      <c r="Y16" s="22">
-        <v>0</v>
-      </c>
       <c r="Z16" s="22">
         <v>0</v>
       </c>
-      <c r="AA16" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="AA16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20">
@@ -2918,27 +2981,27 @@
       <c r="U17" s="19">
         <v>0</v>
       </c>
-      <c r="V17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W17" s="23" t="s">
+      <c r="V17" s="19">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X17" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X17" s="24">
+      <c r="Y17" s="24">
         <v>11</v>
       </c>
-      <c r="Y17" s="22">
-        <v>0</v>
-      </c>
       <c r="Z17" s="22">
         <v>0</v>
       </c>
-      <c r="AA17" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="AA17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20">
@@ -3001,27 +3064,27 @@
       <c r="U18" s="19">
         <v>0</v>
       </c>
-      <c r="V18" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W18" s="23" t="s">
+      <c r="V18" s="19">
+        <v>0</v>
+      </c>
+      <c r="W18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X18" s="24">
+      <c r="Y18" s="24">
         <v>11</v>
       </c>
-      <c r="Y18" s="22">
-        <v>0</v>
-      </c>
       <c r="Z18" s="22">
         <v>0</v>
       </c>
-      <c r="AA18" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="AA18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20">
@@ -3082,29 +3145,29 @@
         <v>109</v>
       </c>
       <c r="U19" s="19">
-        <v>1</v>
-      </c>
-      <c r="V19" s="24">
-        <v>0</v>
-      </c>
-      <c r="W19" s="23">
-        <v>0</v>
-      </c>
-      <c r="X19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V19" s="19">
+        <v>1</v>
+      </c>
+      <c r="W19" s="24">
+        <v>0</v>
+      </c>
+      <c r="X19" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="24">
+        <v>0</v>
       </c>
       <c r="Z19" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="AA19" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="20">
@@ -3116,11 +3179,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3161,29 +3224,29 @@
         <v>109</v>
       </c>
       <c r="U20" s="19">
-        <v>1</v>
-      </c>
-      <c r="V20" s="24">
-        <v>1</v>
-      </c>
-      <c r="W20" s="23">
-        <v>0</v>
-      </c>
-      <c r="X20" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V20" s="19">
+        <v>1</v>
+      </c>
+      <c r="W20" s="24">
+        <v>1</v>
+      </c>
+      <c r="X20" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="24">
+        <v>0</v>
       </c>
       <c r="Z20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="AA20" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="20">
@@ -3195,11 +3258,11 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3240,29 +3303,29 @@
         <v>109</v>
       </c>
       <c r="U21" s="19">
-        <v>1</v>
-      </c>
-      <c r="V21" s="24">
-        <v>1</v>
-      </c>
-      <c r="W21" s="23">
-        <v>0</v>
-      </c>
-      <c r="X21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V21" s="19">
+        <v>1</v>
+      </c>
+      <c r="W21" s="24">
+        <v>1</v>
+      </c>
+      <c r="X21" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="24">
+        <v>0</v>
       </c>
       <c r="Z21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="AA21" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20">
@@ -3323,29 +3386,29 @@
         <v>109</v>
       </c>
       <c r="U22" s="19">
-        <v>1</v>
-      </c>
-      <c r="V22" s="24">
-        <v>0</v>
-      </c>
-      <c r="W22" s="23">
-        <v>0</v>
-      </c>
-      <c r="X22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V22" s="19">
+        <v>1</v>
+      </c>
+      <c r="W22" s="24">
+        <v>0</v>
+      </c>
+      <c r="X22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="24">
+        <v>0</v>
       </c>
       <c r="Z22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA22" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="AA22" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20">
@@ -3406,29 +3469,32 @@
         <v>109</v>
       </c>
       <c r="U23" s="19">
-        <v>1</v>
-      </c>
-      <c r="V23" s="24">
-        <v>0</v>
-      </c>
-      <c r="W23" s="23">
-        <v>0</v>
-      </c>
-      <c r="X23" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V23" s="19">
+        <v>1</v>
+      </c>
+      <c r="W23" s="24">
+        <v>0</v>
+      </c>
+      <c r="X23" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24">
+        <v>0</v>
       </c>
       <c r="Z23" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA23" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="AA23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="20">
@@ -3440,11 +3506,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3485,29 +3551,32 @@
         <v>109</v>
       </c>
       <c r="U24" s="19">
-        <v>1</v>
-      </c>
-      <c r="V24" s="24">
-        <v>1</v>
-      </c>
-      <c r="W24" s="23">
-        <v>0</v>
-      </c>
-      <c r="X24" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V24" s="19">
+        <v>1</v>
+      </c>
+      <c r="W24" s="24">
+        <v>1</v>
+      </c>
+      <c r="X24" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
+        <v>0</v>
       </c>
       <c r="Z24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA24" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="AA24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="20">
@@ -3568,29 +3637,32 @@
         <v>109</v>
       </c>
       <c r="U25" s="19">
-        <v>1</v>
-      </c>
-      <c r="V25" s="24">
-        <v>0</v>
-      </c>
-      <c r="W25" s="23">
-        <v>0</v>
-      </c>
-      <c r="X25" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V25" s="19">
+        <v>1</v>
+      </c>
+      <c r="W25" s="24">
+        <v>0</v>
+      </c>
+      <c r="X25" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24">
+        <v>0</v>
       </c>
       <c r="Z25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="AA25" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="20">
@@ -3602,11 +3674,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -3647,29 +3719,32 @@
         <v>109</v>
       </c>
       <c r="U26" s="19">
-        <v>1</v>
-      </c>
-      <c r="V26" s="24">
-        <v>1</v>
-      </c>
-      <c r="W26" s="23">
-        <v>0</v>
-      </c>
-      <c r="X26" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
+        <v>1</v>
+      </c>
+      <c r="W26" s="24">
+        <v>1</v>
+      </c>
+      <c r="X26" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
+        <v>0</v>
       </c>
       <c r="Z26" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA26" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="AA26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20">
@@ -3730,29 +3805,32 @@
         <v>109</v>
       </c>
       <c r="U27" s="19">
-        <v>1</v>
-      </c>
-      <c r="V27" s="24">
-        <v>0</v>
-      </c>
-      <c r="W27" s="23">
-        <v>0</v>
-      </c>
-      <c r="X27" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V27" s="19">
+        <v>1</v>
+      </c>
+      <c r="W27" s="24">
+        <v>0</v>
+      </c>
+      <c r="X27" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24">
+        <v>0</v>
       </c>
       <c r="Z27" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="AA27" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20">
@@ -3813,29 +3891,32 @@
         <v>109</v>
       </c>
       <c r="U28" s="19">
-        <v>1</v>
-      </c>
-      <c r="V28" s="24">
-        <v>0</v>
-      </c>
-      <c r="W28" s="23">
-        <v>0</v>
-      </c>
-      <c r="X28" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V28" s="19">
+        <v>1</v>
+      </c>
+      <c r="W28" s="24">
+        <v>0</v>
+      </c>
+      <c r="X28" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24">
+        <v>0</v>
       </c>
       <c r="Z28" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA28" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="AA28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="20">
@@ -3896,29 +3977,32 @@
         <v>109</v>
       </c>
       <c r="U29" s="19">
-        <v>1</v>
-      </c>
-      <c r="V29" s="24">
-        <v>0</v>
-      </c>
-      <c r="W29" s="23">
-        <v>0</v>
-      </c>
-      <c r="X29" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V29" s="19">
+        <v>1</v>
+      </c>
+      <c r="W29" s="24">
+        <v>0</v>
+      </c>
+      <c r="X29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24">
+        <v>0</v>
       </c>
       <c r="Z29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="AA29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="20">
@@ -3979,29 +4063,32 @@
         <v>109</v>
       </c>
       <c r="U30" s="19">
-        <v>1</v>
-      </c>
-      <c r="V30" s="24">
-        <v>0</v>
-      </c>
-      <c r="W30" s="23">
-        <v>0</v>
-      </c>
-      <c r="X30" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V30" s="19">
+        <v>1</v>
+      </c>
+      <c r="W30" s="24">
+        <v>0</v>
+      </c>
+      <c r="X30" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24">
+        <v>0</v>
       </c>
       <c r="Z30" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="AA30" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="20">
@@ -4062,29 +4149,32 @@
         <v>109</v>
       </c>
       <c r="U31" s="19">
-        <v>1</v>
-      </c>
-      <c r="V31" s="24">
-        <v>0</v>
-      </c>
-      <c r="W31" s="23">
-        <v>0</v>
-      </c>
-      <c r="X31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V31" s="19">
+        <v>1</v>
+      </c>
+      <c r="W31" s="24">
+        <v>0</v>
+      </c>
+      <c r="X31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24">
+        <v>0</v>
       </c>
       <c r="Z31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="AA31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="48" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="20">
@@ -4145,29 +4235,32 @@
         <v>109</v>
       </c>
       <c r="U32" s="19">
-        <v>1</v>
-      </c>
-      <c r="V32" s="24">
-        <v>0</v>
-      </c>
-      <c r="W32" s="23">
-        <v>0</v>
-      </c>
-      <c r="X32" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V32" s="19">
+        <v>1</v>
+      </c>
+      <c r="W32" s="24">
+        <v>0</v>
+      </c>
+      <c r="X32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="24">
+        <v>0</v>
       </c>
       <c r="Z32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="AA32" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="20">
@@ -4179,11 +4272,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -4226,27 +4319,30 @@
       <c r="U33" s="19">
         <v>0</v>
       </c>
-      <c r="V33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W33" s="23" t="s">
+      <c r="V33" s="19">
+        <v>0</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X33" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X33" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="22" t="s">
-        <v>109</v>
+      <c r="Y33" s="24">
+        <v>0</v>
       </c>
       <c r="Z33" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA33" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="AA33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="20">
@@ -4258,11 +4354,11 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -4305,27 +4401,30 @@
       <c r="U34" s="19">
         <v>0</v>
       </c>
-      <c r="V34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W34" s="23" t="s">
+      <c r="V34" s="19">
+        <v>0</v>
+      </c>
+      <c r="W34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X34" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X34" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="22" t="s">
-        <v>109</v>
+      <c r="Y34" s="24">
+        <v>0</v>
       </c>
       <c r="Z34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA34" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="AA34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="20">
@@ -4337,11 +4436,11 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -4384,27 +4483,30 @@
       <c r="U35" s="19">
         <v>0</v>
       </c>
-      <c r="V35" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W35" s="23" t="s">
+      <c r="V35" s="19">
+        <v>0</v>
+      </c>
+      <c r="W35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X35" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X35" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="22" t="s">
-        <v>109</v>
+      <c r="Y35" s="24">
+        <v>0</v>
       </c>
       <c r="Z35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="AA35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="20">
@@ -4416,11 +4518,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4463,27 +4565,30 @@
       <c r="U36" s="19">
         <v>0</v>
       </c>
-      <c r="V36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W36" s="23" t="s">
+      <c r="V36" s="19">
+        <v>0</v>
+      </c>
+      <c r="W36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X36" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="22" t="s">
-        <v>109</v>
+      <c r="Y36" s="24">
+        <v>0</v>
       </c>
       <c r="Z36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="AA36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="20">
@@ -4495,11 +4600,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -4542,27 +4647,30 @@
       <c r="U37" s="19">
         <v>0</v>
       </c>
-      <c r="V37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W37" s="23" t="s">
+      <c r="V37" s="19">
+        <v>0</v>
+      </c>
+      <c r="W37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X37" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X37" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="22" t="s">
-        <v>109</v>
+      <c r="Y37" s="24">
+        <v>0</v>
       </c>
       <c r="Z37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA37" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="AA37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="20">
@@ -4574,11 +4682,11 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -4621,27 +4729,30 @@
       <c r="U38" s="19">
         <v>0</v>
       </c>
-      <c r="V38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W38" s="23" t="s">
+      <c r="V38" s="19">
+        <v>0</v>
+      </c>
+      <c r="W38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X38" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X38" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="22" t="s">
-        <v>109</v>
+      <c r="Y38" s="24">
+        <v>0</v>
       </c>
       <c r="Z38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA38" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="AA38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="20">
@@ -4653,11 +4764,11 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -4698,29 +4809,32 @@
         <v>109</v>
       </c>
       <c r="U39" s="19">
-        <v>1</v>
-      </c>
-      <c r="V39" s="24">
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <v>1</v>
+      </c>
+      <c r="W39" s="24">
         <v>10</v>
       </c>
-      <c r="W39" s="23">
-        <v>1</v>
-      </c>
-      <c r="X39" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="22" t="s">
-        <v>109</v>
+      <c r="X39" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="24">
+        <v>0</v>
       </c>
       <c r="Z39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA39" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="AA39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="20">
@@ -4732,11 +4846,11 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="19">
         <v>1</v>
       </c>
@@ -4777,41 +4891,44 @@
         <v>109</v>
       </c>
       <c r="U40" s="19">
-        <v>1</v>
-      </c>
-      <c r="V40" s="24">
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <v>1</v>
+      </c>
+      <c r="W40" s="24">
         <v>10</v>
       </c>
-      <c r="W40" s="23">
-        <v>1</v>
-      </c>
-      <c r="X40" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="22" t="s">
-        <v>109</v>
+      <c r="X40" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="24">
+        <v>0</v>
       </c>
       <c r="Z40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA40" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="AA40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -4854,39 +4971,42 @@
       <c r="U41" s="19">
         <v>0</v>
       </c>
-      <c r="V41" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W41" s="23" t="s">
+      <c r="V41" s="19">
+        <v>0</v>
+      </c>
+      <c r="W41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X41" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X41" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="22" t="s">
-        <v>109</v>
+      <c r="Y41" s="24">
+        <v>0</v>
       </c>
       <c r="Z41" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA41" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="AA41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -4927,29 +5047,32 @@
         <v>109</v>
       </c>
       <c r="U42" s="19">
-        <v>1</v>
-      </c>
-      <c r="V42" s="24">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <v>1</v>
+      </c>
+      <c r="W42" s="24">
         <v>10</v>
       </c>
-      <c r="W42" s="23">
-        <v>1</v>
-      </c>
-      <c r="X42" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="22" t="s">
-        <v>109</v>
+      <c r="X42" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="24">
+        <v>0</v>
       </c>
       <c r="Z42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA42" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="AA42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="20">
@@ -5012,27 +5135,30 @@
       <c r="U43" s="19">
         <v>0</v>
       </c>
-      <c r="V43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W43" s="23" t="s">
+      <c r="V43" s="19">
+        <v>0</v>
+      </c>
+      <c r="W43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X43" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X43" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="22" t="s">
-        <v>109</v>
+      <c r="Y43" s="24">
+        <v>0</v>
       </c>
       <c r="Z43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA43" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="AA43" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="20">
@@ -5093,29 +5219,32 @@
         <v>109</v>
       </c>
       <c r="U44" s="19">
-        <v>1</v>
-      </c>
-      <c r="V44" s="24">
-        <v>0</v>
-      </c>
-      <c r="W44" s="23">
-        <v>1</v>
-      </c>
-      <c r="X44" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="22" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>1</v>
+      </c>
+      <c r="W44" s="24">
+        <v>0</v>
+      </c>
+      <c r="X44" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="24">
+        <v>0</v>
       </c>
       <c r="Z44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA44" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="AA44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB44" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="49" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="20">
@@ -5176,29 +5305,32 @@
         <v>109</v>
       </c>
       <c r="U45" s="19">
-        <v>1</v>
-      </c>
-      <c r="V45" s="24">
-        <v>0</v>
-      </c>
-      <c r="W45" s="23">
+        <v>0</v>
+      </c>
+      <c r="V45" s="19">
+        <v>1</v>
+      </c>
+      <c r="W45" s="24">
+        <v>0</v>
+      </c>
+      <c r="X45" s="23">
         <v>10</v>
       </c>
-      <c r="X45" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="22" t="s">
-        <v>109</v>
+      <c r="Y45" s="24">
+        <v>0</v>
       </c>
       <c r="Z45" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA45" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="AA45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="20">
@@ -5259,29 +5391,32 @@
         <v>109</v>
       </c>
       <c r="U46" s="19">
-        <v>1</v>
-      </c>
-      <c r="V46" s="24">
-        <v>0</v>
-      </c>
-      <c r="W46" s="23">
+        <v>0</v>
+      </c>
+      <c r="V46" s="19">
+        <v>1</v>
+      </c>
+      <c r="W46" s="24">
+        <v>0</v>
+      </c>
+      <c r="X46" s="23">
         <v>11</v>
       </c>
-      <c r="X46" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="22" t="s">
-        <v>109</v>
+      <c r="Y46" s="24">
+        <v>0</v>
       </c>
       <c r="Z46" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA46" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="AA46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="20">
@@ -5344,27 +5479,30 @@
       <c r="U47" s="19">
         <v>0</v>
       </c>
-      <c r="V47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W47" s="23" t="s">
+      <c r="V47" s="19">
+        <v>0</v>
+      </c>
+      <c r="W47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X47" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X47" s="24">
+      <c r="Y47" s="24">
         <v>10</v>
       </c>
-      <c r="Y47" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA47" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="Z47" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="20">
@@ -5427,38 +5565,41 @@
       <c r="U48" s="19">
         <v>0</v>
       </c>
-      <c r="V48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W48" s="23" t="s">
+      <c r="V48" s="19">
+        <v>0</v>
+      </c>
+      <c r="W48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X48" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X48" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z48" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y48" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA48" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
@@ -5504,38 +5645,41 @@
       <c r="U49" s="19">
         <v>0</v>
       </c>
-      <c r="V49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W49" s="23" t="s">
+      <c r="V49" s="19">
+        <v>0</v>
+      </c>
+      <c r="W49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X49" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X49" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="22" t="s">
-        <v>109</v>
+      <c r="Y49" s="24">
+        <v>0</v>
       </c>
       <c r="Z49" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA49" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB49" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
@@ -5581,26 +5725,29 @@
       <c r="U50" s="19">
         <v>0</v>
       </c>
-      <c r="V50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W50" s="23" t="s">
+      <c r="V50" s="19">
+        <v>0</v>
+      </c>
+      <c r="W50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X50" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X50" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="22" t="s">
-        <v>109</v>
+      <c r="Y50" s="24">
+        <v>0</v>
       </c>
       <c r="Z50" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA50" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB50" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>68</v>
       </c>
@@ -5613,11 +5760,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -5658,28 +5805,31 @@
         <v>1</v>
       </c>
       <c r="U51" s="19">
-        <v>1</v>
-      </c>
-      <c r="V51" s="24">
-        <v>1</v>
-      </c>
-      <c r="W51" s="23">
+        <v>0</v>
+      </c>
+      <c r="V51" s="19">
+        <v>1</v>
+      </c>
+      <c r="W51" s="24">
+        <v>1</v>
+      </c>
+      <c r="X51" s="23">
         <v>100</v>
       </c>
-      <c r="X51" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="22" t="s">
-        <v>109</v>
+      <c r="Y51" s="24">
+        <v>0</v>
       </c>
       <c r="Z51" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA51" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>69</v>
       </c>
@@ -5692,11 +5842,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -5737,28 +5887,31 @@
         <v>0</v>
       </c>
       <c r="U52" s="19">
-        <v>1</v>
-      </c>
-      <c r="V52" s="24">
-        <v>1</v>
-      </c>
-      <c r="W52" s="23">
+        <v>0</v>
+      </c>
+      <c r="V52" s="19">
+        <v>1</v>
+      </c>
+      <c r="W52" s="24">
+        <v>1</v>
+      </c>
+      <c r="X52" s="23">
         <v>100</v>
       </c>
-      <c r="X52" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="22" t="s">
-        <v>109</v>
+      <c r="Y52" s="24">
+        <v>0</v>
       </c>
       <c r="Z52" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA52" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA52" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB52" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
@@ -5771,11 +5924,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -5816,28 +5969,31 @@
         <v>1</v>
       </c>
       <c r="U53" s="19">
-        <v>1</v>
-      </c>
-      <c r="V53" s="24">
-        <v>1</v>
-      </c>
-      <c r="W53" s="23">
+        <v>0</v>
+      </c>
+      <c r="V53" s="19">
+        <v>1</v>
+      </c>
+      <c r="W53" s="24">
+        <v>1</v>
+      </c>
+      <c r="X53" s="23">
         <v>100</v>
       </c>
-      <c r="X53" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="22" t="s">
-        <v>109</v>
+      <c r="Y53" s="24">
+        <v>0</v>
       </c>
       <c r="Z53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA53" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA53" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>71</v>
       </c>
@@ -5850,11 +6006,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -5895,28 +6051,31 @@
         <v>0</v>
       </c>
       <c r="U54" s="19">
-        <v>1</v>
-      </c>
-      <c r="V54" s="24">
-        <v>1</v>
-      </c>
-      <c r="W54" s="23">
+        <v>0</v>
+      </c>
+      <c r="V54" s="19">
+        <v>1</v>
+      </c>
+      <c r="W54" s="24">
+        <v>1</v>
+      </c>
+      <c r="X54" s="23">
         <v>100</v>
       </c>
-      <c r="X54" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="22" t="s">
-        <v>109</v>
+      <c r="Y54" s="24">
+        <v>0</v>
       </c>
       <c r="Z54" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA54" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA54" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
@@ -5929,11 +6088,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -5974,28 +6133,31 @@
         <v>109</v>
       </c>
       <c r="U55" s="19">
-        <v>1</v>
-      </c>
-      <c r="V55" s="24">
-        <v>1</v>
-      </c>
-      <c r="W55" s="23">
+        <v>0</v>
+      </c>
+      <c r="V55" s="19">
+        <v>1</v>
+      </c>
+      <c r="W55" s="24">
+        <v>1</v>
+      </c>
+      <c r="X55" s="23">
         <v>100</v>
       </c>
-      <c r="X55" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="22" t="s">
-        <v>109</v>
+      <c r="Y55" s="24">
+        <v>0</v>
       </c>
       <c r="Z55" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA55" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA55" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>73</v>
       </c>
@@ -6008,11 +6170,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6055,26 +6217,29 @@
       <c r="U56" s="19">
         <v>0</v>
       </c>
-      <c r="V56" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W56" s="23" t="s">
+      <c r="V56" s="19">
+        <v>0</v>
+      </c>
+      <c r="W56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X56" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X56" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="22" t="s">
-        <v>109</v>
+      <c r="Y56" s="24">
+        <v>0</v>
       </c>
       <c r="Z56" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA56" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA56" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>74</v>
       </c>
@@ -6087,11 +6252,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6134,26 +6299,29 @@
       <c r="U57" s="19">
         <v>0</v>
       </c>
-      <c r="V57" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W57" s="23" t="s">
+      <c r="V57" s="19">
+        <v>0</v>
+      </c>
+      <c r="W57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X57" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X57" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="22" t="s">
-        <v>109</v>
+      <c r="Y57" s="24">
+        <v>0</v>
       </c>
       <c r="Z57" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA57" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA57" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>75</v>
       </c>
@@ -6166,11 +6334,11 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -6213,26 +6381,29 @@
       <c r="U58" s="19">
         <v>0</v>
       </c>
-      <c r="V58" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W58" s="23" t="s">
+      <c r="V58" s="19">
+        <v>0</v>
+      </c>
+      <c r="W58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X58" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X58" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="22" t="s">
-        <v>109</v>
+      <c r="Y58" s="24">
+        <v>0</v>
       </c>
       <c r="Z58" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA58" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA58" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>76</v>
       </c>
@@ -6294,29 +6465,32 @@
         <v>109</v>
       </c>
       <c r="U59" s="19">
-        <v>0</v>
-      </c>
-      <c r="V59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W59" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V59" s="19">
+        <v>0</v>
+      </c>
+      <c r="W59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X59" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X59" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="22" t="s">
-        <v>109</v>
+      <c r="Y59" s="24">
+        <v>0</v>
       </c>
       <c r="Z59" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA59" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="AA59" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="20">
@@ -6377,29 +6551,32 @@
         <v>109</v>
       </c>
       <c r="U60" s="19">
-        <v>1</v>
-      </c>
-      <c r="V60" s="24">
-        <v>1</v>
-      </c>
-      <c r="W60" s="23">
+        <v>0</v>
+      </c>
+      <c r="V60" s="19">
+        <v>1</v>
+      </c>
+      <c r="W60" s="24">
+        <v>1</v>
+      </c>
+      <c r="X60" s="23">
         <v>101</v>
       </c>
-      <c r="X60" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="22" t="s">
-        <v>109</v>
+      <c r="Y60" s="24">
+        <v>0</v>
       </c>
       <c r="Z60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA60" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="AA60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="20">
@@ -6462,54 +6639,98 @@
       <c r="U61" s="19">
         <v>0</v>
       </c>
-      <c r="V61" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="W61" s="23" t="s">
+      <c r="V61" s="19">
+        <v>0</v>
+      </c>
+      <c r="W61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X61" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X61" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="22" t="s">
-        <v>109</v>
+      <c r="Y61" s="24">
+        <v>0</v>
       </c>
       <c r="Z61" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA61" s="19">
-        <v>0</v>
+      <c r="AA61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="19">
+        <v>0</v>
+      </c>
+      <c r="K62" s="19">
+        <v>0</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>0</v>
+      </c>
+      <c r="R62" s="19">
+        <v>0</v>
+      </c>
+      <c r="S62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U62" s="19">
+        <v>0</v>
+      </c>
+      <c r="V62" s="19">
+        <v>0</v>
+      </c>
+      <c r="W62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X62" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y62" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB62" s="24">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="E35:G35"/>
@@ -6523,14 +6744,147 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="V1:V61 V63:V1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M61 M63:M1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1455F1E-27B3-46CA-8480-0FA685041C4F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6B0BF-8614-43A7-9F15-E4FE95337B3D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -6551,10 +6905,10 @@
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45"/>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6640,7 +6994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDACB7E2-4D21-4756-8FC0-21D4AFA9E8B8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6668,11 +7022,11 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +7279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB907F-79B3-4E46-B52E-E717521277CF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6986,7 +7340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD702E6A-ACE3-4E0D-8A99-CB82ACE23858}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7037,7 +7391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947260C0-B57D-402D-A7FB-E56302B48C32}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -7146,7 +7500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E22FF-6159-4733-93EB-5184B9746FE9}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBA575-6207-4CD3-B33C-42D1BCCEB864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F4082-B19D-481F-B540-A7C53969A4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="182">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -848,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +973,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1657,7 +1660,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,17 +1671,17 @@
     <col min="7" max="7" width="7.5" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="19" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.375" style="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.875" style="24" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.375" style="23" bestFit="1" customWidth="1"/>
@@ -1690,144 +1693,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="42"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="43"/>
     </row>
     <row r="2" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="R2" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="V2" s="44" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="42"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="43"/>
     </row>
     <row r="3" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="14" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="42" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="V3" s="14" t="s">
         <v>120</v>
@@ -1847,7 +1848,7 @@
       <c r="AA3" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="43" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1889,28 +1890,28 @@
         <v>1</v>
       </c>
       <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
         <v>4</v>
       </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
       <c r="O4" s="17">
         <v>1</v>
       </c>
       <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17">
         <v>2</v>
       </c>
-      <c r="Q4" s="17">
-        <v>1</v>
-      </c>
       <c r="R4" s="17">
         <v>1</v>
       </c>
       <c r="S4" s="17">
+        <v>1</v>
+      </c>
+      <c r="T4" s="17">
         <v>2</v>
-      </c>
-      <c r="T4" s="17">
-        <v>1</v>
       </c>
       <c r="U4" s="17">
         <v>1</v>
@@ -1938,7 +1939,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="20">
@@ -1971,35 +1972,35 @@
       <c r="K5" s="19">
         <v>0</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="21">
         <v>0</v>
       </c>
       <c r="O5" s="22">
         <v>0</v>
       </c>
-      <c r="P5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R5" s="19">
         <v>0</v>
       </c>
-      <c r="S5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V5" s="19">
         <v>1</v>
@@ -2019,9 +2020,12 @@
       <c r="AA5" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB5" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="20">
@@ -2033,11 +2037,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -2051,34 +2055,34 @@
         <v>0</v>
       </c>
       <c r="L6" s="19">
-        <v>1</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="21">
         <v>0</v>
       </c>
       <c r="O6" s="22">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R6" s="19">
         <v>0</v>
       </c>
-      <c r="S6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" s="19">
-        <v>0</v>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V6" s="19">
         <v>1</v>
@@ -2098,9 +2102,12 @@
       <c r="AA6" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB6" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="20">
@@ -2133,35 +2140,35 @@
       <c r="K7" s="19">
         <v>0</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="21">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1</v>
       </c>
       <c r="O7" s="22">
         <v>0</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>0</v>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R7" s="19">
         <v>0</v>
       </c>
-      <c r="S7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="19">
-        <v>0</v>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V7" s="19">
         <v>1</v>
@@ -2181,9 +2188,12 @@
       <c r="AA7" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB7" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="20">
@@ -2195,11 +2205,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2213,34 +2223,34 @@
         <v>0</v>
       </c>
       <c r="L8" s="19">
-        <v>1</v>
-      </c>
-      <c r="M8" s="21">
-        <v>1</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="21">
+        <v>1</v>
       </c>
       <c r="O8" s="22">
-        <v>1</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
       </c>
-      <c r="S8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U8" s="19">
-        <v>0</v>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V8" s="19">
         <v>1</v>
@@ -2260,9 +2270,12 @@
       <c r="AA8" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB8" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="20">
@@ -2295,35 +2308,35 @@
       <c r="K9" s="19">
         <v>0</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="21">
         <v>10</v>
       </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
       <c r="O9" s="22">
         <v>0</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>0</v>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
       </c>
-      <c r="S9" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" s="19">
-        <v>0</v>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V9" s="19">
         <v>1</v>
@@ -2343,9 +2356,12 @@
       <c r="AA9" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB9" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="20">
@@ -2378,35 +2394,35 @@
       <c r="K10" s="19">
         <v>0</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="21">
         <v>11</v>
       </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
       <c r="O10" s="22">
         <v>0</v>
       </c>
-      <c r="P10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>0</v>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R10" s="19">
         <v>0</v>
       </c>
-      <c r="S10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="19">
-        <v>0</v>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V10" s="19">
         <v>1</v>
@@ -2426,9 +2442,12 @@
       <c r="AA10" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB10" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20">
@@ -2461,35 +2480,35 @@
       <c r="K11" s="19">
         <v>0</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="21">
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="21">
         <v>100</v>
       </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
       <c r="O11" s="22">
         <v>0</v>
       </c>
-      <c r="P11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>0</v>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R11" s="19">
         <v>0</v>
       </c>
-      <c r="S11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U11" s="19">
-        <v>0</v>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V11" s="19">
         <v>1</v>
@@ -2509,9 +2528,12 @@
       <c r="AA11" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB11" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
@@ -2523,11 +2545,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2541,34 +2563,34 @@
         <v>0</v>
       </c>
       <c r="L12" s="19">
-        <v>1</v>
-      </c>
-      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1</v>
+      </c>
+      <c r="N12" s="21">
         <v>100</v>
       </c>
-      <c r="N12" s="22">
-        <v>0</v>
-      </c>
       <c r="O12" s="22">
-        <v>1</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R12" s="19">
         <v>0</v>
       </c>
-      <c r="S12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="19">
-        <v>0</v>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V12" s="19">
         <v>1</v>
@@ -2588,9 +2610,12 @@
       <c r="AA12" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB12" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="20">
@@ -2623,35 +2648,35 @@
       <c r="K13" s="19">
         <v>0</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="21">
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="21">
         <v>101</v>
       </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
       <c r="O13" s="22">
         <v>0</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>0</v>
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
       </c>
-      <c r="S13" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U13" s="19">
-        <v>0</v>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V13" s="19">
         <v>1</v>
@@ -2671,9 +2696,12 @@
       <c r="AA13" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB13" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="49" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="20">
@@ -2685,11 +2713,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -2703,34 +2731,34 @@
         <v>0</v>
       </c>
       <c r="L14" s="19">
-        <v>1</v>
-      </c>
-      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21">
         <v>101</v>
       </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
       <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R14" s="19">
         <v>0</v>
       </c>
-      <c r="S14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0</v>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V14" s="19">
         <v>1</v>
@@ -2750,9 +2778,12 @@
       <c r="AA14" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="20">
@@ -2785,35 +2816,35 @@
       <c r="K15" s="19">
         <v>0</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="21" t="s">
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O15" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
+      <c r="P15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="24">
         <v>0</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
       </c>
-      <c r="S15" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0</v>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V15" s="19">
         <v>0</v>
@@ -2833,9 +2864,12 @@
       <c r="AA15" s="22">
         <v>0</v>
       </c>
+      <c r="AB15" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="20">
@@ -2868,35 +2902,35 @@
       <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="21" t="s">
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O16" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>0</v>
+      <c r="P16" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>1</v>
       </c>
       <c r="R16" s="19">
         <v>0</v>
       </c>
-      <c r="S16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U16" s="19">
-        <v>0</v>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V16" s="19">
         <v>0</v>
@@ -2916,9 +2950,12 @@
       <c r="AA16" s="22">
         <v>0</v>
       </c>
+      <c r="AB16" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20">
@@ -2951,35 +2988,35 @@
       <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="21" t="s">
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N17" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="24">
         <v>10</v>
       </c>
-      <c r="Q17" s="19">
-        <v>0</v>
-      </c>
       <c r="R17" s="19">
         <v>0</v>
       </c>
-      <c r="S17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U17" s="19">
-        <v>0</v>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V17" s="19">
         <v>0</v>
@@ -2999,9 +3036,12 @@
       <c r="AA17" s="22">
         <v>0</v>
       </c>
+      <c r="AB17" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20">
@@ -3034,35 +3074,35 @@
       <c r="K18" s="19">
         <v>0</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="21" t="s">
+      <c r="L18" s="19">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="24">
         <v>11</v>
       </c>
-      <c r="Q18" s="19">
-        <v>0</v>
-      </c>
       <c r="R18" s="19">
         <v>0</v>
       </c>
-      <c r="S18" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U18" s="19">
-        <v>0</v>
+      <c r="S18" s="19">
+        <v>0</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V18" s="19">
         <v>0</v>
@@ -3082,9 +3122,12 @@
       <c r="AA18" s="22">
         <v>0</v>
       </c>
+      <c r="AB18" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="49" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20">
@@ -3117,35 +3160,35 @@
       <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="21">
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="21">
         <v>110</v>
       </c>
-      <c r="N19" s="22">
-        <v>0</v>
-      </c>
       <c r="O19" s="22">
         <v>0</v>
       </c>
-      <c r="P19" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>0</v>
+      <c r="P19" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R19" s="19">
         <v>0</v>
       </c>
-      <c r="S19" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U19" s="19">
-        <v>0</v>
+      <c r="S19" s="19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V19" s="19">
         <v>1</v>
@@ -3165,9 +3208,12 @@
       <c r="AA19" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB19" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="20">
@@ -3179,11 +3225,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3199,32 +3245,32 @@
       <c r="L20" s="19">
         <v>0</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21">
         <v>110</v>
       </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
       <c r="O20" s="22">
-        <v>1</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P20" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
       </c>
-      <c r="S20" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T20" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U20" s="19">
-        <v>0</v>
+      <c r="S20" s="19">
+        <v>0</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V20" s="19">
         <v>1</v>
@@ -3244,9 +3290,12 @@
       <c r="AA20" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB20" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="20">
@@ -3258,11 +3307,11 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3275,35 +3324,35 @@
       <c r="K21" s="19">
         <v>0</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="21">
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="21">
         <v>111</v>
       </c>
-      <c r="N21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="22">
-        <v>1</v>
-      </c>
-      <c r="P21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>0</v>
+      <c r="O21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R21" s="19">
         <v>0</v>
       </c>
-      <c r="S21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U21" s="19">
-        <v>0</v>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V21" s="19">
         <v>1</v>
@@ -3323,9 +3372,12 @@
       <c r="AA21" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB21" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20">
@@ -3358,35 +3410,35 @@
       <c r="K22" s="19">
         <v>0</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="21">
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="21">
         <v>1000</v>
       </c>
-      <c r="N22" s="22">
-        <v>0</v>
-      </c>
       <c r="O22" s="22">
         <v>0</v>
       </c>
-      <c r="P22" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>0</v>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
       </c>
-      <c r="S22" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U22" s="19">
-        <v>0</v>
+      <c r="S22" s="19">
+        <v>0</v>
+      </c>
+      <c r="T22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U22" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V22" s="19">
         <v>1</v>
@@ -3406,9 +3458,12 @@
       <c r="AA22" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="AB22" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20">
@@ -3441,35 +3496,35 @@
       <c r="K23" s="19">
         <v>0</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="21">
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="21">
         <v>1001</v>
       </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
       <c r="O23" s="22">
         <v>0</v>
       </c>
-      <c r="P23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>0</v>
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
-      <c r="S23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T23" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U23" s="19">
-        <v>0</v>
+      <c r="S23" s="19">
+        <v>0</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U23" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V23" s="19">
         <v>1</v>
@@ -3494,7 +3549,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="20">
@@ -3506,11 +3561,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3526,32 +3581,32 @@
       <c r="L24" s="19">
         <v>0</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
         <v>1001</v>
       </c>
-      <c r="N24" s="22">
-        <v>0</v>
-      </c>
       <c r="O24" s="22">
-        <v>1</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P24" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R24" s="19">
         <v>0</v>
       </c>
-      <c r="S24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U24" s="19">
-        <v>0</v>
+      <c r="S24" s="19">
+        <v>0</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U24" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V24" s="19">
         <v>1</v>
@@ -3576,7 +3631,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="20">
@@ -3609,35 +3664,35 @@
       <c r="K25" s="19">
         <v>0</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" s="21">
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="21">
         <v>1010</v>
       </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
       <c r="O25" s="22">
         <v>0</v>
       </c>
-      <c r="P25" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>0</v>
+      <c r="P25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
       </c>
-      <c r="S25" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T25" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U25" s="19">
-        <v>0</v>
+      <c r="S25" s="19">
+        <v>0</v>
+      </c>
+      <c r="T25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V25" s="19">
         <v>1</v>
@@ -3662,7 +3717,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="49" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="20">
@@ -3674,11 +3729,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -3694,32 +3749,32 @@
       <c r="L26" s="19">
         <v>0</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
         <v>1010</v>
       </c>
-      <c r="N26" s="22">
-        <v>0</v>
-      </c>
       <c r="O26" s="22">
-        <v>1</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P26" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
-      <c r="S26" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U26" s="19">
-        <v>0</v>
+      <c r="S26" s="19">
+        <v>0</v>
+      </c>
+      <c r="T26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V26" s="19">
         <v>1</v>
@@ -3744,7 +3799,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20">
@@ -3777,35 +3832,35 @@
       <c r="K27" s="19">
         <v>0</v>
       </c>
-      <c r="L27" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M27" s="21">
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="21">
         <v>1011</v>
       </c>
-      <c r="N27" s="22">
-        <v>0</v>
-      </c>
       <c r="O27" s="22">
         <v>0</v>
       </c>
-      <c r="P27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q27" s="19">
-        <v>0</v>
+      <c r="P27" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R27" s="19">
         <v>0</v>
       </c>
-      <c r="S27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T27" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U27" s="19">
-        <v>0</v>
+      <c r="S27" s="19">
+        <v>0</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U27" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V27" s="19">
         <v>1</v>
@@ -3830,7 +3885,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20">
@@ -3863,35 +3918,35 @@
       <c r="K28" s="19">
         <v>0</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M28" s="21">
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="21">
         <v>1011</v>
       </c>
-      <c r="N28" s="22">
-        <v>1</v>
-      </c>
       <c r="O28" s="22">
-        <v>0</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P28" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
       </c>
-      <c r="S28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T28" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U28" s="19">
-        <v>0</v>
+      <c r="S28" s="19">
+        <v>0</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V28" s="19">
         <v>1</v>
@@ -3916,7 +3971,7 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="20">
@@ -3949,35 +4004,35 @@
       <c r="K29" s="19">
         <v>0</v>
       </c>
-      <c r="L29" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" s="21">
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="21">
         <v>1100</v>
       </c>
-      <c r="N29" s="22">
-        <v>0</v>
-      </c>
       <c r="O29" s="22">
         <v>0</v>
       </c>
-      <c r="P29" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>0</v>
+      <c r="P29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R29" s="19">
         <v>0</v>
       </c>
-      <c r="S29" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U29" s="19">
-        <v>0</v>
+      <c r="S29" s="19">
+        <v>0</v>
+      </c>
+      <c r="T29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V29" s="19">
         <v>1</v>
@@ -4002,7 +4057,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="20">
@@ -4035,35 +4090,35 @@
       <c r="K30" s="19">
         <v>0</v>
       </c>
-      <c r="L30" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M30" s="21">
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="21">
         <v>1100</v>
       </c>
-      <c r="N30" s="22">
-        <v>1</v>
-      </c>
       <c r="O30" s="22">
-        <v>0</v>
-      </c>
-      <c r="P30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P30" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
       </c>
-      <c r="S30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U30" s="19">
-        <v>0</v>
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V30" s="19">
         <v>1</v>
@@ -4088,7 +4143,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="20">
@@ -4121,35 +4176,35 @@
       <c r="K31" s="19">
         <v>0</v>
       </c>
-      <c r="L31" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M31" s="21">
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="21">
         <v>1101</v>
       </c>
-      <c r="N31" s="22">
-        <v>0</v>
-      </c>
       <c r="O31" s="22">
         <v>0</v>
       </c>
-      <c r="P31" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>0</v>
+      <c r="P31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
       </c>
-      <c r="S31" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U31" s="19">
-        <v>0</v>
+      <c r="S31" s="19">
+        <v>0</v>
+      </c>
+      <c r="T31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V31" s="19">
         <v>1</v>
@@ -4174,7 +4229,7 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="20">
@@ -4207,35 +4262,35 @@
       <c r="K32" s="19">
         <v>0</v>
       </c>
-      <c r="L32" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M32" s="21">
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N32" s="21">
         <v>1101</v>
       </c>
-      <c r="N32" s="22">
-        <v>1</v>
-      </c>
       <c r="O32" s="22">
-        <v>0</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P32" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
       </c>
-      <c r="S32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U32" s="19">
-        <v>0</v>
+      <c r="S32" s="19">
+        <v>0</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U32" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V32" s="19">
         <v>1</v>
@@ -4260,7 +4315,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="20">
@@ -4272,11 +4327,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -4290,34 +4345,34 @@
         <v>0</v>
       </c>
       <c r="L33" s="19">
-        <v>1</v>
-      </c>
-      <c r="M33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
+        <v>1</v>
+      </c>
+      <c r="N33" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O33" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q33" s="19">
-        <v>0</v>
+      <c r="P33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
       </c>
-      <c r="S33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U33" s="19">
-        <v>0</v>
+      <c r="S33" s="19">
+        <v>0</v>
+      </c>
+      <c r="T33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U33" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V33" s="19">
         <v>0</v>
@@ -4342,7 +4397,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="20">
@@ -4354,11 +4409,11 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -4372,34 +4427,34 @@
         <v>0</v>
       </c>
       <c r="L34" s="19">
-        <v>1</v>
-      </c>
-      <c r="M34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <v>1</v>
+      </c>
+      <c r="N34" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q34" s="19">
-        <v>0</v>
+      <c r="P34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
       </c>
-      <c r="S34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U34" s="19">
-        <v>0</v>
+      <c r="S34" s="19">
+        <v>0</v>
+      </c>
+      <c r="T34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U34" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V34" s="19">
         <v>0</v>
@@ -4424,7 +4479,7 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="51" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="20">
@@ -4436,11 +4491,11 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -4454,34 +4509,34 @@
         <v>0</v>
       </c>
       <c r="L35" s="19">
-        <v>1</v>
-      </c>
-      <c r="M35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <v>1</v>
+      </c>
+      <c r="N35" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N35" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P35" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q35" s="19">
-        <v>0</v>
+      <c r="P35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
       </c>
-      <c r="S35" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U35" s="19">
-        <v>0</v>
+      <c r="S35" s="19">
+        <v>0</v>
+      </c>
+      <c r="T35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U35" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V35" s="19">
         <v>0</v>
@@ -4506,7 +4561,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="20">
@@ -4518,11 +4573,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4536,34 +4591,34 @@
         <v>0</v>
       </c>
       <c r="L36" s="19">
-        <v>1</v>
-      </c>
-      <c r="M36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="19">
+        <v>1</v>
+      </c>
+      <c r="N36" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q36" s="19">
-        <v>0</v>
+      <c r="P36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R36" s="19">
         <v>0</v>
       </c>
-      <c r="S36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T36" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U36" s="19">
-        <v>0</v>
+      <c r="S36" s="19">
+        <v>0</v>
+      </c>
+      <c r="T36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U36" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V36" s="19">
         <v>0</v>
@@ -4588,7 +4643,7 @@
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="20">
@@ -4600,11 +4655,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -4618,34 +4673,34 @@
         <v>0</v>
       </c>
       <c r="L37" s="19">
-        <v>1</v>
-      </c>
-      <c r="M37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19">
+        <v>1</v>
+      </c>
+      <c r="N37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q37" s="19">
-        <v>0</v>
+      <c r="P37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R37" s="19">
         <v>0</v>
       </c>
-      <c r="S37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U37" s="19">
-        <v>0</v>
+      <c r="S37" s="19">
+        <v>0</v>
+      </c>
+      <c r="T37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U37" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V37" s="19">
         <v>0</v>
@@ -4670,7 +4725,7 @@
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="20">
@@ -4682,11 +4737,11 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -4700,34 +4755,34 @@
         <v>0</v>
       </c>
       <c r="L38" s="19">
-        <v>1</v>
-      </c>
-      <c r="M38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19">
+        <v>1</v>
+      </c>
+      <c r="N38" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q38" s="19">
-        <v>0</v>
+      <c r="P38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R38" s="19">
         <v>0</v>
       </c>
-      <c r="S38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U38" s="19">
-        <v>0</v>
+      <c r="S38" s="19">
+        <v>0</v>
+      </c>
+      <c r="T38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U38" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V38" s="19">
         <v>0</v>
@@ -4752,7 +4807,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="20">
@@ -4764,11 +4819,11 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -4782,34 +4837,34 @@
         <v>0</v>
       </c>
       <c r="L39" s="19">
-        <v>1</v>
-      </c>
-      <c r="M39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19">
+        <v>1</v>
+      </c>
+      <c r="N39" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P39" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q39" s="19">
-        <v>0</v>
+      <c r="P39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R39" s="19">
         <v>0</v>
       </c>
-      <c r="S39" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T39" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U39" s="19">
-        <v>0</v>
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U39" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V39" s="19">
         <v>1</v>
@@ -4834,7 +4889,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="20">
@@ -4846,11 +4901,11 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="19">
         <v>1</v>
       </c>
@@ -4864,34 +4919,34 @@
         <v>0</v>
       </c>
       <c r="L40" s="19">
-        <v>1</v>
-      </c>
-      <c r="M40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
+        <v>1</v>
+      </c>
+      <c r="N40" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N40" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q40" s="19">
-        <v>0</v>
+      <c r="P40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q40" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R40" s="19">
         <v>0</v>
       </c>
-      <c r="S40" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U40" s="19">
-        <v>0</v>
+      <c r="S40" s="19">
+        <v>0</v>
+      </c>
+      <c r="T40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U40" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V40" s="19">
         <v>1</v>
@@ -4916,19 +4971,19 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -4936,40 +4991,40 @@
         <v>108</v>
       </c>
       <c r="J41" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="19">
-        <v>0</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M41" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N41" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O41" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P41" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>0</v>
+      <c r="P41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R41" s="19">
         <v>0</v>
       </c>
-      <c r="S41" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U41" s="19">
-        <v>0</v>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U41" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V41" s="19">
         <v>0</v>
@@ -4994,19 +5049,19 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -5014,40 +5069,40 @@
         <v>108</v>
       </c>
       <c r="J42" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="19">
-        <v>0</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M42" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N42" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P42" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q42" s="19">
-        <v>0</v>
+      <c r="P42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R42" s="19">
         <v>0</v>
       </c>
-      <c r="S42" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T42" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U42" s="19">
-        <v>0</v>
+      <c r="S42" s="19">
+        <v>0</v>
+      </c>
+      <c r="T42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U42" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V42" s="19">
         <v>1</v>
@@ -5072,7 +5127,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="20">
@@ -5103,37 +5158,37 @@
         <v>0</v>
       </c>
       <c r="K43" s="19">
-        <v>1</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <v>1</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N43" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q43" s="19">
-        <v>0</v>
+      <c r="P43" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R43" s="19">
         <v>0</v>
       </c>
-      <c r="S43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T43" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U43" s="19">
-        <v>0</v>
+      <c r="S43" s="19">
+        <v>0</v>
+      </c>
+      <c r="T43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U43" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V43" s="19">
         <v>0</v>
@@ -5158,7 +5213,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="20">
@@ -5189,37 +5244,37 @@
         <v>0</v>
       </c>
       <c r="K44" s="19">
-        <v>1</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="19">
+        <v>1</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N44" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N44" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q44" s="19">
-        <v>0</v>
+      <c r="P44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R44" s="19">
         <v>0</v>
       </c>
-      <c r="S44" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T44" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U44" s="19">
-        <v>0</v>
+      <c r="S44" s="19">
+        <v>0</v>
+      </c>
+      <c r="T44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U44" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V44" s="19">
         <v>1</v>
@@ -5244,7 +5299,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="20">
@@ -5277,35 +5332,35 @@
       <c r="K45" s="19">
         <v>0</v>
       </c>
-      <c r="L45" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M45" s="21" t="s">
+      <c r="L45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N45" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N45" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O45" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P45" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q45" s="19">
-        <v>0</v>
+      <c r="P45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q45" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R45" s="19">
         <v>0</v>
       </c>
-      <c r="S45" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T45" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U45" s="19">
-        <v>0</v>
+      <c r="S45" s="19">
+        <v>0</v>
+      </c>
+      <c r="T45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U45" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V45" s="19">
         <v>1</v>
@@ -5330,7 +5385,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="50" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="20">
@@ -5363,35 +5418,35 @@
       <c r="K46" s="19">
         <v>0</v>
       </c>
-      <c r="L46" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M46" s="21" t="s">
+      <c r="L46" s="19">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N46" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N46" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O46" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P46" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q46" s="19">
-        <v>0</v>
+      <c r="P46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q46" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R46" s="19">
         <v>0</v>
       </c>
-      <c r="S46" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T46" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U46" s="19">
-        <v>0</v>
+      <c r="S46" s="19">
+        <v>0</v>
+      </c>
+      <c r="T46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U46" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V46" s="19">
         <v>1</v>
@@ -5449,35 +5504,35 @@
       <c r="K47" s="19">
         <v>0</v>
       </c>
-      <c r="L47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M47" s="21" t="s">
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N47" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N47" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O47" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q47" s="19">
-        <v>0</v>
+      <c r="P47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R47" s="19">
         <v>0</v>
       </c>
-      <c r="S47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U47" s="19">
-        <v>0</v>
+      <c r="S47" s="19">
+        <v>0</v>
+      </c>
+      <c r="T47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U47" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V47" s="19">
         <v>0</v>
@@ -5535,35 +5590,35 @@
       <c r="K48" s="19">
         <v>0</v>
       </c>
-      <c r="L48" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" s="21" t="s">
+      <c r="L48" s="19">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N48" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N48" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O48" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q48" s="19">
-        <v>0</v>
+      <c r="P48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R48" s="19">
         <v>0</v>
       </c>
-      <c r="S48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T48" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U48" s="19">
-        <v>0</v>
+      <c r="S48" s="19">
+        <v>0</v>
+      </c>
+      <c r="T48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U48" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V48" s="19">
         <v>0</v>
@@ -5594,12 +5649,12 @@
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
@@ -5615,35 +5670,35 @@
       <c r="K49" s="19">
         <v>0</v>
       </c>
-      <c r="L49" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M49" s="21" t="s">
+      <c r="L49" s="19">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N49" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O49" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q49" s="19">
-        <v>0</v>
+      <c r="P49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R49" s="19">
         <v>0</v>
       </c>
-      <c r="S49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T49" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U49" s="19">
-        <v>0</v>
+      <c r="S49" s="19">
+        <v>0</v>
+      </c>
+      <c r="T49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U49" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V49" s="19">
         <v>0</v>
@@ -5674,12 +5729,12 @@
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
@@ -5695,35 +5750,35 @@
       <c r="K50" s="19">
         <v>0</v>
       </c>
-      <c r="L50" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M50" s="21" t="s">
+      <c r="L50" s="19">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N50" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O50" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q50" s="19">
-        <v>0</v>
+      <c r="P50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R50" s="19">
         <v>0</v>
       </c>
-      <c r="S50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T50" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U50" s="19">
-        <v>0</v>
+      <c r="S50" s="19">
+        <v>0</v>
+      </c>
+      <c r="T50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U50" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V50" s="19">
         <v>0</v>
@@ -5760,11 +5815,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -5778,34 +5833,34 @@
         <v>0</v>
       </c>
       <c r="L51" s="19">
-        <v>1</v>
-      </c>
-      <c r="M51" s="21">
-        <v>1</v>
-      </c>
-      <c r="N51" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M51" s="19">
+        <v>1</v>
+      </c>
+      <c r="N51" s="21">
+        <v>1</v>
       </c>
       <c r="O51" s="22">
-        <v>1</v>
-      </c>
-      <c r="P51" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q51" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P51" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R51" s="19">
-        <v>1</v>
-      </c>
-      <c r="S51" s="24">
-        <v>0</v>
-      </c>
-      <c r="T51" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <v>1</v>
+      </c>
+      <c r="T51" s="24">
+        <v>0</v>
       </c>
       <c r="U51" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="19">
         <v>1</v>
@@ -5842,11 +5897,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -5860,30 +5915,30 @@
         <v>0</v>
       </c>
       <c r="L52" s="19">
-        <v>1</v>
-      </c>
-      <c r="M52" s="21">
-        <v>1</v>
-      </c>
-      <c r="N52" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M52" s="19">
+        <v>1</v>
+      </c>
+      <c r="N52" s="21">
+        <v>1</v>
       </c>
       <c r="O52" s="22">
-        <v>1</v>
-      </c>
-      <c r="P52" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q52" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P52" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R52" s="19">
-        <v>1</v>
-      </c>
-      <c r="S52" s="24">
-        <v>0</v>
-      </c>
-      <c r="T52" s="19">
+        <v>0</v>
+      </c>
+      <c r="S52" s="19">
+        <v>1</v>
+      </c>
+      <c r="T52" s="24">
         <v>0</v>
       </c>
       <c r="U52" s="19">
@@ -5924,11 +5979,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -5942,34 +5997,34 @@
         <v>0</v>
       </c>
       <c r="L53" s="19">
-        <v>1</v>
-      </c>
-      <c r="M53" s="21">
-        <v>1</v>
-      </c>
-      <c r="N53" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M53" s="19">
+        <v>1</v>
+      </c>
+      <c r="N53" s="21">
+        <v>1</v>
       </c>
       <c r="O53" s="22">
-        <v>1</v>
-      </c>
-      <c r="P53" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q53" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P53" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R53" s="19">
-        <v>1</v>
-      </c>
-      <c r="S53" s="24">
-        <v>1</v>
-      </c>
-      <c r="T53" s="19">
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <v>1</v>
+      </c>
+      <c r="T53" s="24">
         <v>1</v>
       </c>
       <c r="U53" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="19">
         <v>1</v>
@@ -6006,11 +6061,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -6024,31 +6079,31 @@
         <v>0</v>
       </c>
       <c r="L54" s="19">
-        <v>1</v>
-      </c>
-      <c r="M54" s="21">
-        <v>1</v>
-      </c>
-      <c r="N54" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M54" s="19">
+        <v>1</v>
+      </c>
+      <c r="N54" s="21">
+        <v>1</v>
       </c>
       <c r="O54" s="22">
-        <v>1</v>
-      </c>
-      <c r="P54" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q54" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P54" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R54" s="19">
-        <v>1</v>
-      </c>
-      <c r="S54" s="24">
-        <v>1</v>
-      </c>
-      <c r="T54" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S54" s="19">
+        <v>1</v>
+      </c>
+      <c r="T54" s="24">
+        <v>1</v>
       </c>
       <c r="U54" s="19">
         <v>0</v>
@@ -6088,11 +6143,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -6106,34 +6161,34 @@
         <v>0</v>
       </c>
       <c r="L55" s="19">
-        <v>1</v>
-      </c>
-      <c r="M55" s="21">
-        <v>1</v>
-      </c>
-      <c r="N55" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M55" s="19">
+        <v>1</v>
+      </c>
+      <c r="N55" s="21">
+        <v>1</v>
       </c>
       <c r="O55" s="22">
-        <v>1</v>
-      </c>
-      <c r="P55" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q55" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P55" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R55" s="19">
-        <v>1</v>
-      </c>
-      <c r="S55" s="24">
+        <v>0</v>
+      </c>
+      <c r="S55" s="19">
+        <v>1</v>
+      </c>
+      <c r="T55" s="24">
         <v>10</v>
       </c>
-      <c r="T55" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U55" s="19">
-        <v>0</v>
+      <c r="U55" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V55" s="19">
         <v>1</v>
@@ -6170,11 +6225,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6188,34 +6243,34 @@
         <v>0</v>
       </c>
       <c r="L56" s="19">
-        <v>1</v>
-      </c>
-      <c r="M56" s="21">
-        <v>1</v>
-      </c>
-      <c r="N56" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M56" s="19">
+        <v>1</v>
+      </c>
+      <c r="N56" s="21">
+        <v>1</v>
       </c>
       <c r="O56" s="22">
-        <v>1</v>
-      </c>
-      <c r="P56" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q56" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P56" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R56" s="19">
-        <v>0</v>
-      </c>
-      <c r="S56" s="24">
-        <v>0</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U56" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S56" s="19">
+        <v>0</v>
+      </c>
+      <c r="T56" s="24">
+        <v>0</v>
+      </c>
+      <c r="U56" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V56" s="19">
         <v>0</v>
@@ -6252,11 +6307,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6270,34 +6325,34 @@
         <v>0</v>
       </c>
       <c r="L57" s="19">
-        <v>1</v>
-      </c>
-      <c r="M57" s="21">
-        <v>1</v>
-      </c>
-      <c r="N57" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M57" s="19">
+        <v>1</v>
+      </c>
+      <c r="N57" s="21">
+        <v>1</v>
       </c>
       <c r="O57" s="22">
-        <v>1</v>
-      </c>
-      <c r="P57" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q57" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P57" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R57" s="19">
-        <v>0</v>
-      </c>
-      <c r="S57" s="24">
-        <v>1</v>
-      </c>
-      <c r="T57" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U57" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S57" s="19">
+        <v>0</v>
+      </c>
+      <c r="T57" s="24">
+        <v>1</v>
+      </c>
+      <c r="U57" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V57" s="19">
         <v>0</v>
@@ -6334,11 +6389,11 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -6352,34 +6407,34 @@
         <v>0</v>
       </c>
       <c r="L58" s="19">
-        <v>1</v>
-      </c>
-      <c r="M58" s="21">
-        <v>1</v>
-      </c>
-      <c r="N58" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M58" s="19">
+        <v>1</v>
+      </c>
+      <c r="N58" s="21">
+        <v>1</v>
       </c>
       <c r="O58" s="22">
-        <v>1</v>
-      </c>
-      <c r="P58" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q58" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P58" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R58" s="19">
-        <v>0</v>
-      </c>
-      <c r="S58" s="24">
+        <v>1</v>
+      </c>
+      <c r="S58" s="19">
+        <v>0</v>
+      </c>
+      <c r="T58" s="24">
         <v>10</v>
       </c>
-      <c r="T58" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U58" s="19">
-        <v>0</v>
+      <c r="U58" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V58" s="19">
         <v>0</v>
@@ -6432,40 +6487,40 @@
         <v>108</v>
       </c>
       <c r="J59" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="19">
         <v>0</v>
       </c>
-      <c r="L59" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M59" s="21" t="s">
+      <c r="L59" s="19">
+        <v>0</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N59" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O59" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q59" s="19">
-        <v>0</v>
+      <c r="P59" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q59" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R59" s="19">
         <v>0</v>
       </c>
-      <c r="S59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T59" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U59" s="19">
-        <v>1</v>
+      <c r="S59" s="19">
+        <v>0</v>
+      </c>
+      <c r="T59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U59" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V59" s="19">
         <v>0</v>
@@ -6490,7 +6545,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="20">
@@ -6523,35 +6578,35 @@
       <c r="K60" s="19">
         <v>0</v>
       </c>
-      <c r="L60" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M60" s="21" t="s">
+      <c r="L60" s="19">
+        <v>0</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N60" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N60" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P60" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q60" s="19">
-        <v>0</v>
+      <c r="P60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q60" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R60" s="19">
         <v>0</v>
       </c>
-      <c r="S60" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T60" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U60" s="19">
-        <v>0</v>
+      <c r="S60" s="19">
+        <v>0</v>
+      </c>
+      <c r="T60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U60" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V60" s="19">
         <v>1</v>
@@ -6609,35 +6664,35 @@
       <c r="K61" s="19">
         <v>0</v>
       </c>
-      <c r="L61" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M61" s="21" t="s">
+      <c r="L61" s="19">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N61" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O61" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P61" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q61" s="19">
-        <v>0</v>
+      <c r="P61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q61" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R61" s="19">
         <v>0</v>
       </c>
-      <c r="S61" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T61" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U61" s="19">
-        <v>0</v>
+      <c r="S61" s="19">
+        <v>0</v>
+      </c>
+      <c r="T61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U61" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V61" s="19">
         <v>0</v>
@@ -6677,35 +6732,35 @@
       <c r="K62" s="19">
         <v>0</v>
       </c>
-      <c r="L62" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M62" s="21" t="s">
+      <c r="L62" s="19">
+        <v>0</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N62" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N62" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="O62" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P62" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q62" s="19">
-        <v>0</v>
+      <c r="P62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q62" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="R62" s="19">
         <v>0</v>
       </c>
-      <c r="S62" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T62" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U62" s="19">
-        <v>0</v>
+      <c r="S62" s="19">
+        <v>0</v>
+      </c>
+      <c r="T62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U62" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="V62" s="19">
         <v>0</v>
@@ -6762,15 +6817,15 @@
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="E58:G58"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="V1:V61 V63:V1048576">
@@ -6785,7 +6840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M61 M63:M1048576">
+  <conditionalFormatting sqref="N1:N61 N63:N1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6809,7 +6864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M62">
+  <conditionalFormatting sqref="N62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6838,11 +6893,11 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6905,10 +6960,10 @@
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47"/>
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -7022,11 +7077,11 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F4082-B19D-481F-B540-A7C53969A4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E0067-06DA-43EA-9399-A6C3285E0A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="ALU" sheetId="1" r:id="rId5"/>
     <sheet name="MulDiv" sheetId="5" r:id="rId6"/>
     <sheet name="DataMemory" sheetId="3" r:id="rId7"/>
-    <sheet name="RegFile" sheetId="6" r:id="rId8"/>
-    <sheet name="HiLo" sheetId="8" r:id="rId9"/>
+    <sheet name="HiLo" sheetId="8" r:id="rId8"/>
+    <sheet name="RegFile" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="193">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,14 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DmDout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>takeEret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,6 +730,62 @@
   </si>
   <si>
     <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp0Write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp0Write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regDout1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regDout2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluDout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdDoutHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdDoutLo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlDoutHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlDoutLo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlDoutHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlDoutLo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmDout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp0Dout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,12 +1011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1319,9 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF38BED-6890-44F8-A207-BB1D25B80CDD}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1341,51 +1381,51 @@
   <sheetData>
     <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="E1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="H1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="K1" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1">
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" s="1">
         <v>32</v>
@@ -1393,255 +1433,363 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1">
         <v>32</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1">
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="1">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="1">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="1">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="1">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="32">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="32">
-        <v>4</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="30">
-        <v>1</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="34" t="s">
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="31">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="32">
-        <v>1</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="30">
-        <v>2</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="35" t="s">
+      <c r="G10" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="32">
-        <v>2</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="30">
-        <v>1</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="31">
-        <v>2</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="30">
-        <v>2</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="31">
-        <v>3</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="31">
-        <v>1</v>
+      <c r="H10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="30">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39" t="s">
+      <c r="H14" s="31">
+        <v>2</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="31">
+        <v>3</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="31">
+        <v>2</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="31">
+        <v>3</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="31">
+        <v>2</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="31">
+        <v>2</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="31">
-        <v>2</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="40" t="s">
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="31">
-        <v>3</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="39" t="s">
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D21" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="E21" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1654,13 +1802,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1685,125 +1833,130 @@
     <col min="22" max="22" width="9.375" style="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.875" style="24" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="19"/>
+    <col min="25" max="25" width="10.375" style="22" customWidth="1"/>
+    <col min="26" max="26" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
       <c r="AB1" s="43"/>
-    </row>
-    <row r="2" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="AC1" s="41"/>
+    </row>
+    <row r="2" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="42" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="43"/>
-    </row>
-    <row r="3" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="42" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="41"/>
+    </row>
+    <row r="3" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="40" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="40" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="16" t="s">
@@ -1839,22 +1992,25 @@
       <c r="X3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="Z3" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB3" s="43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="17">
         <v>6</v>
@@ -1926,20 +2082,23 @@
         <v>3</v>
       </c>
       <c r="Y4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="17">
         <v>2</v>
       </c>
-      <c r="Z4" s="17">
-        <v>1</v>
-      </c>
       <c r="AA4" s="17">
         <v>1</v>
       </c>
       <c r="AB4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="20">
@@ -2011,21 +2170,24 @@
       <c r="X5" s="23">
         <v>0</v>
       </c>
-      <c r="Y5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>109</v>
+      <c r="Y5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0</v>
       </c>
       <c r="AA5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB5" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="AB5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="20">
@@ -2037,11 +2199,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -2093,21 +2255,24 @@
       <c r="X6" s="23">
         <v>0</v>
       </c>
-      <c r="Y6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>109</v>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>0</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB6" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="AB6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="20">
@@ -2179,21 +2344,24 @@
       <c r="X7" s="23">
         <v>0</v>
       </c>
-      <c r="Y7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>109</v>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>0</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="AB7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="20">
@@ -2205,11 +2373,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2261,21 +2429,24 @@
       <c r="X8" s="23">
         <v>0</v>
       </c>
-      <c r="Y8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>109</v>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>0</v>
       </c>
       <c r="AA8" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="AB8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="20">
@@ -2347,21 +2518,24 @@
       <c r="X9" s="23">
         <v>0</v>
       </c>
-      <c r="Y9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>109</v>
+      <c r="Y9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="24">
+        <v>0</v>
       </c>
       <c r="AA9" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB9" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="AB9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="20">
@@ -2433,21 +2607,24 @@
       <c r="X10" s="23">
         <v>0</v>
       </c>
-      <c r="Y10" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>109</v>
+      <c r="Y10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0</v>
       </c>
       <c r="AA10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB10" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="AB10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20">
@@ -2519,21 +2696,24 @@
       <c r="X11" s="23">
         <v>0</v>
       </c>
-      <c r="Y11" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="22" t="s">
-        <v>109</v>
+      <c r="Y11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
       </c>
       <c r="AA11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB11" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="AB11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
@@ -2545,11 +2725,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2601,21 +2781,24 @@
       <c r="X12" s="23">
         <v>0</v>
       </c>
-      <c r="Y12" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>109</v>
+      <c r="Y12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0</v>
       </c>
       <c r="AA12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB12" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="AB12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="20">
@@ -2687,21 +2870,24 @@
       <c r="X13" s="23">
         <v>0</v>
       </c>
-      <c r="Y13" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>109</v>
+      <c r="Y13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>0</v>
       </c>
       <c r="AA13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB13" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="AB13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="20">
@@ -2713,11 +2899,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -2769,21 +2955,24 @@
       <c r="X14" s="23">
         <v>0</v>
       </c>
-      <c r="Y14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>109</v>
+      <c r="Y14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="24">
+        <v>0</v>
       </c>
       <c r="AA14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="AB14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="20">
@@ -2855,21 +3044,24 @@
       <c r="X15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="Y15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="24">
         <v>11</v>
       </c>
-      <c r="Z15" s="22">
-        <v>0</v>
-      </c>
       <c r="AA15" s="22">
         <v>0</v>
       </c>
-      <c r="AB15" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="AB15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="20">
@@ -2941,21 +3133,24 @@
       <c r="X16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="Y16" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="24">
         <v>11</v>
       </c>
-      <c r="Z16" s="22">
-        <v>0</v>
-      </c>
       <c r="AA16" s="22">
         <v>0</v>
       </c>
-      <c r="AB16" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="AB16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20">
@@ -3027,21 +3222,24 @@
       <c r="X17" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y17" s="24">
+      <c r="Y17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24">
         <v>11</v>
       </c>
-      <c r="Z17" s="22">
-        <v>0</v>
-      </c>
       <c r="AA17" s="22">
         <v>0</v>
       </c>
-      <c r="AB17" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="AB17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20">
@@ -3113,21 +3311,24 @@
       <c r="X18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y18" s="24">
+      <c r="Y18" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="24">
         <v>11</v>
       </c>
-      <c r="Z18" s="22">
-        <v>0</v>
-      </c>
       <c r="AA18" s="22">
         <v>0</v>
       </c>
-      <c r="AB18" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+      <c r="AB18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20">
@@ -3199,21 +3400,24 @@
       <c r="X19" s="23">
         <v>0</v>
       </c>
-      <c r="Y19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>109</v>
+      <c r="Y19" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="24">
+        <v>0</v>
       </c>
       <c r="AA19" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB19" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="AB19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="20">
@@ -3225,11 +3429,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3281,21 +3485,24 @@
       <c r="X20" s="23">
         <v>0</v>
       </c>
-      <c r="Y20" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>109</v>
+      <c r="Y20" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="24">
+        <v>0</v>
       </c>
       <c r="AA20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB20" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="AB20" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="20">
@@ -3307,11 +3514,11 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3363,21 +3570,24 @@
       <c r="X21" s="23">
         <v>0</v>
       </c>
-      <c r="Y21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>109</v>
+      <c r="Y21" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="24">
+        <v>0</v>
       </c>
       <c r="AA21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB21" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="AB21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20">
@@ -3449,21 +3659,24 @@
       <c r="X22" s="23">
         <v>0</v>
       </c>
-      <c r="Y22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>109</v>
+      <c r="Y22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="24">
+        <v>0</v>
       </c>
       <c r="AA22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB22" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="AB22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20">
@@ -3535,21 +3748,24 @@
       <c r="X23" s="23">
         <v>0</v>
       </c>
-      <c r="Y23" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>109</v>
+      <c r="Y23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="24">
+        <v>0</v>
       </c>
       <c r="AA23" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB23" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="AB23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="20">
@@ -3561,11 +3777,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3617,21 +3833,24 @@
       <c r="X24" s="23">
         <v>0</v>
       </c>
-      <c r="Y24" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="22" t="s">
-        <v>109</v>
+      <c r="Y24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="24">
+        <v>0</v>
       </c>
       <c r="AA24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB24" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="AB24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="20">
@@ -3703,21 +3922,24 @@
       <c r="X25" s="23">
         <v>0</v>
       </c>
-      <c r="Y25" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="22" t="s">
-        <v>109</v>
+      <c r="Y25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="24">
+        <v>0</v>
       </c>
       <c r="AA25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB25" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="AB25" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="20">
@@ -3729,11 +3951,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -3785,21 +4007,24 @@
       <c r="X26" s="23">
         <v>0</v>
       </c>
-      <c r="Y26" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="22" t="s">
-        <v>109</v>
+      <c r="Y26" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="24">
+        <v>0</v>
       </c>
       <c r="AA26" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB26" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="AB26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20">
@@ -3871,21 +4096,24 @@
       <c r="X27" s="23">
         <v>0</v>
       </c>
-      <c r="Y27" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="22" t="s">
-        <v>109</v>
+      <c r="Y27" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="24">
+        <v>0</v>
       </c>
       <c r="AA27" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB27" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="AB27" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20">
@@ -3957,21 +4185,24 @@
       <c r="X28" s="23">
         <v>0</v>
       </c>
-      <c r="Y28" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="22" t="s">
-        <v>109</v>
+      <c r="Y28" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>0</v>
       </c>
       <c r="AA28" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB28" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="AB28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="20">
@@ -4043,21 +4274,24 @@
       <c r="X29" s="23">
         <v>0</v>
       </c>
-      <c r="Y29" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="22" t="s">
-        <v>109</v>
+      <c r="Y29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="24">
+        <v>0</v>
       </c>
       <c r="AA29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB29" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="AB29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="20">
@@ -4129,21 +4363,24 @@
       <c r="X30" s="23">
         <v>0</v>
       </c>
-      <c r="Y30" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="22" t="s">
-        <v>109</v>
+      <c r="Y30" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="24">
+        <v>0</v>
       </c>
       <c r="AA30" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB30" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="AB30" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="20">
@@ -4215,21 +4452,24 @@
       <c r="X31" s="23">
         <v>0</v>
       </c>
-      <c r="Y31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="22" t="s">
-        <v>109</v>
+      <c r="Y31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="24">
+        <v>0</v>
       </c>
       <c r="AA31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB31" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="AB31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="20">
@@ -4301,21 +4541,24 @@
       <c r="X32" s="23">
         <v>0</v>
       </c>
-      <c r="Y32" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="22" t="s">
-        <v>109</v>
+      <c r="Y32" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="24">
+        <v>0</v>
       </c>
       <c r="AA32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB32" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="AB32" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="20">
@@ -4327,11 +4570,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -4383,21 +4626,24 @@
       <c r="X33" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y33" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="22" t="s">
-        <v>109</v>
+      <c r="Y33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="24">
+        <v>0</v>
       </c>
       <c r="AA33" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB33" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
+      <c r="AB33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="49" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="20">
@@ -4409,11 +4655,11 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -4465,21 +4711,24 @@
       <c r="X34" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y34" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="22" t="s">
-        <v>109</v>
+      <c r="Y34" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <v>0</v>
       </c>
       <c r="AA34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB34" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
+      <c r="AB34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="20">
@@ -4491,11 +4740,11 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -4547,21 +4796,24 @@
       <c r="X35" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y35" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="22" t="s">
-        <v>109</v>
+      <c r="Y35" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="24">
+        <v>0</v>
       </c>
       <c r="AA35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB35" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="AB35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="20">
@@ -4573,11 +4825,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4629,21 +4881,24 @@
       <c r="X36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y36" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="22" t="s">
-        <v>109</v>
+      <c r="Y36" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="24">
+        <v>0</v>
       </c>
       <c r="AA36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB36" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
+      <c r="AB36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="20">
@@ -4655,11 +4910,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -4711,21 +4966,24 @@
       <c r="X37" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y37" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="22" t="s">
-        <v>109</v>
+      <c r="Y37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="24">
+        <v>0</v>
       </c>
       <c r="AA37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB37" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
+      <c r="AB37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="20">
@@ -4737,11 +4995,11 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -4793,21 +5051,24 @@
       <c r="X38" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y38" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="22" t="s">
-        <v>109</v>
+      <c r="Y38" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="24">
+        <v>0</v>
       </c>
       <c r="AA38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB38" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="AB38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="20">
@@ -4819,11 +5080,11 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -4875,21 +5136,24 @@
       <c r="X39" s="23">
         <v>1</v>
       </c>
-      <c r="Y39" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="22" t="s">
-        <v>109</v>
+      <c r="Y39" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="24">
+        <v>0</v>
       </c>
       <c r="AA39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB39" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="AB39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="20">
@@ -4901,11 +5165,11 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="19">
         <v>1</v>
       </c>
@@ -4957,33 +5221,36 @@
       <c r="X40" s="23">
         <v>1</v>
       </c>
-      <c r="Y40" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="22" t="s">
-        <v>109</v>
+      <c r="Y40" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="24">
+        <v>0</v>
       </c>
       <c r="AA40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB40" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="AB40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="49" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -5035,33 +5302,36 @@
       <c r="X41" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y41" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="22" t="s">
-        <v>109</v>
+      <c r="Y41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="24">
+        <v>0</v>
       </c>
       <c r="AA41" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB41" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="AB41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -5113,21 +5383,24 @@
       <c r="X42" s="23">
         <v>1</v>
       </c>
-      <c r="Y42" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="22" t="s">
-        <v>109</v>
+      <c r="Y42" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="24">
+        <v>0</v>
       </c>
       <c r="AA42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB42" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="AB42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="20">
@@ -5199,21 +5472,24 @@
       <c r="X43" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y43" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="22" t="s">
-        <v>109</v>
+      <c r="Y43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="24">
+        <v>0</v>
       </c>
       <c r="AA43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB43" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="AB43" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="20">
@@ -5285,21 +5561,24 @@
       <c r="X44" s="23">
         <v>1</v>
       </c>
-      <c r="Y44" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="22" t="s">
-        <v>109</v>
+      <c r="Y44" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="24">
+        <v>0</v>
       </c>
       <c r="AA44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB44" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="AB44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC44" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="20">
@@ -5371,21 +5650,24 @@
       <c r="X45" s="23">
         <v>10</v>
       </c>
-      <c r="Y45" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="22" t="s">
-        <v>109</v>
+      <c r="Y45" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="24">
+        <v>0</v>
       </c>
       <c r="AA45" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB45" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
+      <c r="AB45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="20">
@@ -5457,20 +5739,23 @@
       <c r="X46" s="23">
         <v>11</v>
       </c>
-      <c r="Y46" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="22" t="s">
-        <v>109</v>
+      <c r="Y46" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="24">
+        <v>0</v>
       </c>
       <c r="AA46" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB46" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>63</v>
       </c>
@@ -5543,20 +5828,23 @@
       <c r="X47" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y47" s="24">
+      <c r="Y47" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="24">
         <v>10</v>
       </c>
-      <c r="Z47" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB47" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA47" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>64</v>
       </c>
@@ -5629,32 +5917,35 @@
       <c r="X48" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y48" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA48" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y48" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB48" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
@@ -5709,32 +6000,35 @@
       <c r="X49" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y49" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="22" t="s">
-        <v>109</v>
+      <c r="Y49" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="24">
+        <v>0</v>
       </c>
       <c r="AA49" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB49" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC49" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
@@ -5789,20 +6083,23 @@
       <c r="X50" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y50" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="22" t="s">
-        <v>109</v>
+      <c r="Y50" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="24">
+        <v>0</v>
       </c>
       <c r="AA50" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB50" s="24">
+      <c r="AB50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC50" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>68</v>
       </c>
@@ -5815,11 +6112,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -5871,20 +6168,23 @@
       <c r="X51" s="23">
         <v>100</v>
       </c>
-      <c r="Y51" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="22" t="s">
-        <v>109</v>
+      <c r="Y51" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="24">
+        <v>0</v>
       </c>
       <c r="AA51" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB51" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>69</v>
       </c>
@@ -5897,11 +6197,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -5953,20 +6253,23 @@
       <c r="X52" s="23">
         <v>100</v>
       </c>
-      <c r="Y52" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="22" t="s">
-        <v>109</v>
+      <c r="Y52" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="24">
+        <v>0</v>
       </c>
       <c r="AA52" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB52" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC52" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
@@ -5979,11 +6282,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -6035,20 +6338,23 @@
       <c r="X53" s="23">
         <v>100</v>
       </c>
-      <c r="Y53" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="22" t="s">
-        <v>109</v>
+      <c r="Y53" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="24">
+        <v>0</v>
       </c>
       <c r="AA53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB53" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB53" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>71</v>
       </c>
@@ -6061,11 +6367,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="47" t="s">
+      <c r="E54" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -6117,20 +6423,23 @@
       <c r="X54" s="23">
         <v>100</v>
       </c>
-      <c r="Y54" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="22" t="s">
-        <v>109</v>
+      <c r="Y54" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="24">
+        <v>0</v>
       </c>
       <c r="AA54" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB54" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB54" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
@@ -6143,11 +6452,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -6199,20 +6508,23 @@
       <c r="X55" s="23">
         <v>100</v>
       </c>
-      <c r="Y55" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="22" t="s">
-        <v>109</v>
+      <c r="Y55" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="24">
+        <v>0</v>
       </c>
       <c r="AA55" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB55" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB55" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>73</v>
       </c>
@@ -6225,11 +6537,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6281,20 +6593,23 @@
       <c r="X56" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y56" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="22" t="s">
-        <v>109</v>
+      <c r="Y56" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="24">
+        <v>0</v>
       </c>
       <c r="AA56" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB56" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB56" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>74</v>
       </c>
@@ -6307,11 +6622,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6363,20 +6678,23 @@
       <c r="X57" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y57" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="22" t="s">
-        <v>109</v>
+      <c r="Y57" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="24">
+        <v>0</v>
       </c>
       <c r="AA57" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB57" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB57" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>75</v>
       </c>
@@ -6389,11 +6707,11 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -6445,20 +6763,23 @@
       <c r="X58" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y58" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="22" t="s">
-        <v>109</v>
+      <c r="Y58" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="24">
+        <v>0</v>
       </c>
       <c r="AA58" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB58" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB58" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>76</v>
       </c>
@@ -6531,21 +6852,24 @@
       <c r="X59" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y59" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="22" t="s">
-        <v>109</v>
+      <c r="Y59" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="24">
+        <v>0</v>
       </c>
       <c r="AA59" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB59" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="50" t="s">
+      <c r="AB59" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" s="48" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="20">
@@ -6617,20 +6941,23 @@
       <c r="X60" s="23">
         <v>101</v>
       </c>
-      <c r="Y60" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="22" t="s">
-        <v>109</v>
+      <c r="Y60" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="24">
+        <v>0</v>
       </c>
       <c r="AA60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB60" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
         <v>79</v>
       </c>
@@ -6703,22 +7030,25 @@
       <c r="X61" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y61" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="22" t="s">
-        <v>109</v>
+      <c r="Y61" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="24">
+        <v>0</v>
       </c>
       <c r="AA61" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB61" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H62" s="19">
         <v>0</v>
@@ -6771,16 +7101,19 @@
       <c r="X62" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y62" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="22" t="s">
-        <v>109</v>
+      <c r="Y62" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="24">
+        <v>0</v>
       </c>
       <c r="AA62" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AB62" s="24">
+      <c r="AB62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC62" s="24">
         <v>11</v>
       </c>
     </row>
@@ -6820,62 +7153,14 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V1:AB1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="V1:V61 V63:V1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N61 N63:N1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V62">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6893,12 +7178,12 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6906,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6930,7 +7215,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6943,8 +7228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6B0BF-8614-43A7-9F15-E4FE95337B3D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6960,10 +7245,10 @@
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48"/>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -7054,7 +7339,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7077,11 +7362,11 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7144,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -7447,10 +7732,78 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E22FF-6159-4733-93EB-5184B9746FE9}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947260C0-B57D-402D-A7FB-E56302B48C32}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7522,7 +7875,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7530,7 +7883,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7538,7 +7891,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7546,73 +7899,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E22FF-6159-4733-93EB-5184B9746FE9}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E0067-06DA-43EA-9399-A6C3285E0A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B37D2A-B0C0-47E1-81C3-0793E29F30C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
@@ -1022,6 +1022,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,15 +1041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1804,11 +1804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1842,105 +1842,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
       <c r="AC1" s="41"/>
     </row>
     <row r="2" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
       <c r="Q2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
       <c r="Y2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="40" t="s">
         <v>107</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="20">
@@ -2187,7 +2187,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="20">
@@ -2199,11 +2199,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="20">
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="20">
@@ -2373,11 +2373,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="20">
@@ -2535,7 +2535,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="20">
@@ -2624,7 +2624,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20">
@@ -2713,7 +2713,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
@@ -2725,11 +2725,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="20">
@@ -2887,7 +2887,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="20">
@@ -2899,11 +2899,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="20">
@@ -3061,7 +3061,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="20">
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20">
@@ -3239,7 +3239,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20">
@@ -3328,7 +3328,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20">
@@ -3417,7 +3417,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="20">
@@ -3429,11 +3429,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3502,7 +3502,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="20">
@@ -3514,11 +3514,11 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20">
@@ -3676,7 +3676,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20">
@@ -3765,7 +3765,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="20">
@@ -3777,11 +3777,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="43" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="20">
@@ -3939,7 +3939,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="20">
@@ -3951,11 +3951,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20">
@@ -4113,7 +4113,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20">
@@ -4202,7 +4202,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="20">
@@ -4291,7 +4291,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="20">
@@ -4380,7 +4380,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="20">
@@ -4469,7 +4469,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="43" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="20">
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="20">
@@ -4570,11 +4570,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -4643,7 +4643,7 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="20">
@@ -4655,11 +4655,11 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -4728,7 +4728,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="20">
@@ -4740,11 +4740,11 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -4813,7 +4813,7 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="20">
@@ -4825,11 +4825,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="20">
@@ -4910,11 +4910,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -4983,7 +4983,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="20">
@@ -4995,11 +4995,11 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="20">
@@ -5080,11 +5080,11 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="20">
@@ -5165,11 +5165,11 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="19">
         <v>1</v>
       </c>
@@ -5238,19 +5238,19 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -5319,19 +5319,19 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="45" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="20">
@@ -5489,7 +5489,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="20">
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="20">
@@ -5667,7 +5667,7 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="44" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="20">
@@ -5940,12 +5940,12 @@
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
@@ -6023,12 +6023,12 @@
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
@@ -6112,11 +6112,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -6197,11 +6197,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -6282,11 +6282,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -6367,11 +6367,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -6452,11 +6452,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -6537,11 +6537,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6622,11 +6622,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6707,11 +6707,11 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="20">
@@ -7149,16 +7149,16 @@
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7228,7 +7228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6B0BF-8614-43A7-9F15-E4FE95337B3D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -7245,10 +7245,10 @@
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46"/>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -7362,11 +7362,11 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B37D2A-B0C0-47E1-81C3-0793E29F30C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750FEB1-9529-4D9D-8EB8-14F341333330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="194">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>regAddr3Src</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>regDinSrc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,6 +782,14 @@
   </si>
   <si>
     <t>cp0Dout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regAddr3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,9 +1014,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,10 +1035,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1360,7 +1364,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,19 +1463,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H4" s="1">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="1">
         <v>32</v>
@@ -1479,19 +1483,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1">
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" s="1">
         <v>32</v>
@@ -1505,53 +1509,53 @@
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K6" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="32">
-        <v>4</v>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="1">
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K7" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="34" t="s">
-        <v>161</v>
+      <c r="D8" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="E8" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H8" s="1">
         <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="1">
         <v>32</v>
@@ -1559,59 +1563,59 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="32">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="30">
-        <v>1</v>
+      <c r="G9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K9" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="35" t="s">
-        <v>163</v>
+      <c r="D10" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="30">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>166</v>
+      <c r="D11" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="32">
+        <v>2</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="H11" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K11" s="1">
         <v>32</v>
@@ -1619,99 +1623,99 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="G12" s="36" t="s">
-        <v>167</v>
+      <c r="G12" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="H12" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K12" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="30">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E14" s="30">
         <v>2</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G14" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="31">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="K13" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="36" t="s">
+      <c r="K14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="G14" s="39" t="s">
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="H14" s="31">
-        <v>2</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="31">
-        <v>1</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>170</v>
       </c>
       <c r="H15" s="31">
         <v>3</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="39" t="s">
-        <v>169</v>
+      <c r="D16" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="E16" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" s="31">
         <v>1</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K16" s="31">
         <v>1</v>
@@ -1719,19 +1723,19 @@
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" s="31">
         <v>3</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" s="31">
         <v>2</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" s="31">
         <v>2</v>
@@ -1739,19 +1743,19 @@
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="31">
         <v>1</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H18" s="31">
         <v>1</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K18" s="31">
         <v>1</v>
@@ -1759,19 +1763,19 @@
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="31">
         <v>2</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H19" s="31">
         <v>1</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" s="31">
         <v>1</v>
@@ -1779,7 +1783,7 @@
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -1787,7 +1791,7 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="31">
         <v>1</v>
@@ -1804,11 +1808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1823,15 +1827,15 @@
     <col min="11" max="11" width="14.25" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.375" style="19" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.375" style="23" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.375" style="22" customWidth="1"/>
     <col min="26" max="26" width="8" style="24" bestFit="1" customWidth="1"/>
@@ -1861,28 +1865,28 @@
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="46"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="46"/>
       <c r="T1" s="46"/>
       <c r="U1" s="46"/>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="46"/>
       <c r="X1" s="46"/>
       <c r="Y1" s="46"/>
       <c r="Z1" s="46"/>
       <c r="AA1" s="46"/>
       <c r="AB1" s="46"/>
-      <c r="AC1" s="41"/>
+      <c r="AC1" s="40"/>
     </row>
     <row r="2" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
@@ -1901,37 +1905,39 @@
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="46"/>
+      <c r="R2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="S2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="46"/>
       <c r="T2" s="46"/>
       <c r="U2" s="46"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="46"/>
       <c r="X2" s="46"/>
       <c r="Y2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z2" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z2" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="41"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
@@ -1941,7 +1947,7 @@
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -1950,50 +1956,50 @@
       <c r="J3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="X3" s="18" t="s">
         <v>134</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z3" s="15" t="s">
         <v>147</v>
@@ -2004,8 +2010,8 @@
       <c r="AB3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="AC3" s="41" t="s">
-        <v>174</v>
+      <c r="AC3" s="40" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2049,34 +2055,34 @@
         <v>1</v>
       </c>
       <c r="N4" s="17">
+        <v>2</v>
+      </c>
+      <c r="O4" s="17">
         <v>4</v>
       </c>
-      <c r="O4" s="17">
-        <v>1</v>
-      </c>
       <c r="P4" s="17">
         <v>1</v>
       </c>
       <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="17">
         <v>2</v>
       </c>
-      <c r="R4" s="17">
-        <v>1</v>
-      </c>
       <c r="S4" s="17">
         <v>1</v>
       </c>
       <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
         <v>2</v>
       </c>
-      <c r="U4" s="17">
-        <v>1</v>
-      </c>
       <c r="V4" s="17">
         <v>1</v>
       </c>
       <c r="W4" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" s="17">
         <v>3</v>
@@ -2098,7 +2104,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="20">
@@ -2137,35 +2143,35 @@
       <c r="M5" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="21">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
+      <c r="N5" s="24">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
         <v>0</v>
       </c>
       <c r="P5" s="22">
         <v>0</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S5" s="19">
         <v>0</v>
       </c>
-      <c r="T5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V5" s="19">
-        <v>1</v>
-      </c>
-      <c r="W5" s="24">
-        <v>0</v>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W5" s="19">
+        <v>1</v>
       </c>
       <c r="X5" s="23">
         <v>0</v>
@@ -2187,7 +2193,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="20">
@@ -2199,11 +2205,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -2222,34 +2228,34 @@
       <c r="M6" s="19">
         <v>1</v>
       </c>
-      <c r="N6" s="21">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
+      <c r="N6" s="24">
+        <v>1</v>
+      </c>
+      <c r="O6" s="21">
         <v>0</v>
       </c>
       <c r="P6" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S6" s="19">
         <v>0</v>
       </c>
-      <c r="T6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="19">
-        <v>1</v>
-      </c>
-      <c r="W6" s="24">
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" s="19">
         <v>1</v>
       </c>
       <c r="X6" s="23">
@@ -2272,7 +2278,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="20">
@@ -2311,35 +2317,35 @@
       <c r="M7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="21">
-        <v>1</v>
-      </c>
-      <c r="O7" s="22">
-        <v>0</v>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
       </c>
       <c r="P7" s="22">
         <v>0</v>
       </c>
-      <c r="Q7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0</v>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S7" s="19">
         <v>0</v>
       </c>
-      <c r="T7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V7" s="19">
-        <v>1</v>
-      </c>
-      <c r="W7" s="24">
-        <v>0</v>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W7" s="19">
+        <v>1</v>
       </c>
       <c r="X7" s="23">
         <v>0</v>
@@ -2361,7 +2367,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="20">
@@ -2373,11 +2379,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2396,34 +2402,34 @@
       <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="21">
-        <v>1</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0</v>
+      <c r="N8" s="24">
+        <v>1</v>
+      </c>
+      <c r="O8" s="21">
+        <v>1</v>
       </c>
       <c r="P8" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>1</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S8" s="19">
         <v>0</v>
       </c>
-      <c r="T8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="19">
-        <v>1</v>
-      </c>
-      <c r="W8" s="24">
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" s="19">
         <v>1</v>
       </c>
       <c r="X8" s="23">
@@ -2446,7 +2452,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="20">
@@ -2485,35 +2491,35 @@
       <c r="M9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
         <v>10</v>
       </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
       <c r="P9" s="22">
         <v>0</v>
       </c>
-      <c r="Q9" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V9" s="19">
-        <v>1</v>
-      </c>
-      <c r="W9" s="24">
-        <v>0</v>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" s="19">
+        <v>1</v>
       </c>
       <c r="X9" s="23">
         <v>0</v>
@@ -2535,7 +2541,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="20">
@@ -2574,35 +2580,35 @@
       <c r="M10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="24">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
         <v>11</v>
       </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
       <c r="P10" s="22">
         <v>0</v>
       </c>
-      <c r="Q10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
       </c>
-      <c r="T10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V10" s="19">
-        <v>1</v>
-      </c>
-      <c r="W10" s="24">
-        <v>0</v>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W10" s="19">
+        <v>1</v>
       </c>
       <c r="X10" s="23">
         <v>0</v>
@@ -2624,7 +2630,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20">
@@ -2663,35 +2669,35 @@
       <c r="M11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21">
         <v>100</v>
       </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
       <c r="P11" s="22">
         <v>0</v>
       </c>
-      <c r="Q11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0</v>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
-      <c r="T11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V11" s="19">
-        <v>1</v>
-      </c>
-      <c r="W11" s="24">
-        <v>0</v>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" s="19">
+        <v>1</v>
       </c>
       <c r="X11" s="23">
         <v>0</v>
@@ -2713,7 +2719,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
@@ -2725,11 +2731,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2748,34 +2754,34 @@
       <c r="M12" s="19">
         <v>1</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="24">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21">
         <v>100</v>
       </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
       <c r="P12" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S12" s="19">
         <v>0</v>
       </c>
-      <c r="T12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V12" s="19">
-        <v>1</v>
-      </c>
-      <c r="W12" s="24">
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W12" s="19">
         <v>1</v>
       </c>
       <c r="X12" s="23">
@@ -2798,7 +2804,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="20">
@@ -2837,35 +2843,35 @@
       <c r="M13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
         <v>101</v>
       </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
       <c r="P13" s="22">
         <v>0</v>
       </c>
-      <c r="Q13" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
       </c>
-      <c r="T13" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V13" s="19">
-        <v>1</v>
-      </c>
-      <c r="W13" s="24">
-        <v>0</v>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W13" s="19">
+        <v>1</v>
       </c>
       <c r="X13" s="23">
         <v>0</v>
@@ -2887,7 +2893,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="20">
@@ -2899,11 +2905,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -2922,34 +2928,34 @@
       <c r="M14" s="19">
         <v>1</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="24">
+        <v>1</v>
+      </c>
+      <c r="O14" s="21">
         <v>101</v>
       </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
       <c r="P14" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
-      <c r="T14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14" s="19">
-        <v>1</v>
-      </c>
-      <c r="W14" s="24">
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="19">
         <v>1</v>
       </c>
       <c r="X14" s="23">
@@ -2972,7 +2978,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="20">
@@ -3011,35 +3017,35 @@
       <c r="M15" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P15" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="24">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
+      <c r="Q15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="24">
         <v>0</v>
       </c>
       <c r="S15" s="19">
         <v>0</v>
       </c>
-      <c r="T15" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" s="19">
-        <v>0</v>
-      </c>
-      <c r="W15" s="24" t="s">
-        <v>118</v>
+      <c r="T15" s="19">
+        <v>0</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" s="19">
+        <v>0</v>
       </c>
       <c r="X15" s="23" t="s">
         <v>108</v>
@@ -3061,7 +3067,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="20">
@@ -3100,35 +3106,35 @@
       <c r="M16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P16" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q16" s="24">
-        <v>1</v>
-      </c>
-      <c r="R16" s="19">
-        <v>0</v>
+      <c r="Q16" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="24">
+        <v>1</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
       </c>
-      <c r="T16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V16" s="19">
-        <v>0</v>
-      </c>
-      <c r="W16" s="24" t="s">
-        <v>118</v>
+      <c r="T16" s="19">
+        <v>0</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W16" s="19">
+        <v>0</v>
       </c>
       <c r="X16" s="23" t="s">
         <v>108</v>
@@ -3150,7 +3156,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20">
@@ -3189,35 +3195,35 @@
       <c r="M17" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="24">
         <v>10</v>
       </c>
-      <c r="R17" s="19">
-        <v>0</v>
-      </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
-      <c r="T17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V17" s="19">
-        <v>0</v>
-      </c>
-      <c r="W17" s="24" t="s">
-        <v>118</v>
+      <c r="T17" s="19">
+        <v>0</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W17" s="19">
+        <v>0</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>108</v>
@@ -3239,7 +3245,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20">
@@ -3278,35 +3284,35 @@
       <c r="M18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="24">
         <v>11</v>
       </c>
-      <c r="R18" s="19">
-        <v>0</v>
-      </c>
       <c r="S18" s="19">
         <v>0</v>
       </c>
-      <c r="T18" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V18" s="19">
-        <v>0</v>
-      </c>
-      <c r="W18" s="24" t="s">
-        <v>118</v>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W18" s="19">
+        <v>0</v>
       </c>
       <c r="X18" s="23" t="s">
         <v>108</v>
@@ -3328,7 +3334,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20">
@@ -3367,35 +3373,35 @@
       <c r="M19" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="24">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
         <v>110</v>
       </c>
-      <c r="O19" s="22">
-        <v>0</v>
-      </c>
       <c r="P19" s="22">
         <v>0</v>
       </c>
-      <c r="Q19" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R19" s="19">
-        <v>0</v>
+      <c r="Q19" s="22">
+        <v>0</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
-      <c r="T19" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V19" s="19">
-        <v>1</v>
-      </c>
-      <c r="W19" s="24">
-        <v>0</v>
+      <c r="T19" s="19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="19">
+        <v>1</v>
       </c>
       <c r="X19" s="23">
         <v>0</v>
@@ -3417,7 +3423,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="20">
@@ -3429,11 +3435,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3452,34 +3458,34 @@
       <c r="M20" s="19">
         <v>0</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="24">
+        <v>1</v>
+      </c>
+      <c r="O20" s="21">
         <v>110</v>
       </c>
-      <c r="O20" s="22">
-        <v>0</v>
-      </c>
       <c r="P20" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>1</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S20" s="19">
         <v>0</v>
       </c>
-      <c r="T20" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V20" s="19">
-        <v>1</v>
-      </c>
-      <c r="W20" s="24">
+      <c r="T20" s="19">
+        <v>0</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" s="19">
         <v>1</v>
       </c>
       <c r="X20" s="23">
@@ -3502,7 +3508,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="20">
@@ -3514,11 +3520,11 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3537,34 +3543,34 @@
       <c r="M21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="24">
+        <v>1</v>
+      </c>
+      <c r="O21" s="21">
         <v>111</v>
       </c>
-      <c r="O21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R21" s="19">
-        <v>0</v>
+      <c r="P21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S21" s="19">
         <v>0</v>
       </c>
-      <c r="T21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V21" s="19">
-        <v>1</v>
-      </c>
-      <c r="W21" s="24">
+      <c r="T21" s="19">
+        <v>0</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W21" s="19">
         <v>1</v>
       </c>
       <c r="X21" s="23">
@@ -3587,7 +3593,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20">
@@ -3626,35 +3632,35 @@
       <c r="M22" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="24">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
         <v>1000</v>
       </c>
-      <c r="O22" s="22">
-        <v>0</v>
-      </c>
       <c r="P22" s="22">
         <v>0</v>
       </c>
-      <c r="Q22" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R22" s="19">
-        <v>0</v>
+      <c r="Q22" s="22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S22" s="19">
         <v>0</v>
       </c>
-      <c r="T22" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U22" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V22" s="19">
-        <v>1</v>
-      </c>
-      <c r="W22" s="24">
-        <v>0</v>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" s="19">
+        <v>1</v>
       </c>
       <c r="X22" s="23">
         <v>0</v>
@@ -3676,7 +3682,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20">
@@ -3715,35 +3721,35 @@
       <c r="M23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="24">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
         <v>1001</v>
       </c>
-      <c r="O23" s="22">
-        <v>0</v>
-      </c>
       <c r="P23" s="22">
         <v>0</v>
       </c>
-      <c r="Q23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0</v>
+      <c r="Q23" s="22">
+        <v>0</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S23" s="19">
         <v>0</v>
       </c>
-      <c r="T23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V23" s="19">
-        <v>1</v>
-      </c>
-      <c r="W23" s="24">
-        <v>0</v>
+      <c r="T23" s="19">
+        <v>0</v>
+      </c>
+      <c r="U23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="19">
+        <v>1</v>
       </c>
       <c r="X23" s="23">
         <v>0</v>
@@ -3765,7 +3771,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="20">
@@ -3777,11 +3783,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3800,34 +3806,34 @@
       <c r="M24" s="19">
         <v>0</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="21">
         <v>1001</v>
       </c>
-      <c r="O24" s="22">
-        <v>0</v>
-      </c>
       <c r="P24" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R24" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>1</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
       </c>
-      <c r="T24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V24" s="19">
-        <v>1</v>
-      </c>
-      <c r="W24" s="24">
+      <c r="T24" s="19">
+        <v>0</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W24" s="19">
         <v>1</v>
       </c>
       <c r="X24" s="23">
@@ -3850,7 +3856,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="20">
@@ -3889,35 +3895,35 @@
       <c r="M25" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="24">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
         <v>1010</v>
       </c>
-      <c r="O25" s="22">
-        <v>0</v>
-      </c>
       <c r="P25" s="22">
         <v>0</v>
       </c>
-      <c r="Q25" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R25" s="19">
-        <v>0</v>
+      <c r="Q25" s="22">
+        <v>0</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S25" s="19">
         <v>0</v>
       </c>
-      <c r="T25" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U25" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V25" s="19">
-        <v>1</v>
-      </c>
-      <c r="W25" s="24">
-        <v>0</v>
+      <c r="T25" s="19">
+        <v>0</v>
+      </c>
+      <c r="U25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W25" s="19">
+        <v>1</v>
       </c>
       <c r="X25" s="23">
         <v>0</v>
@@ -3939,7 +3945,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="20">
@@ -3951,11 +3957,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -3974,34 +3980,34 @@
       <c r="M26" s="19">
         <v>0</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="24">
+        <v>1</v>
+      </c>
+      <c r="O26" s="21">
         <v>1010</v>
       </c>
-      <c r="O26" s="22">
-        <v>0</v>
-      </c>
       <c r="P26" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R26" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>1</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S26" s="19">
         <v>0</v>
       </c>
-      <c r="T26" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V26" s="19">
-        <v>1</v>
-      </c>
-      <c r="W26" s="24">
+      <c r="T26" s="19">
+        <v>0</v>
+      </c>
+      <c r="U26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="19">
         <v>1</v>
       </c>
       <c r="X26" s="23">
@@ -4024,7 +4030,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20">
@@ -4063,35 +4069,35 @@
       <c r="M27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="24">
+        <v>0</v>
+      </c>
+      <c r="O27" s="21">
         <v>1011</v>
       </c>
-      <c r="O27" s="22">
-        <v>0</v>
-      </c>
       <c r="P27" s="22">
         <v>0</v>
       </c>
-      <c r="Q27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R27" s="19">
-        <v>0</v>
+      <c r="Q27" s="22">
+        <v>0</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S27" s="19">
         <v>0</v>
       </c>
-      <c r="T27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V27" s="19">
-        <v>1</v>
-      </c>
-      <c r="W27" s="24">
-        <v>0</v>
+      <c r="T27" s="19">
+        <v>0</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W27" s="19">
+        <v>1</v>
       </c>
       <c r="X27" s="23">
         <v>0</v>
@@ -4113,7 +4119,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20">
@@ -4152,35 +4158,35 @@
       <c r="M28" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
         <v>1011</v>
       </c>
-      <c r="O28" s="22">
-        <v>1</v>
-      </c>
       <c r="P28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R28" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>0</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S28" s="19">
         <v>0</v>
       </c>
-      <c r="T28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V28" s="19">
-        <v>1</v>
-      </c>
-      <c r="W28" s="24">
-        <v>0</v>
+      <c r="T28" s="19">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W28" s="19">
+        <v>1</v>
       </c>
       <c r="X28" s="23">
         <v>0</v>
@@ -4202,7 +4208,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="20">
@@ -4241,35 +4247,35 @@
       <c r="M29" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21">
         <v>1100</v>
       </c>
-      <c r="O29" s="22">
-        <v>0</v>
-      </c>
       <c r="P29" s="22">
         <v>0</v>
       </c>
-      <c r="Q29" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R29" s="19">
-        <v>0</v>
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S29" s="19">
         <v>0</v>
       </c>
-      <c r="T29" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V29" s="19">
-        <v>1</v>
-      </c>
-      <c r="W29" s="24">
-        <v>0</v>
+      <c r="T29" s="19">
+        <v>0</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W29" s="19">
+        <v>1</v>
       </c>
       <c r="X29" s="23">
         <v>0</v>
@@ -4291,7 +4297,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="20">
@@ -4330,35 +4336,35 @@
       <c r="M30" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="24">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21">
         <v>1100</v>
       </c>
-      <c r="O30" s="22">
-        <v>1</v>
-      </c>
       <c r="P30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>0</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S30" s="19">
         <v>0</v>
       </c>
-      <c r="T30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U30" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V30" s="19">
-        <v>1</v>
-      </c>
-      <c r="W30" s="24">
-        <v>0</v>
+      <c r="T30" s="19">
+        <v>0</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W30" s="19">
+        <v>1</v>
       </c>
       <c r="X30" s="23">
         <v>0</v>
@@ -4380,7 +4386,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="20">
@@ -4419,35 +4425,35 @@
       <c r="M31" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="24">
+        <v>0</v>
+      </c>
+      <c r="O31" s="21">
         <v>1101</v>
       </c>
-      <c r="O31" s="22">
-        <v>0</v>
-      </c>
       <c r="P31" s="22">
         <v>0</v>
       </c>
-      <c r="Q31" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R31" s="19">
-        <v>0</v>
+      <c r="Q31" s="22">
+        <v>0</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S31" s="19">
         <v>0</v>
       </c>
-      <c r="T31" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V31" s="19">
-        <v>1</v>
-      </c>
-      <c r="W31" s="24">
-        <v>0</v>
+      <c r="T31" s="19">
+        <v>0</v>
+      </c>
+      <c r="U31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" s="19">
+        <v>1</v>
       </c>
       <c r="X31" s="23">
         <v>0</v>
@@ -4469,7 +4475,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="20">
@@ -4508,35 +4514,35 @@
       <c r="M32" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="24">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21">
         <v>1101</v>
       </c>
-      <c r="O32" s="22">
-        <v>1</v>
-      </c>
       <c r="P32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R32" s="19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>0</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S32" s="19">
         <v>0</v>
       </c>
-      <c r="T32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V32" s="19">
-        <v>1</v>
-      </c>
-      <c r="W32" s="24">
-        <v>0</v>
+      <c r="T32" s="19">
+        <v>0</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W32" s="19">
+        <v>1</v>
       </c>
       <c r="X32" s="23">
         <v>0</v>
@@ -4558,7 +4564,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="20">
@@ -4570,11 +4576,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -4593,35 +4599,35 @@
       <c r="M33" s="19">
         <v>1</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O33" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P33" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R33" s="19">
-        <v>0</v>
+      <c r="Q33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S33" s="19">
         <v>0</v>
       </c>
-      <c r="T33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V33" s="19">
-        <v>0</v>
-      </c>
-      <c r="W33" s="24" t="s">
-        <v>118</v>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W33" s="19">
+        <v>0</v>
       </c>
       <c r="X33" s="23" t="s">
         <v>108</v>
@@ -4643,7 +4649,7 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="20">
@@ -4655,11 +4661,11 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -4678,35 +4684,35 @@
       <c r="M34" s="19">
         <v>1</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O34" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R34" s="19">
-        <v>0</v>
+      <c r="Q34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S34" s="19">
         <v>0</v>
       </c>
-      <c r="T34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U34" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V34" s="19">
-        <v>0</v>
-      </c>
-      <c r="W34" s="24" t="s">
-        <v>118</v>
+      <c r="T34" s="19">
+        <v>0</v>
+      </c>
+      <c r="U34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34" s="19">
+        <v>0</v>
       </c>
       <c r="X34" s="23" t="s">
         <v>108</v>
@@ -4728,7 +4734,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="20">
@@ -4740,11 +4746,11 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -4763,35 +4769,35 @@
       <c r="M35" s="19">
         <v>1</v>
       </c>
-      <c r="N35" s="21" t="s">
+      <c r="N35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O35" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q35" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R35" s="19">
-        <v>0</v>
+      <c r="Q35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S35" s="19">
         <v>0</v>
       </c>
-      <c r="T35" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V35" s="19">
-        <v>0</v>
-      </c>
-      <c r="W35" s="24" t="s">
-        <v>118</v>
+      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+      <c r="U35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35" s="19">
+        <v>0</v>
       </c>
       <c r="X35" s="23" t="s">
         <v>108</v>
@@ -4813,7 +4819,7 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="20">
@@ -4825,11 +4831,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4848,35 +4854,35 @@
       <c r="M36" s="19">
         <v>1</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O36" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R36" s="19">
-        <v>0</v>
+      <c r="Q36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R36" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S36" s="19">
         <v>0</v>
       </c>
-      <c r="T36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V36" s="19">
-        <v>0</v>
-      </c>
-      <c r="W36" s="24" t="s">
-        <v>118</v>
+      <c r="T36" s="19">
+        <v>0</v>
+      </c>
+      <c r="U36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V36" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W36" s="19">
+        <v>0</v>
       </c>
       <c r="X36" s="23" t="s">
         <v>108</v>
@@ -4898,7 +4904,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="20">
@@ -4910,11 +4916,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -4933,35 +4939,35 @@
       <c r="M37" s="19">
         <v>1</v>
       </c>
-      <c r="N37" s="21" t="s">
+      <c r="N37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O37" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R37" s="19">
-        <v>0</v>
+      <c r="Q37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R37" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S37" s="19">
         <v>0</v>
       </c>
-      <c r="T37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U37" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V37" s="19">
-        <v>0</v>
-      </c>
-      <c r="W37" s="24" t="s">
-        <v>118</v>
+      <c r="T37" s="19">
+        <v>0</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W37" s="19">
+        <v>0</v>
       </c>
       <c r="X37" s="23" t="s">
         <v>108</v>
@@ -4983,7 +4989,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="20">
@@ -4995,11 +5001,11 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -5018,35 +5024,35 @@
       <c r="M38" s="19">
         <v>1</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O38" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R38" s="19">
-        <v>0</v>
+      <c r="Q38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R38" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S38" s="19">
         <v>0</v>
       </c>
-      <c r="T38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U38" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V38" s="19">
-        <v>0</v>
-      </c>
-      <c r="W38" s="24" t="s">
-        <v>118</v>
+      <c r="T38" s="19">
+        <v>0</v>
+      </c>
+      <c r="U38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W38" s="19">
+        <v>0</v>
       </c>
       <c r="X38" s="23" t="s">
         <v>108</v>
@@ -5068,7 +5074,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="20">
@@ -5080,11 +5086,11 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -5103,35 +5109,35 @@
       <c r="M39" s="19">
         <v>1</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="24">
+        <v>10</v>
+      </c>
+      <c r="O39" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q39" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R39" s="19">
-        <v>0</v>
+      <c r="Q39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R39" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S39" s="19">
         <v>0</v>
       </c>
-      <c r="T39" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U39" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V39" s="19">
-        <v>1</v>
-      </c>
-      <c r="W39" s="24">
-        <v>10</v>
+      <c r="T39" s="19">
+        <v>0</v>
+      </c>
+      <c r="U39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V39" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W39" s="19">
+        <v>1</v>
       </c>
       <c r="X39" s="23">
         <v>1</v>
@@ -5153,7 +5159,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="20">
@@ -5165,11 +5171,11 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="19">
         <v>1</v>
       </c>
@@ -5188,35 +5194,35 @@
       <c r="M40" s="19">
         <v>1</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="24">
+        <v>10</v>
+      </c>
+      <c r="O40" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O40" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q40" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R40" s="19">
-        <v>0</v>
+      <c r="Q40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R40" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S40" s="19">
         <v>0</v>
       </c>
-      <c r="T40" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V40" s="19">
-        <v>1</v>
-      </c>
-      <c r="W40" s="24">
-        <v>10</v>
+      <c r="T40" s="19">
+        <v>0</v>
+      </c>
+      <c r="U40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W40" s="19">
+        <v>1</v>
       </c>
       <c r="X40" s="23">
         <v>1</v>
@@ -5238,19 +5244,19 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -5269,35 +5275,35 @@
       <c r="M41" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N41" s="21" t="s">
+      <c r="N41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O41" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P41" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R41" s="19">
-        <v>0</v>
+      <c r="Q41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R41" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S41" s="19">
         <v>0</v>
       </c>
-      <c r="T41" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V41" s="19">
-        <v>0</v>
-      </c>
-      <c r="W41" s="24" t="s">
-        <v>118</v>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0</v>
       </c>
       <c r="X41" s="23" t="s">
         <v>108</v>
@@ -5319,19 +5325,19 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="44" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -5350,35 +5356,35 @@
       <c r="M42" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N42" s="21" t="s">
+      <c r="N42" s="24">
+        <v>10</v>
+      </c>
+      <c r="O42" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O42" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q42" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R42" s="19">
-        <v>0</v>
+      <c r="Q42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R42" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S42" s="19">
         <v>0</v>
       </c>
-      <c r="T42" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U42" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V42" s="19">
-        <v>1</v>
-      </c>
-      <c r="W42" s="24">
-        <v>10</v>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V42" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W42" s="19">
+        <v>1</v>
       </c>
       <c r="X42" s="23">
         <v>1</v>
@@ -5400,7 +5406,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="44" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="20">
@@ -5439,35 +5445,35 @@
       <c r="M43" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O43" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R43" s="19">
-        <v>0</v>
+      <c r="Q43" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R43" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S43" s="19">
         <v>0</v>
       </c>
-      <c r="T43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U43" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V43" s="19">
-        <v>0</v>
-      </c>
-      <c r="W43" s="24" t="s">
-        <v>118</v>
+      <c r="T43" s="19">
+        <v>0</v>
+      </c>
+      <c r="U43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V43" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" s="19">
+        <v>0</v>
       </c>
       <c r="X43" s="23" t="s">
         <v>108</v>
@@ -5489,7 +5495,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="20">
@@ -5528,35 +5534,35 @@
       <c r="M44" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="24">
+        <v>0</v>
+      </c>
+      <c r="O44" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O44" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q44" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R44" s="19">
-        <v>0</v>
+      <c r="Q44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R44" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S44" s="19">
         <v>0</v>
       </c>
-      <c r="T44" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U44" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V44" s="19">
-        <v>1</v>
-      </c>
-      <c r="W44" s="24">
-        <v>0</v>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W44" s="19">
+        <v>1</v>
       </c>
       <c r="X44" s="23">
         <v>1</v>
@@ -5578,7 +5584,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="20">
@@ -5617,35 +5623,35 @@
       <c r="M45" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="N45" s="24">
+        <v>0</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O45" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P45" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q45" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R45" s="19">
-        <v>0</v>
+      <c r="Q45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R45" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S45" s="19">
         <v>0</v>
       </c>
-      <c r="T45" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U45" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V45" s="19">
-        <v>1</v>
-      </c>
-      <c r="W45" s="24">
-        <v>0</v>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W45" s="19">
+        <v>1</v>
       </c>
       <c r="X45" s="23">
         <v>10</v>
@@ -5667,7 +5673,7 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="20">
@@ -5706,35 +5712,35 @@
       <c r="M46" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N46" s="21" t="s">
+      <c r="N46" s="24">
+        <v>0</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O46" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P46" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q46" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R46" s="19">
-        <v>0</v>
+      <c r="Q46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R46" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S46" s="19">
         <v>0</v>
       </c>
-      <c r="T46" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U46" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V46" s="19">
-        <v>1</v>
-      </c>
-      <c r="W46" s="24">
-        <v>0</v>
+      <c r="T46" s="19">
+        <v>0</v>
+      </c>
+      <c r="U46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W46" s="19">
+        <v>1</v>
       </c>
       <c r="X46" s="23">
         <v>11</v>
@@ -5795,35 +5801,35 @@
       <c r="M47" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O47" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P47" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R47" s="19">
-        <v>0</v>
+      <c r="Q47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R47" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S47" s="19">
         <v>0</v>
       </c>
-      <c r="T47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V47" s="19">
-        <v>0</v>
-      </c>
-      <c r="W47" s="24" t="s">
-        <v>118</v>
+      <c r="T47" s="19">
+        <v>0</v>
+      </c>
+      <c r="U47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V47" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W47" s="19">
+        <v>0</v>
       </c>
       <c r="X47" s="23" t="s">
         <v>108</v>
@@ -5884,35 +5890,35 @@
       <c r="M48" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N48" s="21" t="s">
+      <c r="N48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O48" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P48" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R48" s="19">
-        <v>0</v>
+      <c r="Q48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R48" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S48" s="19">
         <v>0</v>
       </c>
-      <c r="T48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U48" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V48" s="19">
-        <v>0</v>
-      </c>
-      <c r="W48" s="24" t="s">
-        <v>118</v>
+      <c r="T48" s="19">
+        <v>0</v>
+      </c>
+      <c r="U48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V48" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W48" s="19">
+        <v>0</v>
       </c>
       <c r="X48" s="23" t="s">
         <v>108</v>
@@ -5940,12 +5946,12 @@
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
@@ -5967,35 +5973,35 @@
       <c r="M49" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N49" s="21" t="s">
+      <c r="N49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P49" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R49" s="19">
-        <v>0</v>
+      <c r="Q49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S49" s="19">
         <v>0</v>
       </c>
-      <c r="T49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U49" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V49" s="19">
-        <v>0</v>
-      </c>
-      <c r="W49" s="24" t="s">
-        <v>118</v>
+      <c r="T49" s="19">
+        <v>0</v>
+      </c>
+      <c r="U49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V49" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W49" s="19">
+        <v>0</v>
       </c>
       <c r="X49" s="23" t="s">
         <v>108</v>
@@ -6023,12 +6029,12 @@
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
@@ -6050,35 +6056,35 @@
       <c r="M50" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N50" s="21" t="s">
+      <c r="N50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O50" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P50" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R50" s="19">
-        <v>0</v>
+      <c r="Q50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R50" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S50" s="19">
         <v>0</v>
       </c>
-      <c r="T50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U50" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V50" s="19">
-        <v>0</v>
-      </c>
-      <c r="W50" s="24" t="s">
-        <v>118</v>
+      <c r="T50" s="19">
+        <v>0</v>
+      </c>
+      <c r="U50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V50" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W50" s="19">
+        <v>0</v>
       </c>
       <c r="X50" s="23" t="s">
         <v>108</v>
@@ -6112,11 +6118,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -6135,34 +6141,34 @@
       <c r="M51" s="19">
         <v>1</v>
       </c>
-      <c r="N51" s="21">
-        <v>1</v>
-      </c>
-      <c r="O51" s="22">
-        <v>0</v>
+      <c r="N51" s="24">
+        <v>1</v>
+      </c>
+      <c r="O51" s="21">
+        <v>1</v>
       </c>
       <c r="P51" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R51" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="22">
+        <v>1</v>
+      </c>
+      <c r="R51" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S51" s="19">
-        <v>1</v>
-      </c>
-      <c r="T51" s="24">
-        <v>0</v>
-      </c>
-      <c r="U51" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T51" s="19">
+        <v>1</v>
+      </c>
+      <c r="U51" s="24">
+        <v>0</v>
       </c>
       <c r="V51" s="19">
         <v>1</v>
       </c>
-      <c r="W51" s="24">
+      <c r="W51" s="19">
         <v>1</v>
       </c>
       <c r="X51" s="23">
@@ -6197,11 +6203,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -6220,34 +6226,34 @@
       <c r="M52" s="19">
         <v>1</v>
       </c>
-      <c r="N52" s="21">
-        <v>1</v>
-      </c>
-      <c r="O52" s="22">
-        <v>0</v>
+      <c r="N52" s="24">
+        <v>1</v>
+      </c>
+      <c r="O52" s="21">
+        <v>1</v>
       </c>
       <c r="P52" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R52" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="22">
+        <v>1</v>
+      </c>
+      <c r="R52" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S52" s="19">
-        <v>1</v>
-      </c>
-      <c r="T52" s="24">
-        <v>0</v>
-      </c>
-      <c r="U52" s="19">
+        <v>0</v>
+      </c>
+      <c r="T52" s="19">
+        <v>1</v>
+      </c>
+      <c r="U52" s="24">
         <v>0</v>
       </c>
       <c r="V52" s="19">
-        <v>1</v>
-      </c>
-      <c r="W52" s="24">
+        <v>0</v>
+      </c>
+      <c r="W52" s="19">
         <v>1</v>
       </c>
       <c r="X52" s="23">
@@ -6282,11 +6288,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -6305,34 +6311,34 @@
       <c r="M53" s="19">
         <v>1</v>
       </c>
-      <c r="N53" s="21">
-        <v>1</v>
-      </c>
-      <c r="O53" s="22">
-        <v>0</v>
+      <c r="N53" s="24">
+        <v>1</v>
+      </c>
+      <c r="O53" s="21">
+        <v>1</v>
       </c>
       <c r="P53" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R53" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="22">
+        <v>1</v>
+      </c>
+      <c r="R53" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S53" s="19">
-        <v>1</v>
-      </c>
-      <c r="T53" s="24">
-        <v>1</v>
-      </c>
-      <c r="U53" s="19">
+        <v>0</v>
+      </c>
+      <c r="T53" s="19">
+        <v>1</v>
+      </c>
+      <c r="U53" s="24">
         <v>1</v>
       </c>
       <c r="V53" s="19">
         <v>1</v>
       </c>
-      <c r="W53" s="24">
+      <c r="W53" s="19">
         <v>1</v>
       </c>
       <c r="X53" s="23">
@@ -6367,11 +6373,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -6390,34 +6396,34 @@
       <c r="M54" s="19">
         <v>1</v>
       </c>
-      <c r="N54" s="21">
-        <v>1</v>
-      </c>
-      <c r="O54" s="22">
-        <v>0</v>
+      <c r="N54" s="24">
+        <v>1</v>
+      </c>
+      <c r="O54" s="21">
+        <v>1</v>
       </c>
       <c r="P54" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R54" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>1</v>
+      </c>
+      <c r="R54" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S54" s="19">
-        <v>1</v>
-      </c>
-      <c r="T54" s="24">
-        <v>1</v>
-      </c>
-      <c r="U54" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T54" s="19">
+        <v>1</v>
+      </c>
+      <c r="U54" s="24">
+        <v>1</v>
       </c>
       <c r="V54" s="19">
-        <v>1</v>
-      </c>
-      <c r="W54" s="24">
+        <v>0</v>
+      </c>
+      <c r="W54" s="19">
         <v>1</v>
       </c>
       <c r="X54" s="23">
@@ -6452,11 +6458,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -6475,34 +6481,34 @@
       <c r="M55" s="19">
         <v>1</v>
       </c>
-      <c r="N55" s="21">
-        <v>1</v>
-      </c>
-      <c r="O55" s="22">
-        <v>0</v>
+      <c r="N55" s="24">
+        <v>1</v>
+      </c>
+      <c r="O55" s="21">
+        <v>1</v>
       </c>
       <c r="P55" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R55" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>1</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S55" s="19">
-        <v>1</v>
-      </c>
-      <c r="T55" s="24">
+        <v>0</v>
+      </c>
+      <c r="T55" s="19">
+        <v>1</v>
+      </c>
+      <c r="U55" s="24">
         <v>10</v>
       </c>
-      <c r="U55" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V55" s="19">
-        <v>1</v>
-      </c>
-      <c r="W55" s="24">
+      <c r="V55" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W55" s="19">
         <v>1</v>
       </c>
       <c r="X55" s="23">
@@ -6537,11 +6543,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6560,35 +6566,35 @@
       <c r="M56" s="19">
         <v>1</v>
       </c>
-      <c r="N56" s="21">
-        <v>1</v>
-      </c>
-      <c r="O56" s="22">
-        <v>0</v>
+      <c r="N56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O56" s="21">
+        <v>1</v>
       </c>
       <c r="P56" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R56" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>1</v>
+      </c>
+      <c r="R56" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S56" s="19">
-        <v>0</v>
-      </c>
-      <c r="T56" s="24">
-        <v>0</v>
-      </c>
-      <c r="U56" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V56" s="19">
-        <v>0</v>
-      </c>
-      <c r="W56" s="24" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="T56" s="19">
+        <v>0</v>
+      </c>
+      <c r="U56" s="24">
+        <v>0</v>
+      </c>
+      <c r="V56" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W56" s="19">
+        <v>0</v>
       </c>
       <c r="X56" s="23" t="s">
         <v>108</v>
@@ -6622,11 +6628,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6645,35 +6651,35 @@
       <c r="M57" s="19">
         <v>1</v>
       </c>
-      <c r="N57" s="21">
-        <v>1</v>
-      </c>
-      <c r="O57" s="22">
-        <v>0</v>
+      <c r="N57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="21">
+        <v>1</v>
       </c>
       <c r="P57" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R57" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="22">
+        <v>1</v>
+      </c>
+      <c r="R57" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S57" s="19">
-        <v>0</v>
-      </c>
-      <c r="T57" s="24">
-        <v>1</v>
-      </c>
-      <c r="U57" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V57" s="19">
-        <v>0</v>
-      </c>
-      <c r="W57" s="24" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="T57" s="19">
+        <v>0</v>
+      </c>
+      <c r="U57" s="24">
+        <v>1</v>
+      </c>
+      <c r="V57" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W57" s="19">
+        <v>0</v>
       </c>
       <c r="X57" s="23" t="s">
         <v>108</v>
@@ -6707,11 +6713,11 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -6730,35 +6736,35 @@
       <c r="M58" s="19">
         <v>1</v>
       </c>
-      <c r="N58" s="21">
-        <v>1</v>
-      </c>
-      <c r="O58" s="22">
-        <v>0</v>
+      <c r="N58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="21">
+        <v>1</v>
       </c>
       <c r="P58" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R58" s="19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>1</v>
+      </c>
+      <c r="R58" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S58" s="19">
-        <v>0</v>
-      </c>
-      <c r="T58" s="24">
+        <v>1</v>
+      </c>
+      <c r="T58" s="19">
+        <v>0</v>
+      </c>
+      <c r="U58" s="24">
         <v>10</v>
       </c>
-      <c r="U58" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V58" s="19">
-        <v>0</v>
-      </c>
-      <c r="W58" s="24" t="s">
-        <v>118</v>
+      <c r="V58" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W58" s="19">
+        <v>0</v>
       </c>
       <c r="X58" s="23" t="s">
         <v>108</v>
@@ -6819,35 +6825,35 @@
       <c r="M59" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N59" s="21" t="s">
+      <c r="N59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O59" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P59" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R59" s="19">
-        <v>0</v>
+      <c r="Q59" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R59" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S59" s="19">
         <v>0</v>
       </c>
-      <c r="T59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U59" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V59" s="19">
-        <v>0</v>
-      </c>
-      <c r="W59" s="24" t="s">
-        <v>118</v>
+      <c r="T59" s="19">
+        <v>0</v>
+      </c>
+      <c r="U59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V59" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W59" s="19">
+        <v>0</v>
       </c>
       <c r="X59" s="23" t="s">
         <v>108</v>
@@ -6869,7 +6875,7 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="43" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="20">
@@ -6908,34 +6914,34 @@
       <c r="M60" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N60" s="21" t="s">
+      <c r="N60" s="24">
+        <v>1</v>
+      </c>
+      <c r="O60" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O60" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q60" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R60" s="19">
-        <v>0</v>
+      <c r="Q60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R60" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S60" s="19">
         <v>0</v>
       </c>
-      <c r="T60" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U60" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V60" s="19">
-        <v>1</v>
-      </c>
-      <c r="W60" s="24">
+      <c r="T60" s="19">
+        <v>0</v>
+      </c>
+      <c r="U60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W60" s="19">
         <v>1</v>
       </c>
       <c r="X60" s="23">
@@ -6997,35 +7003,35 @@
       <c r="M61" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N61" s="21" t="s">
+      <c r="N61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O61" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P61" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q61" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R61" s="19">
-        <v>0</v>
+      <c r="Q61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R61" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S61" s="19">
         <v>0</v>
       </c>
-      <c r="T61" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U61" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V61" s="19">
-        <v>0</v>
-      </c>
-      <c r="W61" s="24" t="s">
-        <v>118</v>
+      <c r="T61" s="19">
+        <v>0</v>
+      </c>
+      <c r="U61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W61" s="19">
+        <v>0</v>
       </c>
       <c r="X61" s="23" t="s">
         <v>108</v>
@@ -7048,7 +7054,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H62" s="19">
         <v>0</v>
@@ -7068,35 +7074,35 @@
       <c r="M62" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N62" s="21" t="s">
+      <c r="N62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O62" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P62" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q62" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R62" s="19">
-        <v>0</v>
+      <c r="Q62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R62" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="S62" s="19">
         <v>0</v>
       </c>
-      <c r="T62" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U62" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V62" s="19">
-        <v>0</v>
-      </c>
-      <c r="W62" s="24" t="s">
-        <v>118</v>
+      <c r="T62" s="19">
+        <v>0</v>
+      </c>
+      <c r="U62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W62" s="19">
+        <v>0</v>
       </c>
       <c r="X62" s="23" t="s">
         <v>108</v>
@@ -7119,6 +7125,33 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="E35:G35"/>
@@ -7132,33 +7165,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7178,12 +7184,12 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7221,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7799,10 +7805,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947260C0-B57D-402D-A7FB-E56302B48C32}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7816,7 +7822,7 @@
     <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>132</v>
       </c>
@@ -7832,8 +7838,11 @@
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -7846,8 +7855,11 @@
       <c r="F2" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -7860,8 +7872,11 @@
       <c r="F3" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>10</v>
       </c>
@@ -7875,35 +7890,48 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E5" s="7">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" s="7">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" s="7">
         <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>139</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750FEB1-9529-4D9D-8EB8-14F341333330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6B02F5-E8C5-4C5B-BB33-62017C639DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineRegs" sheetId="9" r:id="rId1"/>
@@ -1038,10 +1038,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1808,11 +1808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1932,11 +1932,11 @@
       <c r="Y2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" s="48" t="s">
+      <c r="Z2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2205,11 +2205,11 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="19">
         <v>0</v>
       </c>
@@ -2379,11 +2379,11 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -2731,11 +2731,11 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="19">
         <v>0</v>
       </c>
@@ -2905,11 +2905,11 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="19">
         <v>0</v>
       </c>
@@ -3435,11 +3435,11 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="19">
         <v>0</v>
       </c>
@@ -3520,11 +3520,11 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="19">
         <v>0</v>
       </c>
@@ -3783,11 +3783,11 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="19">
         <v>0</v>
       </c>
@@ -3957,11 +3957,11 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -4576,11 +4576,11 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="19">
         <v>1</v>
       </c>
@@ -4661,11 +4661,11 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -4746,11 +4746,11 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -4831,11 +4831,11 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="19">
         <v>1</v>
       </c>
@@ -4916,11 +4916,11 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="19">
         <v>1</v>
       </c>
@@ -5001,11 +5001,11 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -5086,11 +5086,11 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -5171,11 +5171,11 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="19">
         <v>1</v>
       </c>
@@ -5250,13 +5250,13 @@
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="19">
         <v>0</v>
       </c>
@@ -5331,13 +5331,13 @@
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="19">
         <v>0</v>
       </c>
@@ -5946,12 +5946,12 @@
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
@@ -6029,12 +6029,12 @@
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
@@ -6118,11 +6118,11 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -6203,11 +6203,11 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
       <c r="H52" s="19">
         <v>0</v>
       </c>
@@ -6288,11 +6288,11 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -6373,11 +6373,11 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="47" t="s">
+      <c r="E54" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
       <c r="H54" s="19">
         <v>0</v>
       </c>
@@ -6458,11 +6458,11 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
       <c r="H55" s="19">
         <v>0</v>
       </c>
@@ -6543,11 +6543,11 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
       <c r="H56" s="19">
         <v>0</v>
       </c>
@@ -6628,11 +6628,11 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
       <c r="H57" s="19">
         <v>0</v>
       </c>
@@ -6713,11 +6713,11 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
       <c r="H58" s="19">
         <v>0</v>
       </c>
@@ -7125,33 +7125,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="E35:G35"/>
@@ -7165,6 +7138,33 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7807,7 +7807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947260C0-B57D-402D-A7FB-E56302B48C32}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/真值表.xlsx
+++ b/真值表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6B02F5-E8C5-4C5B-BB33-62017C639DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D652DC8-68C1-403D-91EB-23257CBABD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CF49F1C-E371-4F58-9CED-100EC43E1B66}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="205">
   <si>
     <t>触发整形溢出例外</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,10 +441,6 @@
     <t>srl</t>
   </si>
   <si>
-    <t>XXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BraEnable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,6 +786,54 @@
   </si>
   <si>
     <t>regAddr3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imExcept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlExcept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluExcept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmExcept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeEret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delaySlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelaySlot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,13 +1082,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,15 +1414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF38BED-6890-44F8-A207-BB1D25B80CDD}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
@@ -1385,51 +1438,51 @@
   <sheetData>
     <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>157</v>
-      </c>
       <c r="K1" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1">
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="1">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="1">
         <v>32</v>
@@ -1437,65 +1490,77 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1">
         <v>32</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1">
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="1">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="1">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K4" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1">
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" s="1">
         <v>32</v>
@@ -1503,19 +1568,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" s="1">
         <v>32</v>
@@ -1523,277 +1588,391 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" s="1">
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K7" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="32">
-        <v>4</v>
+      <c r="D8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" s="1">
         <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K9" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="32">
-        <v>1</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="D10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K10" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="35" t="s">
-        <v>163</v>
+      <c r="D11" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="E11" s="32">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="30">
-        <v>1</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K11" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="30">
-        <v>2</v>
+      <c r="D12" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K12" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="30">
+      <c r="D13" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="D14" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="32">
         <v>2</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="31">
-        <v>1</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" s="31">
+      <c r="G14" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="30">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="30">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="31">
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="31">
         <v>3</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="31">
-        <v>1</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D17" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="31">
-        <v>3</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="31">
-        <v>2</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D18" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="31">
-        <v>1</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="31">
-        <v>1</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D19" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="31">
-        <v>2</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="31">
-        <v>1</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="31">
+      <c r="J19" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E20" s="31">
+        <v>3</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="31">
+        <v>1</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="31">
+        <v>2</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D22" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="31">
+        <v>2</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="31">
+        <v>1</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J27" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1806,13 +1985,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE90BA-5E44-4EA5-9F54-AA356AE7D912}">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1821,9 +2000,9 @@
     <col min="2" max="2" width="7.5" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.25" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.875" style="19" bestFit="1" customWidth="1"/>
@@ -1841,54 +2020,58 @@
     <col min="26" max="26" width="8" style="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" style="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="19"/>
+    <col min="29" max="29" width="8.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="46"/>
+      <c r="H1" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>141</v>
+      </c>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46" t="s">
-        <v>141</v>
-      </c>
+      <c r="N1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="46"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T1" s="46"/>
       <c r="U1" s="46"/>
       <c r="V1" s="46"/>
       <c r="W1" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X1" s="46"/>
       <c r="Y1" s="46"/>
       <c r="Z1" s="46"/>
       <c r="AA1" s="46"/>
       <c r="AB1" s="46"/>
-      <c r="AC1" s="40"/>
-    </row>
-    <row r="2" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -1896,50 +2079,51 @@
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
-      <c r="H2" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="46"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46" t="s">
+        <v>120</v>
+      </c>
       <c r="L2" s="46"/>
       <c r="M2" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S2" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T2" s="46"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X2" s="46"/>
       <c r="Y2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="40"/>
-    </row>
-    <row r="3" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="40"/>
+    </row>
+    <row r="3" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -1947,76 +2131,79 @@
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="K3" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="39" t="s">
-        <v>123</v>
-      </c>
       <c r="M3" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="R3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AB3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC3" s="40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="17">
         <v>6</v>
@@ -2036,14 +2223,14 @@
       <c r="G4" s="17">
         <v>6</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="51">
         <v>1</v>
       </c>
       <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
         <v>3</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
       </c>
       <c r="K4" s="17">
         <v>1</v>
@@ -2100,10 +2287,13 @@
         <v>1</v>
       </c>
       <c r="AC4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
@@ -2125,14 +2315,14 @@
       <c r="G5" s="20">
         <v>100000</v>
       </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K5" s="19">
         <v>0</v>
@@ -2141,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="24">
         <v>0</v>
@@ -2156,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S5" s="19">
         <v>0</v>
@@ -2165,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W5" s="19">
         <v>1</v>
@@ -2183,16 +2373,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>29</v>
       </c>
@@ -2205,19 +2398,19 @@
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K6" s="19">
         <v>0</v>
@@ -2241,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S6" s="19">
         <v>0</v>
@@ -2250,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W6" s="19">
         <v>1</v>
@@ -2268,16 +2461,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>30</v>
       </c>
@@ -2299,14 +2495,14 @@
       <c r="G7" s="20">
         <v>100001</v>
       </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K7" s="19">
         <v>0</v>
@@ -2315,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="24">
         <v>0</v>
@@ -2330,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S7" s="19">
         <v>0</v>
@@ -2339,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W7" s="19">
         <v>1</v>
@@ -2357,16 +2553,19 @@
         <v>0</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB7" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
@@ -2379,19 +2578,19 @@
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="52">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K8" s="19">
         <v>0</v>
@@ -2415,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S8" s="19">
         <v>0</v>
@@ -2424,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W8" s="19">
         <v>1</v>
@@ -2442,16 +2641,19 @@
         <v>0</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>32</v>
       </c>
@@ -2473,14 +2675,14 @@
       <c r="G9" s="20">
         <v>100010</v>
       </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
+      <c r="H9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K9" s="19">
         <v>0</v>
@@ -2489,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N9" s="24">
         <v>0</v>
@@ -2504,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
@@ -2513,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W9" s="19">
         <v>1</v>
@@ -2531,16 +2733,19 @@
         <v>0</v>
       </c>
       <c r="AA9" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
@@ -2562,14 +2767,14 @@
       <c r="G10" s="20">
         <v>100011</v>
       </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
+      <c r="H10" s="52">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K10" s="19">
         <v>0</v>
@@ -2578,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" s="24">
         <v>0</v>
@@ -2593,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
@@ -2602,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W10" s="19">
         <v>1</v>
@@ -2620,16 +2825,19 @@
         <v>0</v>
       </c>
       <c r="AA10" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC10" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>34</v>
       </c>
@@ -2651,14 +2859,14 @@
       <c r="G11" s="20">
         <v>101010</v>
       </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
+      <c r="H11" s="52">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K11" s="19">
         <v>0</v>
@@ -2667,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="24">
         <v>0</v>
@@ -2682,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
@@ -2691,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W11" s="19">
         <v>1</v>
@@ -2709,16 +2917,19 @@
         <v>0</v>
       </c>
       <c r="AA11" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>35</v>
       </c>
@@ -2731,19 +2942,19 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0</v>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="52">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K12" s="19">
         <v>0</v>
@@ -2767,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S12" s="19">
         <v>0</v>
@@ -2776,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W12" s="19">
         <v>1</v>
@@ -2794,16 +3005,19 @@
         <v>0</v>
       </c>
       <c r="AA12" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB12" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC12" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>36</v>
       </c>
@@ -2825,14 +3039,14 @@
       <c r="G13" s="20">
         <v>101011</v>
       </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
+      <c r="H13" s="52">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K13" s="19">
         <v>0</v>
@@ -2841,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" s="24">
         <v>0</v>
@@ -2856,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
@@ -2865,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W13" s="19">
         <v>1</v>
@@ -2883,16 +3097,19 @@
         <v>0</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB13" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC13" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>37</v>
       </c>
@@ -2905,19 +3122,19 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="52">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K14" s="19">
         <v>0</v>
@@ -2941,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
@@ -2950,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W14" s="19">
         <v>1</v>
@@ -2968,16 +3185,19 @@
         <v>0</v>
       </c>
       <c r="AA14" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB14" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
         <v>38</v>
       </c>
@@ -2999,14 +3219,14 @@
       <c r="G15" s="20">
         <v>11010</v>
       </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
+      <c r="H15" s="52">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K15" s="19">
         <v>0</v>
@@ -3015,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1110</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R15" s="24">
         <v>0</v>
@@ -3039,16 +3259,16 @@
         <v>0</v>
       </c>
       <c r="U15" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W15" s="19">
         <v>0</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y15" s="22">
         <v>0</v>
@@ -3062,11 +3282,14 @@
       <c r="AB15" s="22">
         <v>0</v>
       </c>
-      <c r="AC15" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>39</v>
       </c>
@@ -3088,14 +3311,14 @@
       <c r="G16" s="20">
         <v>11011</v>
       </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
+      <c r="H16" s="52">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K16" s="19">
         <v>0</v>
@@ -3104,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1110</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R16" s="24">
         <v>1</v>
@@ -3128,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W16" s="19">
         <v>0</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y16" s="22">
         <v>0</v>
@@ -3151,11 +3374,14 @@
       <c r="AB16" s="22">
         <v>0</v>
       </c>
-      <c r="AC16" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>40</v>
       </c>
@@ -3177,14 +3403,14 @@
       <c r="G17" s="20">
         <v>11000</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
+      <c r="H17" s="52">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K17" s="19">
         <v>0</v>
@@ -3193,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1110</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R17" s="24">
         <v>10</v>
@@ -3217,16 +3443,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W17" s="19">
         <v>0</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y17" s="22">
         <v>0</v>
@@ -3240,11 +3466,14 @@
       <c r="AB17" s="22">
         <v>0</v>
       </c>
-      <c r="AC17" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>41</v>
       </c>
@@ -3266,14 +3495,14 @@
       <c r="G18" s="20">
         <v>11001</v>
       </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
+      <c r="H18" s="52">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K18" s="19">
         <v>0</v>
@@ -3282,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1110</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R18" s="24">
         <v>11</v>
@@ -3306,16 +3535,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W18" s="19">
         <v>0</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y18" s="22">
         <v>0</v>
@@ -3329,11 +3558,14 @@
       <c r="AB18" s="22">
         <v>0</v>
       </c>
-      <c r="AC18" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
         <v>42</v>
       </c>
@@ -3355,14 +3587,14 @@
       <c r="G19" s="20">
         <v>100100</v>
       </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
+      <c r="H19" s="52">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K19" s="19">
         <v>0</v>
@@ -3371,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="24">
         <v>0</v>
@@ -3386,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
@@ -3395,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W19" s="19">
         <v>1</v>
@@ -3413,16 +3645,19 @@
         <v>0</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB19" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC19" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>43</v>
       </c>
@@ -3435,19 +3670,19 @@
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="52">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K20" s="19">
         <v>0</v>
@@ -3471,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S20" s="19">
         <v>0</v>
@@ -3480,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W20" s="19">
         <v>1</v>
@@ -3498,16 +3733,19 @@
         <v>0</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB20" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC20" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>44</v>
       </c>
@@ -3520,19 +3758,19 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="19">
-        <v>0</v>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="52">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K21" s="19">
         <v>0</v>
@@ -3541,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N21" s="24">
         <v>1</v>
@@ -3550,13 +3788,13 @@
         <v>111</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="22">
         <v>1</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S21" s="19">
         <v>0</v>
@@ -3565,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W21" s="19">
         <v>1</v>
@@ -3583,16 +3821,19 @@
         <v>0</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC21" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>45</v>
       </c>
@@ -3614,14 +3855,14 @@
       <c r="G22" s="20">
         <v>100111</v>
       </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0</v>
+      <c r="H22" s="52">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K22" s="19">
         <v>0</v>
@@ -3630,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22" s="24">
         <v>0</v>
@@ -3645,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S22" s="19">
         <v>0</v>
@@ -3654,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W22" s="19">
         <v>1</v>
@@ -3672,16 +3913,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB22" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC22" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>46</v>
       </c>
@@ -3703,14 +3947,14 @@
       <c r="G23" s="20">
         <v>100101</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
+      <c r="H23" s="52">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K23" s="19">
         <v>0</v>
@@ -3719,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N23" s="24">
         <v>0</v>
@@ -3734,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S23" s="19">
         <v>0</v>
@@ -3743,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W23" s="19">
         <v>1</v>
@@ -3761,16 +4005,19 @@
         <v>0</v>
       </c>
       <c r="AA23" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC23" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>47</v>
       </c>
@@ -3783,19 +4030,19 @@
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0</v>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="52">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K24" s="19">
         <v>0</v>
@@ -3819,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
@@ -3828,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W24" s="19">
         <v>1</v>
@@ -3846,16 +4093,19 @@
         <v>0</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC24" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>48</v>
       </c>
@@ -3877,14 +4127,14 @@
       <c r="G25" s="20">
         <v>100110</v>
       </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0</v>
+      <c r="H25" s="52">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="19">
         <v>0</v>
@@ -3893,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" s="24">
         <v>0</v>
@@ -3908,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S25" s="19">
         <v>0</v>
@@ -3917,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V25" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W25" s="19">
         <v>1</v>
@@ -3935,16 +4185,19 @@
         <v>0</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB25" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC25" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>49</v>
       </c>
@@ -3957,19 +4210,19 @@
       <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="19">
-        <v>0</v>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="52">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K26" s="19">
         <v>0</v>
@@ -3993,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S26" s="19">
         <v>0</v>
@@ -4002,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W26" s="19">
         <v>1</v>
@@ -4020,16 +4273,19 @@
         <v>0</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB26" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC26" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>50</v>
       </c>
@@ -4051,14 +4307,14 @@
       <c r="G27" s="20">
         <v>100</v>
       </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="19">
-        <v>0</v>
+      <c r="H27" s="52">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K27" s="19">
         <v>0</v>
@@ -4067,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N27" s="24">
         <v>0</v>
@@ -4082,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S27" s="19">
         <v>0</v>
@@ -4091,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="U27" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W27" s="19">
         <v>1</v>
@@ -4109,16 +4365,19 @@
         <v>0</v>
       </c>
       <c r="AA27" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB27" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC27" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>52</v>
       </c>
@@ -4140,14 +4399,14 @@
       <c r="G28" s="20">
         <v>0</v>
       </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J28" s="19">
-        <v>0</v>
+      <c r="H28" s="52">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K28" s="19">
         <v>0</v>
@@ -4156,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" s="24">
         <v>0</v>
@@ -4171,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S28" s="19">
         <v>0</v>
@@ -4180,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="U28" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W28" s="19">
         <v>1</v>
@@ -4198,16 +4457,19 @@
         <v>0</v>
       </c>
       <c r="AA28" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB28" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC28" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC28" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
@@ -4229,14 +4491,14 @@
       <c r="G29" s="20">
         <v>111</v>
       </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0</v>
+      <c r="H29" s="52">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K29" s="19">
         <v>0</v>
@@ -4245,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29" s="24">
         <v>0</v>
@@ -4260,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S29" s="19">
         <v>0</v>
@@ -4269,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="U29" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W29" s="19">
         <v>1</v>
@@ -4287,16 +4549,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB29" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC29" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>54</v>
       </c>
@@ -4318,14 +4583,14 @@
       <c r="G30" s="20">
         <v>11</v>
       </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0</v>
+      <c r="H30" s="52">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K30" s="19">
         <v>0</v>
@@ -4334,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" s="24">
         <v>0</v>
@@ -4349,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S30" s="19">
         <v>0</v>
@@ -4358,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W30" s="19">
         <v>1</v>
@@ -4376,16 +4641,19 @@
         <v>0</v>
       </c>
       <c r="AA30" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB30" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC30" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>55</v>
       </c>
@@ -4407,14 +4675,14 @@
       <c r="G31" s="20">
         <v>110</v>
       </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0</v>
+      <c r="H31" s="52">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K31" s="19">
         <v>0</v>
@@ -4423,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="24">
         <v>0</v>
@@ -4438,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S31" s="19">
         <v>0</v>
@@ -4447,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W31" s="19">
         <v>1</v>
@@ -4465,16 +4733,19 @@
         <v>0</v>
       </c>
       <c r="AA31" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC31" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC31" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>56</v>
       </c>
@@ -4496,14 +4767,14 @@
       <c r="G32" s="20">
         <v>10</v>
       </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="19">
-        <v>0</v>
+      <c r="H32" s="52">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K32" s="19">
         <v>0</v>
@@ -4512,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N32" s="24">
         <v>0</v>
@@ -4527,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S32" s="19">
         <v>0</v>
@@ -4536,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W32" s="19">
         <v>1</v>
@@ -4554,16 +4825,19 @@
         <v>0</v>
       </c>
       <c r="AA32" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB32" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC32" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
         <v>5</v>
       </c>
@@ -4576,18 +4850,18 @@
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="23">
-        <v>0</v>
-      </c>
-      <c r="J33" s="19">
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="52">
+        <v>1</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23">
         <v>0</v>
       </c>
       <c r="K33" s="19">
@@ -4600,19 +4874,19 @@
         <v>1</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O33" s="21">
+        <v>1110</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q33" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R33" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S33" s="19">
         <v>0</v>
@@ -4621,16 +4895,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W33" s="19">
         <v>0</v>
       </c>
       <c r="X33" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y33" s="22">
         <v>0</v>
@@ -4639,16 +4913,19 @@
         <v>0</v>
       </c>
       <c r="AA33" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB33" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC33" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
@@ -4661,19 +4938,19 @@
       <c r="D34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="23">
-        <v>1</v>
-      </c>
-      <c r="J34" s="19">
-        <v>0</v>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="52">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23">
+        <v>1</v>
       </c>
       <c r="K34" s="19">
         <v>0</v>
@@ -4685,19 +4962,19 @@
         <v>1</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O34" s="21">
+        <v>1110</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q34" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S34" s="19">
         <v>0</v>
@@ -4706,16 +4983,16 @@
         <v>0</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W34" s="19">
         <v>0</v>
       </c>
       <c r="X34" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y34" s="22">
         <v>0</v>
@@ -4724,16 +5001,19 @@
         <v>0</v>
       </c>
       <c r="AA34" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB34" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC34" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
         <v>9</v>
       </c>
@@ -4746,20 +5026,20 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
-      <c r="I35" s="23">
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="52">
+        <v>1</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1</v>
+      </c>
+      <c r="J35" s="23">
         <v>10</v>
       </c>
-      <c r="J35" s="19">
-        <v>0</v>
-      </c>
       <c r="K35" s="19">
         <v>0</v>
       </c>
@@ -4770,19 +5050,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O35" s="21">
+        <v>1110</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R35" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S35" s="19">
         <v>0</v>
@@ -4791,16 +5071,16 @@
         <v>0</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W35" s="19">
         <v>0</v>
       </c>
       <c r="X35" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y35" s="22">
         <v>0</v>
@@ -4809,16 +5089,19 @@
         <v>0</v>
       </c>
       <c r="AA35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB35" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC35" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
         <v>10</v>
       </c>
@@ -4831,20 +5114,20 @@
       <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
-      <c r="I36" s="23">
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="52">
+        <v>1</v>
+      </c>
+      <c r="I36" s="19">
+        <v>1</v>
+      </c>
+      <c r="J36" s="23">
         <v>11</v>
       </c>
-      <c r="J36" s="19">
-        <v>0</v>
-      </c>
       <c r="K36" s="19">
         <v>0</v>
       </c>
@@ -4855,19 +5138,19 @@
         <v>1</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O36" s="21">
+        <v>1110</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q36" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R36" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S36" s="19">
         <v>0</v>
@@ -4876,16 +5159,16 @@
         <v>0</v>
       </c>
       <c r="U36" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W36" s="19">
         <v>0</v>
       </c>
       <c r="X36" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y36" s="22">
         <v>0</v>
@@ -4894,16 +5177,19 @@
         <v>0</v>
       </c>
       <c r="AA36" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB36" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC36" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
         <v>12</v>
       </c>
@@ -4916,20 +5202,20 @@
       <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
-      <c r="I37" s="23">
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="52">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="23">
         <v>100</v>
       </c>
-      <c r="J37" s="19">
-        <v>0</v>
-      </c>
       <c r="K37" s="19">
         <v>0</v>
       </c>
@@ -4940,19 +5226,19 @@
         <v>1</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O37" s="21">
+        <v>1110</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q37" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R37" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S37" s="19">
         <v>0</v>
@@ -4961,16 +5247,16 @@
         <v>0</v>
       </c>
       <c r="U37" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W37" s="19">
         <v>0</v>
       </c>
       <c r="X37" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y37" s="22">
         <v>0</v>
@@ -4979,16 +5265,19 @@
         <v>0</v>
       </c>
       <c r="AA37" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB37" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC37" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
         <v>14</v>
       </c>
@@ -5001,20 +5290,20 @@
       <c r="D38" s="12">
         <v>0</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
-      <c r="I38" s="23">
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="52">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
+      <c r="J38" s="23">
         <v>101</v>
       </c>
-      <c r="J38" s="19">
-        <v>0</v>
-      </c>
       <c r="K38" s="19">
         <v>0</v>
       </c>
@@ -5025,19 +5314,19 @@
         <v>1</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O38" s="21">
+        <v>1110</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q38" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R38" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S38" s="19">
         <v>0</v>
@@ -5046,16 +5335,16 @@
         <v>0</v>
       </c>
       <c r="U38" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W38" s="19">
         <v>0</v>
       </c>
       <c r="X38" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y38" s="22">
         <v>0</v>
@@ -5064,16 +5353,19 @@
         <v>0</v>
       </c>
       <c r="AA38" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC38" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>16</v>
       </c>
@@ -5086,19 +5378,19 @@
       <c r="D39" s="12">
         <v>10001</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="19">
-        <v>1</v>
-      </c>
-      <c r="I39" s="23">
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="52">
+        <v>1</v>
+      </c>
+      <c r="I39" s="19">
+        <v>1</v>
+      </c>
+      <c r="J39" s="23">
         <v>10</v>
-      </c>
-      <c r="J39" s="19">
-        <v>0</v>
       </c>
       <c r="K39" s="19">
         <v>0</v>
@@ -5112,17 +5404,17 @@
       <c r="N39" s="24">
         <v>10</v>
       </c>
-      <c r="O39" s="21" t="s">
-        <v>106</v>
+      <c r="O39" s="21">
+        <v>1110</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R39" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S39" s="19">
         <v>0</v>
@@ -5131,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W39" s="19">
         <v>1</v>
@@ -5149,16 +5441,19 @@
         <v>0</v>
       </c>
       <c r="AA39" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB39" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC39" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
         <v>17</v>
       </c>
@@ -5171,19 +5466,19 @@
       <c r="D40" s="12">
         <v>10000</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="23">
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="52">
+        <v>1</v>
+      </c>
+      <c r="I40" s="19">
+        <v>1</v>
+      </c>
+      <c r="J40" s="23">
         <v>101</v>
-      </c>
-      <c r="J40" s="19">
-        <v>0</v>
       </c>
       <c r="K40" s="19">
         <v>0</v>
@@ -5197,17 +5492,17 @@
       <c r="N40" s="24">
         <v>10</v>
       </c>
-      <c r="O40" s="21" t="s">
-        <v>106</v>
+      <c r="O40" s="21">
+        <v>1110</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q40" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R40" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S40" s="19">
         <v>0</v>
@@ -5216,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="U40" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W40" s="19">
         <v>1</v>
@@ -5234,37 +5529,40 @@
         <v>0</v>
       </c>
       <c r="AA40" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB40" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC40" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="19">
-        <v>0</v>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="52">
+        <v>1</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K41" s="19">
         <v>1</v>
@@ -5273,22 +5571,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O41" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O41" s="21">
+        <v>1110</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R41" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S41" s="19">
         <v>0</v>
@@ -5297,16 +5595,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W41" s="19">
         <v>0</v>
       </c>
       <c r="X41" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y41" s="22">
         <v>0</v>
@@ -5315,37 +5613,40 @@
         <v>0</v>
       </c>
       <c r="AA41" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB41" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC41" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="19">
-        <v>0</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="19">
-        <v>0</v>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="52">
+        <v>1</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K42" s="19">
         <v>1</v>
@@ -5354,22 +5655,22 @@
         <v>0</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N42" s="24">
         <v>10</v>
       </c>
-      <c r="O42" s="21" t="s">
-        <v>106</v>
+      <c r="O42" s="21">
+        <v>1110</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R42" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S42" s="19">
         <v>0</v>
@@ -5378,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="U42" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V42" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W42" s="19">
         <v>1</v>
@@ -5396,16 +5697,19 @@
         <v>0</v>
       </c>
       <c r="AA42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB42" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC42" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>59</v>
       </c>
@@ -5427,14 +5731,14 @@
       <c r="G43" s="20">
         <v>1000</v>
       </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="19">
-        <v>0</v>
+      <c r="H43" s="52">
+        <v>1</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K43" s="19">
         <v>0</v>
@@ -5443,22 +5747,22 @@
         <v>1</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O43" s="21">
+        <v>1110</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R43" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S43" s="19">
         <v>0</v>
@@ -5467,16 +5771,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V43" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W43" s="19">
         <v>0</v>
       </c>
       <c r="X43" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y43" s="22">
         <v>0</v>
@@ -5485,16 +5789,19 @@
         <v>0</v>
       </c>
       <c r="AA43" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB43" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC43" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>60</v>
       </c>
@@ -5516,14 +5823,14 @@
       <c r="G44" s="20">
         <v>1001</v>
       </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" s="19">
-        <v>0</v>
+      <c r="H44" s="52">
+        <v>1</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K44" s="19">
         <v>0</v>
@@ -5532,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N44" s="24">
         <v>0</v>
       </c>
-      <c r="O44" s="21" t="s">
-        <v>106</v>
+      <c r="O44" s="21">
+        <v>1110</v>
       </c>
       <c r="P44" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q44" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S44" s="19">
         <v>0</v>
@@ -5556,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="U44" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V44" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W44" s="19">
         <v>1</v>
@@ -5574,16 +5881,19 @@
         <v>0</v>
       </c>
       <c r="AA44" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB44" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC44" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
         <v>61</v>
       </c>
@@ -5605,14 +5915,14 @@
       <c r="G45" s="20">
         <v>10000</v>
       </c>
-      <c r="H45" s="19">
-        <v>0</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J45" s="19">
-        <v>0</v>
+      <c r="H45" s="52">
+        <v>0</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K45" s="19">
         <v>0</v>
@@ -5621,22 +5931,22 @@
         <v>0</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N45" s="24">
         <v>0</v>
       </c>
-      <c r="O45" s="21" t="s">
-        <v>106</v>
+      <c r="O45" s="21">
+        <v>1110</v>
       </c>
       <c r="P45" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q45" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R45" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S45" s="19">
         <v>0</v>
@@ -5645,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V45" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W45" s="19">
         <v>1</v>
@@ -5663,16 +5973,19 @@
         <v>0</v>
       </c>
       <c r="AA45" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB45" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC45" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="43" t="s">
         <v>62</v>
       </c>
@@ -5694,14 +6007,14 @@
       <c r="G46" s="20">
         <v>10010</v>
       </c>
-      <c r="H46" s="19">
-        <v>0</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="19">
-        <v>0</v>
+      <c r="H46" s="52">
+        <v>0</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K46" s="19">
         <v>0</v>
@@ -5710,22 +6023,22 @@
         <v>0</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N46" s="24">
         <v>0</v>
       </c>
-      <c r="O46" s="21" t="s">
-        <v>106</v>
+      <c r="O46" s="21">
+        <v>1110</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q46" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S46" s="19">
         <v>0</v>
@@ -5734,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="U46" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V46" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W46" s="19">
         <v>1</v>
@@ -5752,16 +6065,19 @@
         <v>0</v>
       </c>
       <c r="AA46" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB46" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC46" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>63</v>
       </c>
@@ -5783,14 +6099,14 @@
       <c r="G47" s="20">
         <v>10001</v>
       </c>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47" s="19">
-        <v>0</v>
+      <c r="H47" s="52">
+        <v>0</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K47" s="19">
         <v>0</v>
@@ -5799,22 +6115,22 @@
         <v>0</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O47" s="21">
+        <v>1110</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q47" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R47" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S47" s="19">
         <v>0</v>
@@ -5823,16 +6139,16 @@
         <v>0</v>
       </c>
       <c r="U47" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V47" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W47" s="19">
         <v>0</v>
       </c>
       <c r="X47" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y47" s="22">
         <v>0</v>
@@ -5844,13 +6160,16 @@
         <v>1</v>
       </c>
       <c r="AB47" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC47" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>64</v>
       </c>
@@ -5872,14 +6191,14 @@
       <c r="G48" s="20">
         <v>10011</v>
       </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J48" s="19">
-        <v>0</v>
+      <c r="H48" s="52">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K48" s="19">
         <v>0</v>
@@ -5888,22 +6207,22 @@
         <v>0</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O48" s="21">
+        <v>1110</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q48" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R48" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S48" s="19">
         <v>0</v>
@@ -5912,16 +6231,16 @@
         <v>0</v>
       </c>
       <c r="U48" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V48" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W48" s="19">
         <v>0</v>
       </c>
       <c r="X48" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y48" s="22">
         <v>0</v>
@@ -5930,39 +6249,42 @@
         <v>1</v>
       </c>
       <c r="AA48" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB48" s="22">
         <v>1</v>
       </c>
-      <c r="AC48" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="20">
         <v>1101</v>
       </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="19">
-        <v>0</v>
+      <c r="H49" s="52">
+        <v>0</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K49" s="19">
         <v>0</v>
@@ -5971,22 +6293,22 @@
         <v>0</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O49" s="21">
+        <v>1110</v>
       </c>
       <c r="P49" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q49" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R49" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S49" s="19">
         <v>0</v>
@@ -5995,16 +6317,16 @@
         <v>0</v>
       </c>
       <c r="U49" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V49" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W49" s="19">
         <v>0</v>
       </c>
       <c r="X49" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y49" s="22">
         <v>0</v>
@@ -6013,39 +6335,42 @@
         <v>0</v>
       </c>
       <c r="AA49" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB49" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC49" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="20">
         <v>0</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="20">
         <v>1100</v>
       </c>
-      <c r="H50" s="19">
-        <v>0</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="19">
-        <v>0</v>
+      <c r="H50" s="52">
+        <v>0</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K50" s="19">
         <v>0</v>
@@ -6054,22 +6379,22 @@
         <v>0</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O50" s="21">
+        <v>1110</v>
       </c>
       <c r="P50" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q50" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R50" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S50" s="19">
         <v>0</v>
@@ -6078,16 +6403,16 @@
         <v>0</v>
       </c>
       <c r="U50" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V50" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W50" s="19">
         <v>0</v>
       </c>
       <c r="X50" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y50" s="22">
         <v>0</v>
@@ -6096,16 +6421,19 @@
         <v>0</v>
       </c>
       <c r="AA50" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB50" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC50" s="24">
+        <v>108</v>
+      </c>
+      <c r="AC50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>68</v>
       </c>
@@ -6118,19 +6446,19 @@
       <c r="D51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="19">
-        <v>0</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51" s="19">
-        <v>0</v>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="52">
+        <v>0</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K51" s="19">
         <v>0</v>
@@ -6154,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S51" s="19">
         <v>0</v>
@@ -6181,16 +6509,19 @@
         <v>0</v>
       </c>
       <c r="AA51" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB51" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC51" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>69</v>
       </c>
@@ -6203,19 +6534,19 @@
       <c r="D52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="19">
-        <v>0</v>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="19">
+        <v>0</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K52" s="19">
         <v>0</v>
@@ -6239,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="R52" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S52" s="19">
         <v>0</v>
@@ -6266,16 +6597,19 @@
         <v>0</v>
       </c>
       <c r="AA52" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB52" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC52" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC52" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
@@ -6288,19 +6622,19 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" s="19">
-        <v>0</v>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="52">
+        <v>0</v>
+      </c>
+      <c r="I53" s="19">
+        <v>0</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K53" s="19">
         <v>0</v>
@@ -6324,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="R53" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S53" s="19">
         <v>0</v>
@@ -6351,16 +6685,19 @@
         <v>0</v>
       </c>
       <c r="AA53" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB53" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC53" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>71</v>
       </c>
@@ -6373,19 +6710,19 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="19">
-        <v>0</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J54" s="19">
-        <v>0</v>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="52">
+        <v>0</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K54" s="19">
         <v>0</v>
@@ -6409,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="R54" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S54" s="19">
         <v>0</v>
@@ -6436,16 +6773,19 @@
         <v>0</v>
       </c>
       <c r="AA54" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB54" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC54" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
@@ -6458,19 +6798,19 @@
       <c r="D55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="19">
-        <v>0</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J55" s="19">
-        <v>0</v>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="52">
+        <v>0</v>
+      </c>
+      <c r="I55" s="19">
+        <v>0</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K55" s="19">
         <v>0</v>
@@ -6494,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="R55" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S55" s="19">
         <v>0</v>
@@ -6506,7 +6846,7 @@
         <v>10</v>
       </c>
       <c r="V55" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W55" s="19">
         <v>1</v>
@@ -6521,16 +6861,19 @@
         <v>0</v>
       </c>
       <c r="AA55" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB55" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC55" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC55" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>73</v>
       </c>
@@ -6543,19 +6886,19 @@
       <c r="D56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0</v>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="52">
+        <v>0</v>
+      </c>
+      <c r="I56" s="19">
+        <v>0</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K56" s="19">
         <v>0</v>
@@ -6567,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O56" s="21">
         <v>1</v>
@@ -6579,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S56" s="19">
         <v>1</v>
@@ -6591,13 +6934,13 @@
         <v>0</v>
       </c>
       <c r="V56" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W56" s="19">
         <v>0</v>
       </c>
       <c r="X56" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y56" s="22">
         <v>0</v>
@@ -6606,16 +6949,19 @@
         <v>0</v>
       </c>
       <c r="AA56" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB56" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC56" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC56" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>74</v>
       </c>
@@ -6628,19 +6974,19 @@
       <c r="D57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0</v>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="52">
+        <v>0</v>
+      </c>
+      <c r="I57" s="19">
+        <v>0</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K57" s="19">
         <v>0</v>
@@ -6652,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O57" s="21">
         <v>1</v>
@@ -6664,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="R57" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S57" s="19">
         <v>1</v>
@@ -6676,13 +7022,13 @@
         <v>1</v>
       </c>
       <c r="V57" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W57" s="19">
         <v>0</v>
       </c>
       <c r="X57" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y57" s="22">
         <v>0</v>
@@ -6691,16 +7037,19 @@
         <v>0</v>
       </c>
       <c r="AA57" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB57" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC57" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>75</v>
       </c>
@@ -6713,19 +7062,19 @@
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="19">
-        <v>0</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J58" s="19">
-        <v>0</v>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="52">
+        <v>0</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K58" s="19">
         <v>0</v>
@@ -6737,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O58" s="21">
         <v>1</v>
@@ -6749,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S58" s="19">
         <v>1</v>
@@ -6761,13 +7110,13 @@
         <v>10</v>
       </c>
       <c r="V58" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W58" s="19">
         <v>0</v>
       </c>
       <c r="X58" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y58" s="22">
         <v>0</v>
@@ -6776,16 +7125,19 @@
         <v>0</v>
       </c>
       <c r="AA58" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB58" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC58" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC58" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>76</v>
       </c>
@@ -6807,14 +7159,14 @@
       <c r="G59" s="20">
         <v>11000</v>
       </c>
-      <c r="H59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J59" s="19">
-        <v>1</v>
+      <c r="H59" s="52">
+        <v>0</v>
+      </c>
+      <c r="I59" s="19">
+        <v>0</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K59" s="19">
         <v>0</v>
@@ -6823,22 +7175,22 @@
         <v>0</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O59" s="21">
+        <v>1110</v>
       </c>
       <c r="P59" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q59" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R59" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S59" s="19">
         <v>0</v>
@@ -6847,16 +7199,16 @@
         <v>0</v>
       </c>
       <c r="U59" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V59" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W59" s="19">
         <v>0</v>
       </c>
       <c r="X59" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y59" s="22">
         <v>0</v>
@@ -6865,16 +7217,19 @@
         <v>0</v>
       </c>
       <c r="AA59" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB59" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC59" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC59" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
         <v>78</v>
       </c>
@@ -6896,14 +7251,14 @@
       <c r="G60" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="19">
-        <v>0</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J60" s="19">
-        <v>0</v>
+      <c r="H60" s="52">
+        <v>0</v>
+      </c>
+      <c r="I60" s="19">
+        <v>0</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K60" s="19">
         <v>0</v>
@@ -6912,22 +7267,22 @@
         <v>0</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N60" s="24">
         <v>1</v>
       </c>
-      <c r="O60" s="21" t="s">
-        <v>106</v>
+      <c r="O60" s="21">
+        <v>1110</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R60" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S60" s="19">
         <v>0</v>
@@ -6936,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="U60" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V60" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W60" s="19">
         <v>1</v>
@@ -6954,16 +7309,19 @@
         <v>0</v>
       </c>
       <c r="AA60" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB60" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC60" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC60" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
         <v>79</v>
       </c>
@@ -6985,14 +7343,14 @@
       <c r="G61" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H61" s="19">
-        <v>0</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" s="19">
-        <v>0</v>
+      <c r="H61" s="52">
+        <v>0</v>
+      </c>
+      <c r="I61" s="19">
+        <v>0</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K61" s="19">
         <v>0</v>
@@ -7001,22 +7359,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N61" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O61" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O61" s="21">
+        <v>1110</v>
       </c>
       <c r="P61" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q61" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R61" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S61" s="19">
         <v>0</v>
@@ -7025,16 +7383,16 @@
         <v>0</v>
       </c>
       <c r="U61" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V61" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W61" s="19">
         <v>0</v>
       </c>
       <c r="X61" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y61" s="22">
         <v>1</v>
@@ -7043,27 +7401,30 @@
         <v>0</v>
       </c>
       <c r="AA61" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB61" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC61" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="AC61" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H62" s="19">
-        <v>0</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J62" s="19">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="H62" s="52">
+        <v>0</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="K62" s="19">
         <v>0</v>
@@ -7072,22 +7433,22 @@
         <v>0</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N62" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O62" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="O62" s="21">
+        <v>1110</v>
       </c>
       <c r="P62" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q62" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S62" s="19">
         <v>0</v>
@@ -7096,16 +7457,16 @@
         <v>0</v>
       </c>
       <c r="U62" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V62" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W62" s="19">
         <v>0</v>
       </c>
       <c r="X62" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y62" s="22">
         <v>0</v>
@@ -7114,37 +7475,28 @@
         <v>0</v>
       </c>
       <c r="AA62" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB62" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC62" s="24">
+        <v>108</v>
+      </c>
+      <c r="AC62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="24">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="H1:N1"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="E54:G54"/>
@@ -7159,14 +7511,38 @@
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="E52:G52"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="O2:O1048576 N1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7186,10 +7562,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7197,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7221,7 +7597,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7342,10 +7718,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDACB7E2-4D21-4756-8FC0-21D4AFA9E8B8}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7377,13 +7753,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -7409,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -7435,13 +7811,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -7613,6 +7989,14 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7642,7 +8026,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -7688,47 +8072,76 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD702E6A-ACE3-4E0D-8A99-CB82ACE23858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7757,13 +8170,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -7774,13 +8187,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7788,13 +8201,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -7824,7 +8237,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>3</v>
@@ -7833,13 +8246,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7847,13 +8260,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -7864,13 +8277,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7884,13 +8297,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="7">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -7901,7 +8314,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -7912,7 +8325,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -7923,7 +8336,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
